--- a/doc/本地测试链接.xlsx
+++ b/doc/本地测试链接.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="5"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="系统网址" sheetId="1" r:id="rId1"/>
@@ -3012,10 +3012,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="49">
     <font>
@@ -3187,7 +3187,112 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3203,21 +3308,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3225,96 +3315,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -3373,7 +3373,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3385,121 +3403,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3517,7 +3445,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3529,31 +3517,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3660,17 +3660,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3690,26 +3684,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3731,17 +3727,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -3757,6 +3742,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3765,10 +3765,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3777,131 +3777,131 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7598,8 +7598,8 @@
   <sheetPr/>
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -8542,8 +8542,8 @@
   <sheetPr/>
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>

--- a/doc/本地测试链接.xlsx
+++ b/doc/本地测试链接.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="6"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="系统网址" sheetId="1" r:id="rId1"/>
@@ -16,16 +16,17 @@
     <sheet name="业务类视图" sheetId="7" r:id="rId7"/>
     <sheet name="坐岗预警规则" sheetId="8" r:id="rId8"/>
     <sheet name="曲线检测" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">计划工作内容!$A$1:$F$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">计划工作内容!$A$1:$F$91</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797">
   <si>
     <t>先调整为debug</t>
   </si>
@@ -453,7 +454,7 @@
     <t>华北一体化平台网址</t>
   </si>
   <si>
-    <t>http://framework.xnyq.sinopec.com:8080/ythjczx/mainframe/ldframe/ld_index.jsp;jsessionid=A495BBACFC356965F04B2515C9628AFB?areaCode=HBGCGL</t>
+    <t>http://framework.xnyq.sinopec.com:8080/ythjczx/mainframe/ldframe/ld_index.jsp?areaCode=HBGCGL</t>
   </si>
   <si>
     <t>上网账号账户激活</t>
@@ -472,6 +473,12 @@
   </si>
   <si>
     <t>http://10.18.2.121/Pages/default.aspx</t>
+  </si>
+  <si>
+    <t>测试平台地址 tangsha.xnyq   1234asdf</t>
+  </si>
+  <si>
+    <t>http://test.xnyq.sinopec.com:8802/ythjczx/mainframe/ldframe/ld_index.jsp?areaCode=SSSJ</t>
   </si>
   <si>
     <t>整个模块页面功能重新做:1.对讲打开页面分为四个tab页面,2.整理对讲相关流程,优化接口访问,,3.增加在线用户时长计算存储,与展示.4.调整会议列表数据展示,增加加入按钮,5,调整会议记录数据展示.</t>
@@ -892,6 +899,66 @@
     <t>执行错误信息,正常为空</t>
   </si>
   <si>
+    <t>服务运行监控</t>
+  </si>
+  <si>
+    <t>平台所属</t>
+  </si>
+  <si>
+    <t>西南/华北</t>
+  </si>
+  <si>
+    <t>businessmode_monitor</t>
+  </si>
+  <si>
+    <t>项目名称</t>
+  </si>
+  <si>
+    <t>IP地址</t>
+  </si>
+  <si>
+    <t>10.18.3.31:8080</t>
+  </si>
+  <si>
+    <t>项目功能描述</t>
+  </si>
+  <si>
+    <t>石油工程智能管控平台</t>
+  </si>
+  <si>
+    <t>项目最近上报时间</t>
+  </si>
+  <si>
+    <t>项目责任人</t>
+  </si>
+  <si>
+    <t>李俊桥,邓强</t>
+  </si>
+  <si>
+    <t>电话</t>
+  </si>
+  <si>
+    <t>182xxxxxxx,182xxxxxxx</t>
+  </si>
+  <si>
+    <t>是否短信通知</t>
+  </si>
+  <si>
+    <t>正常情况更新为空</t>
+  </si>
+  <si>
+    <t>sms_history</t>
+  </si>
+  <si>
+    <t>短信发送历史</t>
+  </si>
+  <si>
+    <t>sms_send_history</t>
+  </si>
+  <si>
+    <t>短信发送历史时间,当前等级</t>
+  </si>
+  <si>
     <t>对接人</t>
   </si>
   <si>
@@ -1306,6 +1373,20 @@
   </si>
   <si>
     <t>1#,2#,3#泵冲都为0的情况 会将出口密度设为空不显示</t>
+  </si>
+  <si>
+    <t>异常管控-统计报表</t>
+  </si>
+  <si>
+    <t>1.按照异常名称统计;
+2.按照井号统计
+3.按照异常名称和井号统计</t>
+  </si>
+  <si>
+    <t>异常推岗位的逻辑完善</t>
+  </si>
+  <si>
+    <t>井身质量超标和取心率 判断重复需要单独写</t>
   </si>
   <si>
     <t>js中json的一些使用</t>
@@ -2328,6 +2409,19 @@
     <t>eclipse项目部署到tomcat时如果项目webapps下面有文件在外部打开占用会导致不能部署</t>
   </si>
   <si>
+    <t>Arrays.asList</t>
+  </si>
+  <si>
+    <t>不能直接add,remove,需要重新new一个ArrayList对象</t>
+  </si>
+  <si>
+    <t xml:space="preserve">这是由Arrays.asList() 返回的市Arrays的内部类ArrayList， 而不是java.util.ArrayList。Arrays的内部类ArrayList和java.util.ArrayList都是继承AbstractList，remove、add等方法AbstractList中是默认throw UnsupportedOperationException而且不作任何操作。java.util.ArrayList重新了这些方法而Arrays的内部类ArrayList没有重新，所以会抛出异常
+</t>
+  </si>
+  <si>
+    <t>视频播放时在没有插件的情况时采用汉威的网页版进行播放,在IE中安装控件后采用海康视频插件进行播放,海康视频控件可以对摄像头进行操作</t>
+  </si>
+  <si>
     <t>1.改造微服务</t>
   </si>
   <si>
@@ -2810,8 +2904,7 @@
 8.增加钻井液性能参数对某一个参数上下限在一定时间内不重复生成记录配置和后台功能</t>
   </si>
   <si>
-    <t xml:space="preserve">BSAE_JAVA中增加记录数据服务日志功能,现场动态右下角实时数据显示 出口密度原逻辑中包含 1#,2#,3#泵冲都为0的情况 会将出口密度设为空不显示
-</t>
+    <t>BSAE_JAVA中增加记录数据服务日志功能,现场动态右下角实时数据显示 出口密度原逻辑中包含 1#,2#,3#泵冲都为0的情况 会将出口密度设为空不显示</t>
   </si>
   <si>
     <t>编写定时任务数据服务执行日志只保留最近7天,每天凌晨1点执行一次;
@@ -2821,6 +2914,130 @@
   <si>
     <t>钻井液出口密度异常已增加1#,2#,3#泵冲均为0不预警;异常管控页面数据对比框增加1#,2#,3#泵冲显示
 数据服务查询界面增加按照执行用时查询,调整序号在6位时显示宽度,解决显示不全.</t>
+  </si>
+  <si>
+    <t>异常管控-数据-增加异常生成时工况显示</t>
+  </si>
+  <si>
+    <t>系统底层</t>
+  </si>
+  <si>
+    <t>增加向102服务器异常管控心跳接口定时5分钟发送当前项目运行信息,用于检测当前项目和服务器是否运行正常</t>
+  </si>
+  <si>
+    <t>数据服务日志记录插入前增加判断该接口当前分钟内是否已经有记录,有记录就不存储</t>
+  </si>
+  <si>
+    <t>异常管控</t>
+  </si>
+  <si>
+    <t>开始编写井身质量超标异常检测,取心率偏低异常检测开始代码</t>
+  </si>
+  <si>
+    <t>解决BASE_JAVA分布式部署时单点登录问题,采用Nginx进行负载均衡,部署8082,8084;8080只作为单点登录,在登录后通过jsp转到固定80端口上面,通过Nginx进行负载均衡分发</t>
+  </si>
+  <si>
+    <t>服务器分布式部署调整</t>
+  </si>
+  <si>
+    <t>1.调整定向预警描述中double参数小数点过多问题
+2.取消类型强制转换,定向生成异常问题排查,实时数据返回错误
+3.获取责任单位函数中增加定向专业按照钻井专业获取</t>
+  </si>
+  <si>
+    <t>新增加独立项目,用于解决Nginx负载均衡时多个tomcat服务器单点登录问题,通过独立项目进行单独登录,登录成功后跳转到Nginx服务器上.过滤所有html链接到Nginx服务</t>
+  </si>
+  <si>
+    <t xml:space="preserve">系统框架:
+1.新增加独立项目,用于解决Nginx负载均衡时多个tomcat服务器单点登录问题,通过独立项目进行单独登录,登录成功后跳转到Nginx服务器上.过滤所有html链接到Nginx服务器上.
+2.增加服务器心跳接口定时5分钟发送当前项目运行信息,用于检测当前项目和服务器是否运行正常,出现运行异常时通过短信提醒.
+3.增加提交参数过滤,过滤提交参数中字符串类型
+异常管控
+1.钻井液出口密度异常增加判断规则.
+2.数据-增加异常生成时工况显示
+3.调整定向预警描述中double参数小数点过多问题
+</t>
+  </si>
+  <si>
+    <t>1.base_java_login功能调整,同一会话中第一次登录成功后将uid存入session中,下次jsp请求先通过过滤器判断是否有uid,有就直接重定向到指定页面,没有就放行.
+2.增加获取EPBP下责任单位代码.</t>
+  </si>
+  <si>
+    <t>1.增加jsp过滤器和.do过滤器分别处理单点登录和外部应用直接访问.do接口
+2.增加上报服务器运行状态
+3.单点登录成功后在jsp页面中获取到uid后再获取IP地址和浏览器版本号,组合成一个文件夹路径并生成.下次jsp请求时直接通过jsp过滤器获取uid,不再进行重复登录,提升访速度</t>
+  </si>
+  <si>
+    <t>设计短信发送记录表,重构短信接收人获取方式,获取人员信息后存入表中,发送短信时直接从表中获取数据进行发送,发送后更新发送状态,数据展示时也从表中直接获取数据</t>
+  </si>
+  <si>
+    <t>1.生成异常实例信息后将短信接收人存入到数据表中,
+2.调整获取短信接收人逻辑,先从视图中获取岗位对应的人员,在对没有获取到的岗位去sys_user中获取,然后将所有结果存入到表中</t>
+  </si>
+  <si>
+    <t>autopro</t>
+  </si>
+  <si>
+    <t>1.暂停定向预警
+2.调整工程预警代码,处理可能出现的调用硬件功能异常影响数据存入到异常管控中
+3.调整上报心跳代码调用位置</t>
+  </si>
+  <si>
+    <t>1.修复保存数据服务记录接口关于日期参数格式和sql中格式不匹配造成的错误
+2.替换执行参数中的特殊字符.</t>
+  </si>
+  <si>
+    <t>base_java</t>
+  </si>
+  <si>
+    <t>1.调整js到body最后面
+2.给修改后的js增加版本号
+3.增加no-cache不使用本地缓存标签</t>
+  </si>
+  <si>
+    <t>base_java_login</t>
+  </si>
+  <si>
+    <t>跳转时给链接增加版本号,可从外部文件中获取版本号</t>
+  </si>
+  <si>
+    <t>井身质量超标异常检测完成</t>
+  </si>
+  <si>
+    <t>1.调整上报心跳为spring定时注解方式,取消在jsp过滤器中通过timer调用,解决timer运行时容易出错
+2.提升spring版本为4.3</t>
+  </si>
+  <si>
+    <t>1.修复异常周期配置大小写引起的错误
+2.页面增加meta不使用缓存标签
+3.完善井身质量超标
+4.开发完成取心率偏低异常</t>
+  </si>
+  <si>
+    <t>修复为宏图提供接口获取对应岗位，井号的今日工作标准接口访问速度慢从6秒以上才能返回优化为0.5秒返回</t>
+  </si>
+  <si>
+    <t>获取岗位对应人员sql三层in查询导致每次查询需要6秒.</t>
+  </si>
+  <si>
+    <t>华北</t>
+  </si>
+  <si>
+    <t>华北部署Nginx端口8083,分别部署均衡服务器3个,占用端口:8084,8085,8086.</t>
+  </si>
+  <si>
+    <t>1.调整数据库连接池为druid
+2.修复异常配置页面异常周期配置保存失败
+3.井身质量超标和取心率偏低重复异常判断,已经生成的下次扫描不再重新扫描</t>
+  </si>
+  <si>
+    <t>数据服务日志</t>
+  </si>
+  <si>
+    <t>修复保存数据服务接口调用错误信息时,参数中出现需要转义字符引起的错误,对参数进行解码还原后再存储</t>
+  </si>
+  <si>
+    <t>增加html过滤器,对html中的所有就是文件和css文件引用增加版本号</t>
   </si>
   <si>
     <t>EPBW_XN.ODS_BLBM_JZTBM</t>
@@ -2945,6 +3162,15 @@
     <t>获取井责任单位函数</t>
   </si>
   <si>
+    <t>用户中心代码</t>
+  </si>
+  <si>
+    <t>getZRDWDM_epbp</t>
+  </si>
+  <si>
+    <t>epbp代码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 
     select * from EXCEPTION_TACTICS_CONFIG ;
     select * from EXCEPTION_FORMULA_INSTANCE;
@@ -2962,6 +3188,30 @@
     <t>任务计划模版表</t>
   </si>
   <si>
+    <t>V_User_info</t>
+  </si>
+  <si>
+    <t>从用户中心查询人员信息,绑定井,岗位,电话号码</t>
+  </si>
+  <si>
+    <t>v_sms_history</t>
+  </si>
+  <si>
+    <t>短信历史查询视图</t>
+  </si>
+  <si>
+    <t>v_ycgl_hdsl</t>
+  </si>
+  <si>
+    <t>异常活动实例查询视图</t>
+  </si>
+  <si>
+    <t>EPBW_XN.v_Yhzx_Zzjg_Qbst</t>
+  </si>
+  <si>
+    <t>用户中心组织机构视图</t>
+  </si>
+  <si>
     <t>坐岗预警规则</t>
   </si>
   <si>
@@ -3012,10 +3262,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="49">
     <font>
@@ -3187,65 +3437,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3259,9 +3451,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3284,7 +3475,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3308,7 +3551,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3316,7 +3566,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3373,7 +3623,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3385,7 +3653,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3397,13 +3665,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3415,43 +3701,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3463,19 +3767,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3493,19 +3785,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3517,43 +3797,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3670,32 +3920,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -3706,6 +3930,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3725,20 +3958,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3757,6 +3987,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3765,10 +4015,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3777,135 +4027,135 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4082,6 +4332,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -4396,7 +4649,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11039475" y="2051050"/>
-          <a:ext cx="10761980" cy="7914005"/>
+          <a:ext cx="10761980" cy="8256905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4760,10 +5013,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4780,115 +5033,115 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="60" customFormat="1" spans="1:2">
-      <c r="A2" s="60" t="s">
+    <row r="2" s="61" customFormat="1" spans="1:2">
+      <c r="A2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="62" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="60" customFormat="1" spans="2:2">
-      <c r="B3" s="61"/>
-    </row>
-    <row r="4" s="60" customFormat="1" spans="1:2">
-      <c r="A4" s="60" t="s">
+    <row r="3" s="61" customFormat="1" spans="2:2">
+      <c r="B3" s="62"/>
+    </row>
+    <row r="4" s="61" customFormat="1" spans="1:2">
+      <c r="A4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="62" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" s="60" customFormat="1" spans="1:2">
-      <c r="A5" s="60" t="s">
+    <row r="5" s="61" customFormat="1" spans="1:2">
+      <c r="A5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="62" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" s="60" customFormat="1" spans="1:2">
-      <c r="A6" s="60" t="s">
+    <row r="6" s="61" customFormat="1" spans="1:2">
+      <c r="A6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="62" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" s="60" customFormat="1" spans="2:2">
-      <c r="B7" s="61"/>
-    </row>
-    <row r="8" s="60" customFormat="1" spans="1:2">
-      <c r="A8" s="60" t="s">
+    <row r="7" s="61" customFormat="1" spans="2:2">
+      <c r="B7" s="62"/>
+    </row>
+    <row r="8" s="61" customFormat="1" spans="1:2">
+      <c r="A8" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="62" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" s="60" customFormat="1" spans="1:2">
-      <c r="A9" s="60" t="s">
+    <row r="9" s="61" customFormat="1" spans="1:2">
+      <c r="A9" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="62" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" s="60" customFormat="1" spans="1:2">
-      <c r="A10" s="60" t="s">
+    <row r="10" s="61" customFormat="1" spans="1:2">
+      <c r="A10" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="62" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" s="60" customFormat="1" spans="1:2">
-      <c r="A11" s="60" t="s">
+    <row r="11" s="61" customFormat="1" spans="1:2">
+      <c r="A11" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="62" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" s="60" customFormat="1" spans="1:2">
-      <c r="A12" s="60" t="s">
+    <row r="12" s="61" customFormat="1" spans="1:2">
+      <c r="A12" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="62" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" s="60" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A13" s="60" t="s">
+    <row r="13" s="61" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A13" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="63" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" s="60" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A14" s="60" t="s">
+    <row r="14" s="61" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A14" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="62"/>
+      <c r="C14" s="63"/>
       <c r="D14" s="36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" s="60" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A15" s="60" t="s">
+    <row r="15" s="61" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A15" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="62" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="36" t="s">
@@ -4898,11 +5151,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" s="60" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A16" s="60" t="s">
+    <row r="16" s="61" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A16" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="62" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="36" t="s">
@@ -4912,126 +5165,126 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" s="60" customFormat="1" spans="1:2">
-      <c r="A17" s="60" t="s">
+    <row r="17" s="61" customFormat="1" spans="1:2">
+      <c r="A17" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="62" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" s="60" customFormat="1" spans="1:2">
-      <c r="A18" s="60" t="s">
+    <row r="18" s="61" customFormat="1" spans="1:2">
+      <c r="A18" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="62" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" s="60" customFormat="1" spans="1:2">
-      <c r="A19" s="60" t="s">
+    <row r="19" s="61" customFormat="1" spans="1:2">
+      <c r="A19" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="62" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" s="60" customFormat="1" spans="1:2">
+    <row r="20" s="61" customFormat="1" spans="1:2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="62" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" s="60" customFormat="1" spans="1:2">
-      <c r="A21" s="60" t="s">
+    <row r="21" s="61" customFormat="1" spans="1:2">
+      <c r="A21" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="62" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" s="60" customFormat="1" spans="1:2">
-      <c r="A22" s="60" t="s">
+    <row r="22" s="61" customFormat="1" spans="1:2">
+      <c r="A22" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="62" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" s="60" customFormat="1" spans="1:2">
-      <c r="A23" s="60" t="s">
+    <row r="23" s="61" customFormat="1" spans="1:2">
+      <c r="A23" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="62" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" s="60" customFormat="1" spans="1:2">
-      <c r="A24" s="60" t="s">
+    <row r="24" s="61" customFormat="1" spans="1:2">
+      <c r="A24" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="62" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" s="60" customFormat="1" spans="1:2">
-      <c r="A25" s="60" t="s">
+    <row r="25" s="61" customFormat="1" spans="1:2">
+      <c r="A25" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="64" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" s="60" customFormat="1" spans="1:2">
-      <c r="A26" s="60" t="s">
+    <row r="26" s="61" customFormat="1" spans="1:2">
+      <c r="A26" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="64" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="61" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="39" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" s="60" customFormat="1" spans="1:2">
-      <c r="A28" s="60" t="s">
+    <row r="28" s="61" customFormat="1" spans="1:2">
+      <c r="A28" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="62" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" s="60" customFormat="1" spans="2:2">
-      <c r="B29" s="61"/>
-    </row>
-    <row r="30" s="60" customFormat="1" spans="1:2">
-      <c r="A30" s="60" t="s">
+    <row r="29" s="61" customFormat="1" spans="2:2">
+      <c r="B29" s="62"/>
+    </row>
+    <row r="30" s="61" customFormat="1" spans="1:2">
+      <c r="A30" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="62" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" s="60" customFormat="1" spans="1:2">
-      <c r="A31" s="60" t="s">
+    <row r="31" s="61" customFormat="1" spans="1:2">
+      <c r="A31" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="63" t="s">
+      <c r="B31" s="64" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" s="60" customFormat="1" spans="1:2">
-      <c r="A32" s="60" t="s">
+    <row r="32" s="61" customFormat="1" spans="1:2">
+      <c r="A32" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="62" t="s">
         <v>64</v>
       </c>
     </row>
@@ -5056,39 +5309,39 @@
       <c r="H34" t="s">
         <v>69</v>
       </c>
-      <c r="I34" s="68" t="s">
+      <c r="I34" s="69" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" s="60" customFormat="1" spans="1:2">
-      <c r="A35" s="60" t="s">
+    <row r="35" s="61" customFormat="1" spans="1:2">
+      <c r="A35" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="65" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="36" s="60" customFormat="1" spans="1:2">
-      <c r="A36" s="60" t="s">
+    <row r="36" s="61" customFormat="1" spans="1:2">
+      <c r="A36" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="65" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" s="60" customFormat="1" spans="1:2">
-      <c r="A37" s="60" t="s">
+    <row r="37" s="61" customFormat="1" spans="1:2">
+      <c r="A37" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="65" t="s">
+      <c r="B37" s="66" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" s="60" customFormat="1" spans="1:2">
-      <c r="A38" s="60" t="s">
+    <row r="38" s="61" customFormat="1" spans="1:2">
+      <c r="A38" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="65" t="s">
+      <c r="B38" s="66" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5101,7 +5354,7 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="60" t="s">
+      <c r="A40" s="61" t="s">
         <v>22</v>
       </c>
       <c r="B40" s="38" t="s">
@@ -5109,7 +5362,7 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="60" t="s">
+      <c r="A41" s="61" t="s">
         <v>82</v>
       </c>
       <c r="B41" s="38" t="s">
@@ -5117,7 +5370,7 @@
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="60" t="s">
+      <c r="A42" s="61" t="s">
         <v>84</v>
       </c>
       <c r="B42" s="38" t="s">
@@ -5156,27 +5409,27 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="60" t="s">
+      <c r="A46" s="61" t="s">
         <v>94</v>
       </c>
       <c r="B46" s="1"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="60"/>
-      <c r="B47" s="61" t="s">
+      <c r="A47" s="61"/>
+      <c r="B47" s="62" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="60" t="s">
+      <c r="A48" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="61" t="s">
+      <c r="B48" s="62" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="60"/>
+      <c r="A49" s="61"/>
       <c r="B49" s="38" t="s">
         <v>98</v>
       </c>
@@ -5259,10 +5512,10 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="66" t="s">
+      <c r="A63" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="B63" s="67"/>
+      <c r="B63" s="68"/>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
@@ -5273,83 +5526,83 @@
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="60"/>
-      <c r="B66" s="63"/>
+      <c r="A66" s="61"/>
+      <c r="B66" s="64"/>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="60" t="s">
+      <c r="A67" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="B67" s="61" t="s">
+      <c r="B67" s="62" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="60" t="s">
+      <c r="A68" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="B68" s="61" t="s">
+      <c r="B68" s="62" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="60" t="s">
+      <c r="A69" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="B69" s="63" t="s">
+      <c r="B69" s="64" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="60"/>
+      <c r="A70" s="61"/>
       <c r="B70" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="60"/>
-      <c r="B71" s="63" t="s">
+      <c r="A71" s="61"/>
+      <c r="B71" s="64" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="60"/>
-      <c r="B72" s="63"/>
+      <c r="A72" s="61"/>
+      <c r="B72" s="64"/>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="60" t="s">
+      <c r="A73" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="B73" s="69" t="s">
+      <c r="B73" s="70" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="60"/>
-      <c r="B74" s="63"/>
+      <c r="A74" s="61"/>
+      <c r="B74" s="64"/>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="60"/>
-      <c r="B75" s="63"/>
+      <c r="A75" s="61"/>
+      <c r="B75" s="64"/>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="60" t="s">
+      <c r="A76" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="B76" s="63"/>
+      <c r="B76" s="64"/>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="60" t="s">
+      <c r="A77" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="B77" s="63"/>
+      <c r="B77" s="64"/>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="60"/>
-      <c r="B78" s="63"/>
+      <c r="A78" s="61"/>
+      <c r="B78" s="64"/>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="63"/>
+      <c r="B79" s="64"/>
     </row>
     <row r="80" ht="14.25" spans="1:2">
       <c r="A80" t="s">
@@ -5379,21 +5632,21 @@
       <c r="A83" t="s">
         <v>136</v>
       </c>
-      <c r="B83" s="63"/>
+      <c r="B83" s="64"/>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="60"/>
-      <c r="B84" s="63"/>
+      <c r="A84" s="61"/>
+      <c r="B84" s="64"/>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="60"/>
-      <c r="B85" s="63"/>
+      <c r="A85" s="61"/>
+      <c r="B85" s="64"/>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>137</v>
       </c>
-      <c r="B86" s="60" t="s">
+      <c r="B86" s="61" t="s">
         <v>138</v>
       </c>
       <c r="C86" t="s">
@@ -5404,21 +5657,21 @@
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="60"/>
+      <c r="A87" s="61"/>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="63"/>
+      <c r="B88" s="64"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="60" t="s">
+      <c r="A89" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="B89" s="61" t="s">
+      <c r="B89" s="62" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="60"/>
+      <c r="A90" s="61"/>
       <c r="B90" s="39"/>
     </row>
     <row r="92" spans="1:2">
@@ -5445,6 +5698,14 @@
     <row r="96" spans="2:2">
       <c r="B96" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>149</v>
+      </c>
+      <c r="B98" s="39" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -5503,17 +5764,34 @@
     <hyperlink ref="B28" r:id="rId50" display="http://localhost:8080/BASE_JAVA/dtyj/zgyj.html?uid=jiangyingying.xnyq" tooltip="http://localhost:8080/BASE_JAVA/dtyj/zgyj.html?uid=jiangyingying.xnyq"/>
     <hyperlink ref="A27" r:id="rId51" display="动态数据传输预警"/>
     <hyperlink ref="B27" r:id="rId52" display="http://localhost:8080/BASE_JAVA/dtyj/dtcs.html?uid=jiangyingying.xnyq" tooltip="http://localhost:8080/BASE_JAVA/dtyj/dtcs.html?uid=jiangyingying.xnyq"/>
-    <hyperlink ref="B89" r:id="rId53" display="http://framework.xnyq.sinopec.com:8080/ythjczx/mainframe/ldframe/ld_index.jsp;jsessionid=A495BBACFC356965F04B2515C9628AFB?areaCode=HBGCGL" tooltip="http://framework.xnyq.sinopec.com:8080/ythjczx/mainframe/ldframe/ld_index.jsp;jsessionid=A495BBACFC356965F04B2515C9628AFB?areaCode=HBGCGL"/>
+    <hyperlink ref="B89" r:id="rId53" display="http://framework.xnyq.sinopec.com:8080/ythjczx/mainframe/ldframe/ld_index.jsp?areaCode=HBGCGL" tooltip="http://framework.xnyq.sinopec.com:8080/ythjczx/mainframe/ldframe/ld_index.jsp?areaCode=HBGCGL"/>
     <hyperlink ref="B61" r:id="rId54" display="http://10.18.3.102:8080/ExceptionManagement/exinfo/ycjcxx.html?uid=tangsha.xnyq" tooltip="http://10.18.3.102:8080/ExceptionManagement/exinfo/ycjcxx.html?uid=tangsha.xnyq"/>
     <hyperlink ref="B62" r:id="rId55" display="http://10.18.3.102:8080/ExceptionManagement/manager/index.html?uid=tangsha.xnyq"/>
     <hyperlink ref="B92" r:id="rId56" display="https://ids.sinopec.com/ss/losePwd/reset"/>
     <hyperlink ref="B45" r:id="rId57" display="http://localhost:8080/BASE_JAVA/sdChart/index.html?chartType=GC&amp;uid=tangsha.xnyq"/>
     <hyperlink ref="B50" r:id="rId58" display="http://localhost:8080/BASE_JAVA/iframes/syq_index.html?uid%3Dxurenjun.hwrj%26name%3D%E5%BE%90%E4%BB%BB%E5%86%9B%26orgname%26ticket%3DST-360814-SLFJM3a47dKzaNdDDjqT-cas27.example.org"/>
+    <hyperlink ref="B98" r:id="rId59" display="http://test.xnyq.sinopec.com:8802/ythjczx/mainframe/ldframe/ld_index.jsp?areaCode=SSSJ"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -5523,7 +5801,7 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -5541,30 +5819,30 @@
         <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:2">
       <c r="A3" s="12"/>
       <c r="B3" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:2">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5572,46 +5850,46 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" ht="21" customHeight="1" spans="1:4">
       <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="12"/>
       <c r="B7" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" ht="19" customHeight="1" spans="1:2">
       <c r="A8" s="12"/>
       <c r="B8" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="12"/>
       <c r="B9" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" ht="19" customHeight="1" spans="1:2">
       <c r="A10" s="12"/>
       <c r="B10" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" ht="27" spans="1:4">
@@ -5619,10 +5897,10 @@
         <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" ht="33" customHeight="1" spans="1:2">
@@ -5630,213 +5908,213 @@
         <v>84</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" ht="27" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" ht="43" customHeight="1" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" ht="29" customHeight="1" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" ht="202.5" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" ht="36" customHeight="1" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" ht="67.5" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="12"/>
       <c r="B21" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="12"/>
       <c r="B22" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="12"/>
       <c r="B23" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="12"/>
       <c r="B24" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="12"/>
       <c r="B25" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="12"/>
       <c r="B26" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" ht="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" ht="27" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" ht="27" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="41" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C31" s="42"/>
       <c r="D31" s="43"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="44" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C32" s="45"/>
       <c r="D32" s="46"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="44" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C33" s="45"/>
       <c r="D33" s="46"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="44" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C34" s="45"/>
       <c r="D34" s="46"/>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="47" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C35" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D35" s="45" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E35" s="46" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="47" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C36" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D36" s="45" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E36" s="46" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="47" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C37" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D37" s="45">
         <v>2</v>
@@ -5847,54 +6125,54 @@
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="47" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C38" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D38" s="45" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E38" s="46"/>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="47" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C39" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D39" s="45" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E39" s="46" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="47" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C40" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D40" s="45">
         <v>1500023100</v>
       </c>
       <c r="E40" s="46" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G40" s="45"/>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="47" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C41" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D41" s="45" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E41" s="46">
         <v>1</v>
@@ -5903,255 +6181,347 @@
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="48" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="46"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="48" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D43" s="46"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="48" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D44" s="46"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="48" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B45" s="49" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D45" s="46"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="50" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B46" s="51" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C46" s="51"/>
       <c r="D46" s="52"/>
     </row>
     <row r="47" ht="27" spans="1:4">
       <c r="A47" s="53" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B47" s="54" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C47" s="54"/>
       <c r="D47" s="43"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="48" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D48" s="46" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="B49" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="C49" s="51" t="s">
         <v>246</v>
       </c>
-      <c r="B49" s="51" t="s">
-        <v>247</v>
-      </c>
-      <c r="C49" s="51" t="s">
-        <v>244</v>
-      </c>
       <c r="D49" s="52" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" ht="40.5" spans="1:4">
       <c r="A50" s="53" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B50" s="54" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C50" s="54"/>
       <c r="D50" s="43"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="50" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B51" s="51" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C51" s="51" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D51" s="52" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="53" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B52" s="54" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C52" s="55" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="48" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C53" s="56" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="50"/>
       <c r="B54" s="51" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C54" s="57" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="58" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B55" s="58" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C55" s="58" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="53" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B56" s="54" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C56" s="55" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D56" s="43" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="50" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B57" s="51" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C57" s="57" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D57" s="52" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="58" ht="27" spans="1:4">
       <c r="A58" s="53" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B58" s="54" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C58" s="54" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D58" s="43" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="59" ht="27" spans="1:4">
       <c r="A59" s="48" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D59" s="46" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="48"/>
       <c r="B60" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D60" s="46" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="48"/>
       <c r="B61" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D61" s="46" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="50"/>
       <c r="B62" s="51" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C62" s="51" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D62" s="52" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="72" spans="5:5">
-      <c r="E72" s="59"/>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="B63" s="54"/>
+      <c r="C63" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="D63" s="43" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="64" ht="27" spans="1:4">
+      <c r="A64" s="48" t="s">
+        <v>288</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D64" s="46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="48"/>
+      <c r="C65" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D65" s="46" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="48"/>
+      <c r="C66" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D66" s="46" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="48"/>
+      <c r="C67" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D67" s="59">
+        <v>43290.6385069444</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="48"/>
+      <c r="C68" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D68" s="46" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="48"/>
+      <c r="C69" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D69" s="46" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="50"/>
+      <c r="B70" s="51"/>
+      <c r="C70" s="51" t="s">
+        <v>299</v>
+      </c>
+      <c r="D70" s="52" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E72" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6167,12 +6537,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
+      <selection pane="bottomLeft" activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6186,21 +6556,21 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:6">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="B2" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="D2" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="F2" s="32">
         <v>43095</v>
@@ -6208,93 +6578,93 @@
     </row>
     <row r="3" hidden="1" spans="1:4">
       <c r="A3" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="B3" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="D3" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="B4" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="D4" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" hidden="1" spans="1:3">
       <c r="A5" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" hidden="1" spans="1:5">
       <c r="A6" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="D6" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="E6" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" hidden="1" spans="1:4">
       <c r="A7" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="D7" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" ht="27" hidden="1" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" hidden="1" spans="1:3">
       <c r="A9" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" hidden="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="D10" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="E10" s="32">
         <v>43118</v>
@@ -6303,13 +6673,13 @@
     <row r="11" hidden="1" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="D11" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="E11" s="32">
         <v>43118</v>
@@ -6317,10 +6687,10 @@
     </row>
     <row r="12" hidden="1" spans="1:3">
       <c r="A12" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" ht="71.25" hidden="1" spans="1:3">
@@ -6328,10 +6698,10 @@
         <v>43124</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" ht="42.75" hidden="1" spans="1:3">
@@ -6339,10 +6709,10 @@
         <v>43125</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" ht="14.25" hidden="1" spans="1:3">
@@ -6350,10 +6720,10 @@
         <v>43126</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" ht="14.25" hidden="1" spans="1:3">
@@ -6361,10 +6731,10 @@
         <v>43129</v>
       </c>
       <c r="B16" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="17" ht="14.25" hidden="1" spans="1:3">
@@ -6372,10 +6742,10 @@
         <v>43130</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" ht="14.25" hidden="1" spans="1:3">
@@ -6383,10 +6753,10 @@
         <v>43131</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" ht="14.25" hidden="1" spans="1:3">
@@ -6394,10 +6764,10 @@
         <v>43132</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" ht="28.5" hidden="1" spans="1:3">
@@ -6405,10 +6775,10 @@
         <v>43133</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" ht="14.25" hidden="1" spans="1:3">
@@ -6416,626 +6786,653 @@
         <v>43136</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" ht="14.25" hidden="1" spans="1:4">
       <c r="A22" s="36" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="D22" s="36"/>
     </row>
     <row r="23" ht="14.25" hidden="1" spans="1:4">
       <c r="A23" s="36"/>
       <c r="B23" s="36" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" ht="14.25" hidden="1" spans="1:5">
       <c r="A24" s="36" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="D24" s="35"/>
       <c r="E24" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" hidden="1" spans="2:5">
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="E25" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" hidden="1" spans="1:4">
       <c r="A26" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="D26" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" hidden="1" spans="1:3">
       <c r="A27" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="B28" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
     </row>
     <row r="30" hidden="1" spans="1:3">
       <c r="A30" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" hidden="1" spans="1:3">
       <c r="A31" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32" hidden="1" spans="1:3">
       <c r="A32" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33" hidden="1" spans="1:3">
       <c r="A33" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" hidden="1" spans="1:3">
       <c r="A34" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="B34" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35" hidden="1" spans="1:3">
       <c r="A35" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="B36" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37" hidden="1" spans="1:3">
       <c r="A37" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" hidden="1" spans="1:3">
       <c r="A38" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39" hidden="1" spans="1:3">
       <c r="A39" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" ht="40.5" hidden="1" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41" ht="40" customHeight="1" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42" hidden="1" spans="1:3">
       <c r="A42" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" hidden="1" spans="1:3">
       <c r="A43" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" hidden="1" spans="1:4">
       <c r="A44" s="38" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="B44" s="38"/>
       <c r="C44" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="D44" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
     </row>
     <row r="45" hidden="1" spans="1:4">
       <c r="A45" s="38" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="D45" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
     </row>
     <row r="46" hidden="1" spans="1:4">
       <c r="A46" s="39" t="s">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="B46" s="40"/>
       <c r="C46" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="D46" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
     </row>
     <row r="47" hidden="1" spans="1:4">
       <c r="A47" s="38" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="B47" s="38"/>
       <c r="C47" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="D47" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" hidden="1" spans="1:3">
       <c r="A49" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50" hidden="1" spans="1:3">
       <c r="A50" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="B50" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
     </row>
     <row r="52" hidden="1" spans="1:3">
       <c r="A52" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="B52" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53" hidden="1" spans="1:3">
       <c r="A53" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="54" hidden="1" spans="1:3">
       <c r="A54" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="55" hidden="1" spans="1:3">
       <c r="A55" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="56" hidden="1" spans="1:3">
       <c r="A56" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="57" hidden="1" spans="1:3">
       <c r="A57" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="58" hidden="1" spans="1:3">
       <c r="A58" t="s">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="B58" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="59" hidden="1" spans="1:3">
       <c r="A59" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="B59" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="60" hidden="1" spans="1:3">
       <c r="A60" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="61" hidden="1" spans="1:3">
       <c r="A61" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="62" hidden="1" spans="1:3">
       <c r="A62" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="63" hidden="1" spans="1:3">
       <c r="A63" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="64" hidden="1" spans="1:3">
       <c r="A64" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="65" hidden="1" spans="1:3">
       <c r="A65" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="B65" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
     </row>
     <row r="67" hidden="1" spans="1:3">
       <c r="A67" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="B67" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="68" hidden="1" spans="1:3">
       <c r="A68" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="69" hidden="1" spans="1:3">
       <c r="A69" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="B69" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="70" hidden="1" spans="1:3">
       <c r="A70" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="71" hidden="1" spans="1:3">
       <c r="A71" t="s">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="72" hidden="1" spans="1:3">
       <c r="A72" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="B72" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="73" hidden="1" spans="1:3">
       <c r="A73" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="B73" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="B74" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
     </row>
     <row r="75" ht="27" hidden="1" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="76" ht="67.5" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>397</v>
+        <v>419</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
     </row>
     <row r="78" hidden="1" spans="1:3">
       <c r="A78" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="B78" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="79" hidden="1" spans="1:3">
       <c r="A79" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="B79" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="80" hidden="1" spans="1:3">
       <c r="A80" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="B80" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="81" hidden="1" spans="1:3">
       <c r="A81" t="s">
-        <v>404</v>
+        <v>426</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>405</v>
+        <v>427</v>
       </c>
     </row>
     <row r="83" hidden="1" spans="1:3">
       <c r="A83" t="s">
-        <v>406</v>
+        <v>428</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="84" ht="105" hidden="1" customHeight="1" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="85" hidden="1" spans="1:3">
       <c r="A85" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="86" hidden="1" spans="1:3">
       <c r="A86" t="s">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="87" hidden="1" spans="1:3">
       <c r="A87" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="88" hidden="1" spans="1:3">
       <c r="A88" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="89" ht="40.5" spans="1:3">
+      <c r="A89" t="s">
+        <v>436</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>438</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>439</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F88">
+  <autoFilter ref="A1:F91">
     <filterColumn colId="2">
       <filters blank="1"/>
     </filterColumn>
@@ -7059,10 +7456,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -7078,442 +7475,458 @@
   <sheetData>
     <row r="1" ht="27" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="D1" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
     </row>
     <row r="2" ht="67.5" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="12" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="12"/>
       <c r="B5" s="1" t="s">
-        <v>424</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="12"/>
       <c r="B7" s="1" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="12"/>
       <c r="B8" s="1" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="12"/>
       <c r="B9" s="1" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="12"/>
       <c r="B10" s="1" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" ht="106.5" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" ht="121.5" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>435</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" ht="40.5" spans="1:3">
       <c r="A13" s="17" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" ht="40.5" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
     </row>
     <row r="15" ht="40.5" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="D15" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
     </row>
     <row r="16" ht="67.5" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17" ht="135" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>449</v>
+        <v>475</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>450</v>
+        <v>476</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>451</v>
+        <v>477</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>453</v>
+        <v>479</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>454</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" ht="40.5" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>455</v>
+        <v>481</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>456</v>
+        <v>482</v>
       </c>
     </row>
     <row r="19" ht="40.5" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>457</v>
+        <v>483</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>458</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20" ht="24" spans="1:3">
       <c r="A20" s="21" t="s">
-        <v>459</v>
+        <v>485</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>460</v>
+        <v>486</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>461</v>
+        <v>487</v>
       </c>
     </row>
     <row r="21" ht="38.25" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
     </row>
     <row r="22" ht="79.5" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="D22" t="s">
-        <v>467</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>468</v>
+        <v>494</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>469</v>
+        <v>495</v>
       </c>
     </row>
     <row r="24" ht="108" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>470</v>
+        <v>496</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>471</v>
+        <v>497</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>472</v>
+        <v>498</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>473</v>
+        <v>499</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>474</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>475</v>
+        <v>501</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>476</v>
+        <v>502</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>478</v>
+        <v>504</v>
       </c>
       <c r="E25" t="s">
-        <v>479</v>
+        <v>505</v>
       </c>
     </row>
     <row r="26" ht="68.25" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>480</v>
+        <v>506</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>481</v>
+        <v>507</v>
       </c>
     </row>
     <row r="27" ht="94.5" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>482</v>
+        <v>508</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>483</v>
+        <v>509</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>484</v>
+        <v>510</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>485</v>
+        <v>511</v>
       </c>
     </row>
     <row r="29" ht="40.5" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>486</v>
+        <v>512</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>487</v>
+        <v>513</v>
       </c>
     </row>
     <row r="30" ht="27" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>488</v>
+        <v>514</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>489</v>
+        <v>515</v>
       </c>
     </row>
     <row r="31" ht="27" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>490</v>
+        <v>516</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>491</v>
+        <v>517</v>
       </c>
     </row>
     <row r="32" ht="27" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>492</v>
+        <v>518</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>493</v>
+        <v>519</v>
       </c>
     </row>
     <row r="33" ht="81" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>494</v>
+        <v>520</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>495</v>
+        <v>521</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>496</v>
+        <v>522</v>
       </c>
       <c r="B34" s="29"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="B35" s="29"/>
     </row>
     <row r="36" ht="40.5" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>498</v>
+        <v>524</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>499</v>
+        <v>525</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>500</v>
+        <v>526</v>
       </c>
     </row>
     <row r="37" ht="94.5" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>501</v>
+        <v>527</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>502</v>
+        <v>528</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>503</v>
+        <v>529</v>
       </c>
     </row>
     <row r="38" ht="27" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>504</v>
+        <v>530</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>505</v>
+        <v>531</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>506</v>
+        <v>532</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>507</v>
+        <v>533</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="30" t="s">
-        <v>508</v>
+        <v>534</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>509</v>
+        <v>535</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="30" t="s">
-        <v>510</v>
+        <v>536</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>511</v>
+        <v>537</v>
       </c>
     </row>
     <row r="43" ht="27" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>512</v>
+        <v>538</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>513</v>
+        <v>539</v>
       </c>
     </row>
     <row r="44" ht="17.25" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>514</v>
+        <v>540</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>515</v>
+        <v>541</v>
       </c>
     </row>
     <row r="45" ht="67.5" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>516</v>
+        <v>542</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>517</v>
+        <v>543</v>
       </c>
     </row>
     <row r="46" ht="27" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>519</v>
+        <v>545</v>
       </c>
     </row>
     <row r="47" ht="27" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>520</v>
+        <v>546</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>521</v>
+        <v>547</v>
       </c>
     </row>
     <row r="48" ht="67.5" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>522</v>
+        <v>548</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>523</v>
+        <v>549</v>
       </c>
     </row>
     <row r="49" ht="27" spans="2:2">
       <c r="B49" s="1" t="s">
-        <v>524</v>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="50" ht="108" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="51" ht="27" spans="2:2">
+      <c r="B51" s="1" t="s">
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -7543,48 +7956,48 @@
   <sheetData>
     <row r="1" ht="27" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>526</v>
+        <v>556</v>
       </c>
     </row>
     <row r="2" ht="40.5" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>527</v>
+        <v>557</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>528</v>
+        <v>558</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>529</v>
+        <v>559</v>
       </c>
     </row>
     <row r="3" ht="54" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>531</v>
+        <v>561</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>529</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>532</v>
+        <v>562</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>529</v>
+        <v>559</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>533</v>
+        <v>563</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>529</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -7596,10 +8009,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -7618,7 +8031,7 @@
         <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>534</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2" spans="2:4">
@@ -7626,19 +8039,19 @@
         <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>535</v>
+        <v>565</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" ht="27" spans="2:4">
       <c r="B3" t="s">
-        <v>536</v>
+        <v>566</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>537</v>
+        <v>567</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>538</v>
+        <v>568</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:4">
@@ -7646,13 +8059,13 @@
         <v>43172</v>
       </c>
       <c r="B4" t="s">
-        <v>539</v>
+        <v>569</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>540</v>
+        <v>570</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>541</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7660,10 +8073,10 @@
         <v>43173</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>542</v>
+        <v>572</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -7672,7 +8085,7 @@
         <v>43174</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>543</v>
+        <v>573</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -7681,7 +8094,7 @@
         <v>43175</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>544</v>
+        <v>574</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -7690,10 +8103,10 @@
         <v>43176</v>
       </c>
       <c r="B8" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>546</v>
+        <v>576</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -7702,10 +8115,10 @@
         <v>43179</v>
       </c>
       <c r="B9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>547</v>
+        <v>577</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -7717,7 +8130,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>548</v>
+        <v>578</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -7726,10 +8139,10 @@
         <v>43185</v>
       </c>
       <c r="B11" t="s">
-        <v>549</v>
+        <v>579</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>550</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12" ht="27" spans="1:4">
@@ -7737,13 +8150,13 @@
         <v>43187</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>551</v>
+        <v>581</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>552</v>
+        <v>582</v>
       </c>
     </row>
     <row r="13" ht="27" spans="1:4">
@@ -7751,10 +8164,10 @@
         <v>43187</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>553</v>
+        <v>583</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -7763,10 +8176,10 @@
         <v>43192</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>554</v>
+        <v>584</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -7775,10 +8188,10 @@
         <v>43193</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>555</v>
+        <v>585</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -7787,13 +8200,13 @@
         <v>43194</v>
       </c>
       <c r="B16" t="s">
-        <v>556</v>
+        <v>586</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>557</v>
+        <v>587</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>558</v>
+        <v>588</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:4">
@@ -7801,13 +8214,13 @@
         <v>43194</v>
       </c>
       <c r="B17" t="s">
-        <v>556</v>
+        <v>586</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>559</v>
+        <v>589</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>560</v>
+        <v>590</v>
       </c>
     </row>
     <row r="18" ht="27" spans="1:4">
@@ -7815,10 +8228,10 @@
         <v>43194</v>
       </c>
       <c r="B18" t="s">
-        <v>561</v>
+        <v>591</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>562</v>
+        <v>592</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -7827,13 +8240,13 @@
         <v>43198</v>
       </c>
       <c r="B19" t="s">
-        <v>563</v>
+        <v>593</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>564</v>
+        <v>594</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>565</v>
+        <v>595</v>
       </c>
     </row>
     <row r="20" ht="27" spans="1:4">
@@ -7841,13 +8254,13 @@
         <v>43199</v>
       </c>
       <c r="B20" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7855,10 +8268,10 @@
         <v>43201</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
       <c r="D21" s="1"/>
     </row>
@@ -7867,13 +8280,13 @@
         <v>43201</v>
       </c>
       <c r="B22" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>570</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -7881,13 +8294,13 @@
         <v>43202</v>
       </c>
       <c r="B23" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>571</v>
+        <v>601</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>572</v>
+        <v>602</v>
       </c>
     </row>
     <row r="24" ht="54" spans="1:4">
@@ -7895,13 +8308,13 @@
         <v>43202</v>
       </c>
       <c r="B24" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>573</v>
+        <v>603</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>574</v>
+        <v>604</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:4">
@@ -7909,10 +8322,10 @@
         <v>43202</v>
       </c>
       <c r="B25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>575</v>
+        <v>605</v>
       </c>
       <c r="D25" s="1"/>
     </row>
@@ -7921,10 +8334,10 @@
         <v>43207</v>
       </c>
       <c r="B26" t="s">
-        <v>576</v>
+        <v>606</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>577</v>
+        <v>607</v>
       </c>
       <c r="D26" s="1"/>
     </row>
@@ -7936,7 +8349,7 @@
         <v>33</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>578</v>
+        <v>608</v>
       </c>
       <c r="D27" s="1"/>
     </row>
@@ -7948,13 +8361,13 @@
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>579</v>
+        <v>609</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>580</v>
+        <v>610</v>
       </c>
       <c r="E28" t="s">
-        <v>581</v>
+        <v>611</v>
       </c>
     </row>
     <row r="29" ht="94.5" spans="1:4">
@@ -7965,10 +8378,10 @@
         <v>31</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>582</v>
+        <v>612</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>583</v>
+        <v>613</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -7976,10 +8389,10 @@
         <v>43214</v>
       </c>
       <c r="B30" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>585</v>
+        <v>615</v>
       </c>
       <c r="D30" s="1"/>
     </row>
@@ -7991,10 +8404,10 @@
         <v>33</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>587</v>
+        <v>617</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -8002,10 +8415,10 @@
         <v>43215</v>
       </c>
       <c r="B32" t="s">
-        <v>576</v>
+        <v>606</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="D32" s="1"/>
     </row>
@@ -8014,10 +8427,10 @@
         <v>43216</v>
       </c>
       <c r="B33" t="s">
-        <v>589</v>
+        <v>619</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>590</v>
+        <v>620</v>
       </c>
       <c r="D33" s="1"/>
     </row>
@@ -8026,22 +8439,22 @@
         <v>43217</v>
       </c>
       <c r="B34" t="s">
-        <v>589</v>
+        <v>619</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>591</v>
+        <v>621</v>
       </c>
       <c r="D34" s="1"/>
     </row>
     <row r="35" ht="40.5" spans="1:4">
       <c r="A35" s="9" t="s">
-        <v>592</v>
+        <v>622</v>
       </c>
       <c r="B35" t="s">
-        <v>593</v>
+        <v>623</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>594</v>
+        <v>624</v>
       </c>
       <c r="D35" s="1"/>
     </row>
@@ -8050,10 +8463,10 @@
         <v>43228</v>
       </c>
       <c r="B36" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>595</v>
+        <v>625</v>
       </c>
       <c r="D36" s="1"/>
     </row>
@@ -8065,7 +8478,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>596</v>
+        <v>626</v>
       </c>
       <c r="D37" s="1"/>
     </row>
@@ -8074,10 +8487,10 @@
         <v>43229</v>
       </c>
       <c r="B38" t="s">
-        <v>597</v>
+        <v>627</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D38" s="1"/>
     </row>
@@ -8086,10 +8499,10 @@
         <v>43230</v>
       </c>
       <c r="B39" t="s">
-        <v>599</v>
+        <v>629</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>600</v>
+        <v>630</v>
       </c>
       <c r="D39" s="1"/>
     </row>
@@ -8098,10 +8511,10 @@
         <v>43230</v>
       </c>
       <c r="B40" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>602</v>
+        <v>632</v>
       </c>
       <c r="D40" s="1"/>
     </row>
@@ -8110,10 +8523,10 @@
         <v>43234</v>
       </c>
       <c r="B41" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>603</v>
+        <v>633</v>
       </c>
       <c r="D41" s="1"/>
     </row>
@@ -8122,10 +8535,10 @@
         <v>43235</v>
       </c>
       <c r="B42" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>604</v>
+        <v>634</v>
       </c>
       <c r="D42" s="1"/>
     </row>
@@ -8134,16 +8547,16 @@
         <v>43236</v>
       </c>
       <c r="B43" t="s">
-        <v>605</v>
+        <v>635</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>606</v>
+        <v>636</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>607</v>
+        <v>637</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>608</v>
+        <v>638</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -8154,7 +8567,7 @@
         <v>22</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>609</v>
+        <v>639</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="2"/>
@@ -8167,7 +8580,7 @@
         <v>47</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>610</v>
+        <v>640</v>
       </c>
       <c r="E45" s="2"/>
     </row>
@@ -8176,10 +8589,10 @@
         <v>43242</v>
       </c>
       <c r="B46" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>611</v>
+        <v>641</v>
       </c>
     </row>
     <row r="47" ht="61" customHeight="1" spans="1:3">
@@ -8187,10 +8600,10 @@
         <v>43243</v>
       </c>
       <c r="B47" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>612</v>
+        <v>642</v>
       </c>
     </row>
     <row r="48" ht="81" spans="1:4">
@@ -8198,72 +8611,72 @@
         <v>43244</v>
       </c>
       <c r="B48" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>613</v>
+        <v>643</v>
       </c>
       <c r="D48" t="s">
-        <v>614</v>
+        <v>644</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="13"/>
       <c r="B49" t="s">
-        <v>615</v>
+        <v>645</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>616</v>
+        <v>646</v>
       </c>
     </row>
     <row r="50" ht="27" spans="1:3">
       <c r="A50" s="14" t="s">
-        <v>617</v>
+        <v>647</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>618</v>
+        <v>648</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="14"/>
       <c r="C51" s="1" t="s">
-        <v>619</v>
+        <v>649</v>
       </c>
     </row>
     <row r="52" ht="27" spans="1:4">
       <c r="A52" s="14"/>
       <c r="C52" s="1" t="s">
-        <v>620</v>
+        <v>650</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>621</v>
+        <v>651</v>
       </c>
     </row>
     <row r="53" ht="54" spans="1:4">
       <c r="A53" s="14"/>
       <c r="C53" s="1" t="s">
-        <v>622</v>
+        <v>652</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>623</v>
+        <v>653</v>
       </c>
     </row>
     <row r="54" ht="40.5" spans="1:3">
       <c r="A54" s="14"/>
       <c r="C54" s="1" t="s">
-        <v>624</v>
+        <v>654</v>
       </c>
     </row>
     <row r="55" ht="27" spans="1:3">
       <c r="A55" s="14"/>
       <c r="C55" s="1" t="s">
-        <v>625</v>
+        <v>655</v>
       </c>
     </row>
     <row r="56" ht="27" spans="1:3">
       <c r="A56" s="14"/>
       <c r="C56" s="1" t="s">
-        <v>626</v>
+        <v>656</v>
       </c>
     </row>
     <row r="57" ht="27" spans="1:3">
@@ -8271,7 +8684,7 @@
         <v>43251</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>627</v>
+        <v>657</v>
       </c>
     </row>
     <row r="58" ht="40.5" spans="1:3">
@@ -8279,7 +8692,7 @@
         <v>43252</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>628</v>
+        <v>658</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -8287,7 +8700,7 @@
         <v>43255</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>629</v>
+        <v>659</v>
       </c>
     </row>
     <row r="60" ht="54" spans="1:3">
@@ -8295,7 +8708,7 @@
         <v>43256</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>630</v>
+        <v>660</v>
       </c>
     </row>
     <row r="61" ht="27" spans="1:3">
@@ -8303,7 +8716,7 @@
         <v>43256</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>631</v>
+        <v>661</v>
       </c>
     </row>
     <row r="62" ht="81" spans="1:3">
@@ -8311,10 +8724,10 @@
         <v>43257</v>
       </c>
       <c r="B62" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>632</v>
+        <v>662</v>
       </c>
     </row>
     <row r="63" ht="40.5" spans="1:4">
@@ -8322,10 +8735,10 @@
         <v>43257</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>633</v>
+        <v>663</v>
       </c>
       <c r="D63" t="s">
-        <v>634</v>
+        <v>664</v>
       </c>
     </row>
     <row r="64" ht="27" spans="1:4">
@@ -8333,35 +8746,35 @@
         <v>43258</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>635</v>
+        <v>665</v>
       </c>
       <c r="D64" t="s">
-        <v>636</v>
+        <v>666</v>
       </c>
     </row>
     <row r="65" ht="40.5" spans="3:3">
       <c r="C65" s="1" t="s">
-        <v>637</v>
+        <v>667</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" s="1" t="s">
-        <v>638</v>
+        <v>668</v>
       </c>
     </row>
     <row r="67" ht="67.5" spans="3:3">
       <c r="C67" s="1" t="s">
-        <v>639</v>
+        <v>669</v>
       </c>
     </row>
     <row r="68" ht="67.5" spans="3:3">
       <c r="C68" s="1" t="s">
-        <v>640</v>
+        <v>670</v>
       </c>
     </row>
     <row r="69" ht="27" spans="3:3">
       <c r="C69" s="1" t="s">
-        <v>641</v>
+        <v>671</v>
       </c>
     </row>
     <row r="70" ht="40.5" spans="1:3">
@@ -8369,21 +8782,21 @@
         <v>43270</v>
       </c>
       <c r="B70" t="s">
-        <v>642</v>
+        <v>672</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>643</v>
+        <v>673</v>
       </c>
     </row>
     <row r="71" ht="27" spans="1:3">
       <c r="A71" s="9" t="s">
-        <v>644</v>
+        <v>674</v>
       </c>
       <c r="B71" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>645</v>
+        <v>675</v>
       </c>
     </row>
     <row r="72" ht="27" spans="1:3">
@@ -8391,18 +8804,18 @@
         <v>43271</v>
       </c>
       <c r="B72" t="s">
-        <v>646</v>
+        <v>676</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>404</v>
+        <v>426</v>
       </c>
     </row>
     <row r="73" ht="98" customHeight="1" spans="1:4">
       <c r="A73" t="s">
-        <v>647</v>
+        <v>677</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>648</v>
+        <v>678</v>
       </c>
       <c r="D73" s="1"/>
     </row>
@@ -8411,10 +8824,10 @@
         <v>43271</v>
       </c>
       <c r="B74" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>650</v>
+        <v>680</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -8422,10 +8835,10 @@
         <v>43272</v>
       </c>
       <c r="B75" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>651</v>
+        <v>681</v>
       </c>
     </row>
     <row r="76" ht="121.5" spans="1:3">
@@ -8433,10 +8846,10 @@
         <v>43272</v>
       </c>
       <c r="B76" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>652</v>
+        <v>682</v>
       </c>
     </row>
     <row r="77" ht="27" spans="1:3">
@@ -8444,10 +8857,10 @@
         <v>43272</v>
       </c>
       <c r="B77" t="s">
-        <v>653</v>
+        <v>683</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>654</v>
+        <v>684</v>
       </c>
     </row>
     <row r="78" ht="40.5" spans="1:4">
@@ -8455,10 +8868,10 @@
         <v>43276</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>655</v>
+        <v>685</v>
       </c>
       <c r="D78" t="s">
-        <v>656</v>
+        <v>686</v>
       </c>
     </row>
     <row r="79" ht="40.5" spans="1:3">
@@ -8466,7 +8879,7 @@
         <v>43276</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>657</v>
+        <v>687</v>
       </c>
     </row>
     <row r="80" ht="40.5" spans="1:3">
@@ -8474,7 +8887,7 @@
         <v>43277</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>658</v>
+        <v>688</v>
       </c>
     </row>
     <row r="81" ht="27" spans="1:3">
@@ -8482,7 +8895,7 @@
         <v>43278</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>659</v>
+        <v>689</v>
       </c>
     </row>
     <row r="82" ht="54" spans="1:3">
@@ -8490,23 +8903,23 @@
         <v>43283</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>660</v>
+        <v>690</v>
       </c>
     </row>
     <row r="83" ht="107" customHeight="1" spans="1:3">
       <c r="A83" s="9" t="s">
-        <v>647</v>
+        <v>677</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="84" ht="54" spans="1:3">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="84" ht="40.5" spans="1:3">
       <c r="A84" s="9">
         <v>43284</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>662</v>
+        <v>692</v>
       </c>
     </row>
     <row r="85" ht="67.5" spans="1:3">
@@ -8514,7 +8927,7 @@
         <v>43285</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>663</v>
+        <v>693</v>
       </c>
     </row>
     <row r="86" ht="54" spans="1:3">
@@ -8522,7 +8935,258 @@
         <v>43286</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>664</v>
+        <v>694</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="9">
+        <v>43290</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="88" ht="27" spans="1:3">
+      <c r="A88" s="9">
+        <v>43290</v>
+      </c>
+      <c r="B88" t="s">
+        <v>696</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="89" ht="27" spans="1:3">
+      <c r="A89" s="9">
+        <v>43291</v>
+      </c>
+      <c r="B89" t="s">
+        <v>696</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="90" ht="27" spans="1:3">
+      <c r="A90" s="9">
+        <v>43291</v>
+      </c>
+      <c r="B90" t="s">
+        <v>699</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="91" ht="40.5" spans="1:3">
+      <c r="A91" s="9">
+        <v>43292</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="9">
+        <v>43293</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="93" ht="54" spans="1:3">
+      <c r="A93" s="9">
+        <v>43294</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="94" ht="40.5" spans="1:3">
+      <c r="A94" s="9">
+        <v>43297</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="95" ht="189" spans="1:3">
+      <c r="A95" t="s">
+        <v>677</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="96" ht="54" spans="1:3">
+      <c r="A96" s="9">
+        <v>43298</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="97" ht="94.5" spans="1:3">
+      <c r="A97" s="9">
+        <v>43299</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="98" ht="40.5" spans="1:3">
+      <c r="A98" s="9">
+        <v>43300</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="99" ht="54" spans="1:3">
+      <c r="A99" s="9">
+        <v>43301</v>
+      </c>
+      <c r="B99" t="s">
+        <v>699</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="100" ht="54" spans="1:3">
+      <c r="A100" s="9">
+        <v>43304</v>
+      </c>
+      <c r="B100" t="s">
+        <v>710</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="101" ht="40.5" spans="1:3">
+      <c r="A101" s="9">
+        <v>43304</v>
+      </c>
+      <c r="B101" t="s">
+        <v>696</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="102" ht="40.5" spans="1:3">
+      <c r="A102" s="9">
+        <v>43305</v>
+      </c>
+      <c r="B102" t="s">
+        <v>713</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="9">
+        <v>43305</v>
+      </c>
+      <c r="B103" t="s">
+        <v>715</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="9">
+        <v>43305</v>
+      </c>
+      <c r="B104" t="s">
+        <v>699</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="105" ht="40.5" spans="1:3">
+      <c r="A105" s="9">
+        <v>43306</v>
+      </c>
+      <c r="B105" t="s">
+        <v>715</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="106" ht="54" spans="1:3">
+      <c r="A106" s="9">
+        <v>43306</v>
+      </c>
+      <c r="B106" t="s">
+        <v>699</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="107" ht="27" spans="1:4">
+      <c r="A107" s="9">
+        <v>43306</v>
+      </c>
+      <c r="B107" t="s">
+        <v>713</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D107" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="108" ht="27" spans="1:3">
+      <c r="A108" s="9">
+        <v>43306</v>
+      </c>
+      <c r="B108" t="s">
+        <v>722</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="109" ht="54" spans="1:3">
+      <c r="A109" s="9">
+        <v>43307</v>
+      </c>
+      <c r="B109" t="s">
+        <v>699</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="110" ht="27" spans="1:3">
+      <c r="A110" s="9">
+        <v>43307</v>
+      </c>
+      <c r="B110" t="s">
+        <v>725</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="111" ht="27" spans="1:3">
+      <c r="A111" s="9">
+        <v>43308</v>
+      </c>
+      <c r="B111" t="s">
+        <v>713</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>727</v>
       </c>
     </row>
   </sheetData>
@@ -8540,13 +9204,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="34.625" customWidth="1"/>
     <col min="2" max="2" width="28.625" customWidth="1"/>
@@ -8554,175 +9218,221 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>665</v>
+        <v>728</v>
       </c>
       <c r="B1" t="s">
-        <v>666</v>
+        <v>729</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>667</v>
+        <v>730</v>
       </c>
       <c r="B2" t="s">
-        <v>668</v>
+        <v>731</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>669</v>
+        <v>732</v>
       </c>
       <c r="B3" t="s">
-        <v>670</v>
+        <v>733</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>671</v>
+        <v>734</v>
       </c>
       <c r="B4" t="s">
-        <v>672</v>
+        <v>735</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>673</v>
+        <v>736</v>
       </c>
       <c r="B5" t="s">
-        <v>674</v>
+        <v>737</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:2">
       <c r="A6" s="8" t="s">
-        <v>675</v>
+        <v>738</v>
       </c>
       <c r="B6" t="s">
-        <v>676</v>
+        <v>739</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>677</v>
+        <v>740</v>
       </c>
       <c r="B7" t="s">
-        <v>678</v>
+        <v>741</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>679</v>
+        <v>742</v>
       </c>
       <c r="B8" t="s">
-        <v>680</v>
+        <v>743</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>681</v>
+        <v>744</v>
       </c>
       <c r="B9" t="s">
-        <v>682</v>
+        <v>745</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>683</v>
+        <v>746</v>
       </c>
       <c r="B10" t="s">
-        <v>684</v>
+        <v>747</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>685</v>
+        <v>748</v>
       </c>
       <c r="B11" t="s">
-        <v>686</v>
+        <v>749</v>
       </c>
     </row>
     <row r="12" ht="94.5" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>687</v>
+        <v>750</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>688</v>
+        <v>751</v>
       </c>
       <c r="B13" t="s">
-        <v>689</v>
+        <v>752</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>690</v>
+        <v>753</v>
       </c>
       <c r="B14" t="s">
-        <v>691</v>
+        <v>754</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>692</v>
+        <v>755</v>
       </c>
       <c r="B15" t="s">
-        <v>693</v>
+        <v>756</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>694</v>
+        <v>757</v>
       </c>
       <c r="B16" t="s">
-        <v>695</v>
+        <v>758</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>696</v>
+        <v>759</v>
       </c>
       <c r="B17" t="s">
-        <v>697</v>
+        <v>760</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>698</v>
+        <v>761</v>
       </c>
       <c r="B18" t="s">
-        <v>699</v>
+        <v>762</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>700</v>
+        <v>763</v>
       </c>
       <c r="B19" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>702</v>
+        <v>765</v>
       </c>
       <c r="B20" t="s">
-        <v>703</v>
+        <v>766</v>
+      </c>
+      <c r="C20" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>768</v>
+      </c>
+      <c r="B21" t="s">
+        <v>766</v>
+      </c>
+      <c r="C21" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="23" ht="175.5" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>704</v>
+        <v>770</v>
       </c>
       <c r="B23" t="s">
-        <v>705</v>
+        <v>771</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>706</v>
+        <v>772</v>
       </c>
       <c r="B24" t="s">
-        <v>707</v>
+        <v>773</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>774</v>
+      </c>
+      <c r="B25" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>776</v>
+      </c>
+      <c r="B26" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>778</v>
+      </c>
+      <c r="B27" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>780</v>
+      </c>
+      <c r="B28" t="s">
+        <v>781</v>
       </c>
     </row>
   </sheetData>
@@ -8753,11 +9463,11 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>708</v>
+        <v>782</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>709</v>
+        <v>783</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -8765,61 +9475,61 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>710</v>
+        <v>784</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>711</v>
+        <v>785</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>711</v>
+        <v>785</v>
       </c>
     </row>
     <row r="3" ht="27" spans="2:6">
       <c r="B3" s="1" t="s">
-        <v>712</v>
+        <v>786</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>713</v>
+        <v>787</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="5"/>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>714</v>
+        <v>788</v>
       </c>
     </row>
     <row r="7" ht="67.5" spans="2:3">
       <c r="B7" s="1" t="s">
-        <v>715</v>
+        <v>789</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>716</v>
+        <v>790</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>717</v>
+        <v>791</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>718</v>
+        <v>792</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>719</v>
+        <v>793</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
-        <v>720</v>
+        <v>794</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>721</v>
+        <v>795</v>
       </c>
     </row>
   </sheetData>
@@ -8837,7 +9547,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8847,7 +9557,7 @@
   <sheetData>
     <row r="1" ht="108" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>722</v>
+        <v>796</v>
       </c>
     </row>
   </sheetData>

--- a/doc/本地测试链接.xlsx
+++ b/doc/本地测试链接.xlsx
@@ -16,17 +16,18 @@
     <sheet name="业务类视图" sheetId="7" r:id="rId7"/>
     <sheet name="坐岗预警规则" sheetId="8" r:id="rId8"/>
     <sheet name="曲线检测" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet2" sheetId="10" r:id="rId10"/>
+    <sheet name="服务器及数据库密码" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">计划工作内容!$A$1:$F$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">计划工作内容!$A$1:$F$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">业务类视图!$A$1:$C$28</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869">
   <si>
     <t>先调整为debug</t>
   </si>
@@ -1387,6 +1388,9 @@
   </si>
   <si>
     <t>井身质量超标和取心率 判断重复需要单独写</t>
+  </si>
+  <si>
+    <t>增加异常基础信息表中小部分定时任务和通过预警传递过来的数据不允许操作和查看异常执行配置</t>
   </si>
   <si>
     <t>js中json的一些使用</t>
@@ -2422,6 +2426,12 @@
     <t>视频播放时在没有插件的情况时采用汉威的网页版进行播放,在IE中安装控件后采用海康视频插件进行播放,海康视频控件可以对摄像头进行操作</t>
   </si>
   <si>
+    <t xml:space="preserve">@scheduled </t>
+  </si>
+  <si>
+    <t>在使用中如果遇到数据表被锁定会造成不能正常运行,需要解锁数据表后才能正常运行</t>
+  </si>
+  <si>
     <t>1.改造微服务</t>
   </si>
   <si>
@@ -3040,10 +3050,38 @@
     <t>增加html过滤器,对html中的所有就是文件和css文件引用增加版本号</t>
   </si>
   <si>
+    <t>1.导航页面增加获取Nginx端口后才能进行点击,在连接中加入Nginx端口
+2.在配置中增加Nginx端口配置</t>
+  </si>
+  <si>
+    <t>发送短信增加过滤本地测试</t>
+  </si>
+  <si>
+    <t>增加显示异常周期和异常策略,作用井是否配置视图</t>
+  </si>
+  <si>
+    <t>修改数据库用户名前缀正则表达式</t>
+  </si>
+  <si>
+    <t>1.配置文件增加Nginx端口配置,在获取井身结构时需要使用到
+2.发送短信增加判断只有在西南平台运行时才执行,其它平台不执行</t>
+  </si>
+  <si>
+    <t>调整华北autoPro中控制台输出,调整为log4j进行控制
+修复获取工况sql表前缀错误</t>
+  </si>
+  <si>
+    <t>修复华北岩屑图片不能正常显示,
+检查异常配置页面中周期策略配置页面显示控制功能</t>
+  </si>
+  <si>
     <t>EPBW_XN.ODS_BLBM_JZTBM</t>
   </si>
   <si>
     <t>井施工状态代码表</t>
+  </si>
+  <si>
+    <t>华北没有</t>
   </si>
   <si>
     <t>EPBW_XN.ODS_JCXX_JZTFLXX</t>
@@ -3126,7 +3164,7 @@
     <t>查询工况</t>
   </si>
   <si>
-    <t xml:space="preserve">EPBW_HB.ODS_JCXX_TJBZJDLXDYGX </t>
+    <t>EPBW_HB.ODS_JCXX_TJBZJDLXDYGX</t>
   </si>
   <si>
     <t>单井填井标志和井段类型对应关系这张表已经授权，用于和设计井段对比的</t>
@@ -3212,6 +3250,12 @@
     <t>用户中心组织机构视图</t>
   </si>
   <si>
+    <t>EPBW_HB.V_ZJGC_TXCJJBXX</t>
+  </si>
+  <si>
+    <t>井工况视图</t>
+  </si>
+  <si>
     <t>坐岗预警规则</t>
   </si>
   <si>
@@ -3255,6 +3299,183 @@
   </si>
   <si>
     <t>举例录井仪监测溢漏，com.sourcecode.dao.ChartRunMapper下getQXConfigInfo方法 QX_ITEM_COL_1表，设置逻辑为mapper获取后传到前台qx.html initQXInfo() queryQXInfoHandler进行统一汇总，后在../framework/chart/SJChart.js getQXData传入后台chartAction/getSJQXData数据处理之后再回传到前台</t>
+  </si>
+  <si>
+    <t>服务器</t>
+  </si>
+  <si>
+    <t>IP：10.18.3.102</t>
+  </si>
+  <si>
+    <t>&lt;!--实时库 --&gt;</t>
+  </si>
+  <si>
+    <t>用户：xnyqxxzx</t>
+  </si>
+  <si>
+    <t>RunDBIP=10.18.3.137</t>
+  </si>
+  <si>
+    <t>密码：kjsjfb-102=92xxzx</t>
+  </si>
+  <si>
+    <t>RunDBPort=1521</t>
+  </si>
+  <si>
+    <t>华北服务器</t>
+  </si>
+  <si>
+    <t>RunDBName=xndrc</t>
+  </si>
+  <si>
+    <t>IP:10.18.2.145</t>
+  </si>
+  <si>
+    <t>RunUserName=chaotu</t>
+  </si>
+  <si>
+    <t>用户：xnyqxxzx/Administrator</t>
+  </si>
+  <si>
+    <t>RunPassWord=cT140117</t>
+  </si>
+  <si>
+    <t>密码：sygcpt-145=92xxzx</t>
+  </si>
+  <si>
+    <t>华北数据库</t>
+  </si>
+  <si>
+    <t>测试服务器</t>
+  </si>
+  <si>
+    <t>10.18.3.29</t>
+  </si>
+  <si>
+    <t>10.18.3.133:1521/xndrc</t>
+  </si>
+  <si>
+    <t>密码：fxhy-29=92xxzx</t>
+  </si>
+  <si>
+    <t>测试库</t>
+  </si>
+  <si>
+    <t>IP：10.18.3.31</t>
+  </si>
+  <si>
+    <t>chaotu</t>
+  </si>
+  <si>
+    <t>用户：admin</t>
+  </si>
+  <si>
+    <t>cT140117_t</t>
+  </si>
+  <si>
+    <t>密码：admin</t>
+  </si>
+  <si>
+    <t>10.18.2.5:1521/xndrc</t>
+  </si>
+  <si>
+    <t>IP：10.18.3.32</t>
+  </si>
+  <si>
+    <t>&lt;!--源头库 --&gt;</t>
+  </si>
+  <si>
+    <t>//DBIP=10.18.2.90</t>
+  </si>
+  <si>
+    <t>密码：qtscweb-32=92xxzx</t>
+  </si>
+  <si>
+    <t>DBIP=10.18.3.137</t>
+  </si>
+  <si>
+    <t>IP：10.18.3.25</t>
+  </si>
+  <si>
+    <t>DBPort=1521</t>
+  </si>
+  <si>
+    <t>//DBName=xnytcj</t>
+  </si>
+  <si>
+    <t>DBName=xndrc</t>
+  </si>
+  <si>
+    <t>IP：10.18.3.46</t>
+  </si>
+  <si>
+    <t>UserName=SuperMapGAS</t>
+  </si>
+  <si>
+    <t>PassWord=SuperMapPWD</t>
+  </si>
+  <si>
+    <t>密码：sssjwasd123=456</t>
+  </si>
+  <si>
+    <t>&lt;!--录井库 --&gt;</t>
+  </si>
+  <si>
+    <t>IP：10.18.3.45</t>
+  </si>
+  <si>
+    <t>SSDBIP=10.18.2.199</t>
+  </si>
+  <si>
+    <t>用户：Administrator/xnyqxxzx</t>
+  </si>
+  <si>
+    <t>SSDBPort=1521</t>
+  </si>
+  <si>
+    <t>密码：sjkssk-45=92xxzx</t>
+  </si>
+  <si>
+    <t>SSDBName=xnyqssk</t>
+  </si>
+  <si>
+    <t>IP：10.18.3.101</t>
+  </si>
+  <si>
+    <t>SSUserName=lujing</t>
+  </si>
+  <si>
+    <t>用户：administrator</t>
+  </si>
+  <si>
+    <t>SSPassWord=ljLPys011s</t>
+  </si>
+  <si>
+    <t>密码：xnyqt123456</t>
+  </si>
+  <si>
+    <t>IP：10.18.3.103</t>
+  </si>
+  <si>
+    <t>用户：ctrj</t>
+  </si>
+  <si>
+    <t>密码：ct-98rj</t>
+  </si>
+  <si>
+    <t>IP :10.18.2.53</t>
+  </si>
+  <si>
+    <t>密码:dmgwgis-53=67xxzx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">华北正式平台地址:http://framework.xnyq.sinopec.com:8080/ythjczx/mainframe/ldframe/ld_index.jsp?areaCode=HBGCGL </t>
+  </si>
+  <si>
+    <t>测试登录:http://test.xnyq.sinopec.com:8001/cas/login</t>
+  </si>
+  <si>
+    <t>测试平台地址:http://test.xnyq.sinopec.com:8802/ythjczx/mainframe/ldframe/ld_index.jsp?areaCode=SSSJ</t>
   </si>
 </sst>
 </file>
@@ -3262,15 +3483,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="49">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3388,14 +3617,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3437,7 +3658,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3452,7 +3688,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3474,8 +3746,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3496,38 +3769,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3544,29 +3788,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3623,13 +3844,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3647,13 +3862,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3665,13 +3934,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3683,13 +3964,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3701,7 +4000,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3713,43 +4012,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3761,59 +4024,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3912,6 +4170,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -3930,30 +4199,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3999,11 +4244,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4012,153 +4270,165 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4168,109 +4438,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="10" applyAlignment="1">
@@ -4279,74 +4552,74 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4716,16 +4989,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>838200</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>142240</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1190625</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>189865</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4742,7 +5015,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4838700" y="2781300"/>
+          <a:off x="5572125" y="4000500"/>
           <a:ext cx="3552190" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5015,8 +5288,8 @@
   <sheetPr/>
   <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5033,258 +5306,258 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="61" customFormat="1" spans="1:2">
-      <c r="A2" s="61" t="s">
+    <row r="2" s="66" customFormat="1" spans="1:2">
+      <c r="A2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="67" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="61" customFormat="1" spans="2:2">
-      <c r="B3" s="62"/>
-    </row>
-    <row r="4" s="61" customFormat="1" spans="1:2">
-      <c r="A4" s="61" t="s">
+    <row r="3" s="66" customFormat="1" spans="2:2">
+      <c r="B3" s="67"/>
+    </row>
+    <row r="4" s="66" customFormat="1" spans="1:2">
+      <c r="A4" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="67" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" s="61" customFormat="1" spans="1:2">
-      <c r="A5" s="61" t="s">
+    <row r="5" s="66" customFormat="1" spans="1:2">
+      <c r="A5" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="67" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" s="61" customFormat="1" spans="1:2">
-      <c r="A6" s="61" t="s">
+    <row r="6" s="66" customFormat="1" spans="1:2">
+      <c r="A6" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="67" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" s="61" customFormat="1" spans="2:2">
-      <c r="B7" s="62"/>
-    </row>
-    <row r="8" s="61" customFormat="1" spans="1:2">
-      <c r="A8" s="61" t="s">
+    <row r="7" s="66" customFormat="1" spans="2:2">
+      <c r="B7" s="67"/>
+    </row>
+    <row r="8" s="66" customFormat="1" spans="1:2">
+      <c r="A8" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="67" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" s="61" customFormat="1" spans="1:2">
-      <c r="A9" s="61" t="s">
+    <row r="9" s="66" customFormat="1" spans="1:2">
+      <c r="A9" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="67" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" s="61" customFormat="1" spans="1:2">
-      <c r="A10" s="61" t="s">
+    <row r="10" s="66" customFormat="1" spans="1:2">
+      <c r="A10" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="67" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" s="61" customFormat="1" spans="1:2">
-      <c r="A11" s="61" t="s">
+    <row r="11" s="66" customFormat="1" spans="1:2">
+      <c r="A11" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="67" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" s="61" customFormat="1" spans="1:2">
-      <c r="A12" s="61" t="s">
+    <row r="12" s="66" customFormat="1" spans="1:2">
+      <c r="A12" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="67" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" s="61" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A13" s="61" t="s">
+    <row r="13" s="66" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A13" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="41" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" s="61" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A14" s="61" t="s">
+    <row r="14" s="66" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A14" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="36" t="s">
+      <c r="C14" s="68"/>
+      <c r="D14" s="41" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" s="61" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A15" s="61" t="s">
+    <row r="15" s="66" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A15" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="41" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" s="61" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A16" s="61" t="s">
+    <row r="16" s="66" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A16" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" s="61" customFormat="1" spans="1:2">
-      <c r="A17" s="61" t="s">
+    <row r="17" s="66" customFormat="1" spans="1:2">
+      <c r="A17" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="67" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" s="61" customFormat="1" spans="1:2">
-      <c r="A18" s="61" t="s">
+    <row r="18" s="66" customFormat="1" spans="1:2">
+      <c r="A18" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="67" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" s="61" customFormat="1" spans="1:2">
-      <c r="A19" s="61" t="s">
+    <row r="19" s="66" customFormat="1" spans="1:2">
+      <c r="A19" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="67" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" s="61" customFormat="1" spans="1:2">
+    <row r="20" s="66" customFormat="1" spans="1:2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="67" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" s="61" customFormat="1" spans="1:2">
-      <c r="A21" s="61" t="s">
+    <row r="21" s="66" customFormat="1" spans="1:2">
+      <c r="A21" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="67" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" s="61" customFormat="1" spans="1:2">
-      <c r="A22" s="61" t="s">
+    <row r="22" s="66" customFormat="1" spans="1:2">
+      <c r="A22" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="67" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" s="61" customFormat="1" spans="1:2">
-      <c r="A23" s="61" t="s">
+    <row r="23" s="66" customFormat="1" spans="1:2">
+      <c r="A23" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="67" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" s="61" customFormat="1" spans="1:2">
-      <c r="A24" s="61" t="s">
+    <row r="24" s="66" customFormat="1" spans="1:2">
+      <c r="A24" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="67" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" s="61" customFormat="1" spans="1:2">
-      <c r="A25" s="61" t="s">
+    <row r="25" s="66" customFormat="1" spans="1:2">
+      <c r="A25" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="69" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" s="61" customFormat="1" spans="1:2">
-      <c r="A26" s="61" t="s">
+    <row r="26" s="66" customFormat="1" spans="1:2">
+      <c r="A26" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="69" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="61" t="s">
+      <c r="A27" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="44" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" s="61" customFormat="1" spans="1:2">
-      <c r="A28" s="61" t="s">
+    <row r="28" s="66" customFormat="1" spans="1:2">
+      <c r="A28" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="67" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" s="61" customFormat="1" spans="2:2">
-      <c r="B29" s="62"/>
-    </row>
-    <row r="30" s="61" customFormat="1" spans="1:2">
-      <c r="A30" s="61" t="s">
+    <row r="29" s="66" customFormat="1" spans="2:2">
+      <c r="B29" s="67"/>
+    </row>
+    <row r="30" s="66" customFormat="1" spans="1:2">
+      <c r="A30" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="62" t="s">
+      <c r="B30" s="67" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" s="61" customFormat="1" spans="1:2">
-      <c r="A31" s="61" t="s">
+    <row r="31" s="66" customFormat="1" spans="1:2">
+      <c r="A31" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="64" t="s">
+      <c r="B31" s="69" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" s="61" customFormat="1" spans="1:2">
-      <c r="A32" s="61" t="s">
+    <row r="32" s="66" customFormat="1" spans="1:2">
+      <c r="A32" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="67" t="s">
         <v>64</v>
       </c>
     </row>
@@ -5292,7 +5565,7 @@
       <c r="A33" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="43" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5300,7 +5573,7 @@
       <c r="A34" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="43" t="s">
         <v>67</v>
       </c>
       <c r="G34" t="s">
@@ -5309,39 +5582,39 @@
       <c r="H34" t="s">
         <v>69</v>
       </c>
-      <c r="I34" s="69" t="s">
+      <c r="I34" s="74" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" s="61" customFormat="1" spans="1:2">
-      <c r="A35" s="61" t="s">
+    <row r="35" s="66" customFormat="1" spans="1:2">
+      <c r="A35" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="70" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="36" s="61" customFormat="1" spans="1:2">
-      <c r="A36" s="61" t="s">
+    <row r="36" s="66" customFormat="1" spans="1:2">
+      <c r="A36" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="65" t="s">
+      <c r="B36" s="70" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" s="61" customFormat="1" spans="1:2">
-      <c r="A37" s="61" t="s">
+    <row r="37" s="66" customFormat="1" spans="1:2">
+      <c r="A37" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="66" t="s">
+      <c r="B37" s="71" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" s="61" customFormat="1" spans="1:2">
-      <c r="A38" s="61" t="s">
+    <row r="38" s="66" customFormat="1" spans="1:2">
+      <c r="A38" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="66" t="s">
+      <c r="B38" s="71" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5349,42 +5622,42 @@
       <c r="A39" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="43" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="61" t="s">
+      <c r="A40" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="43" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="61" t="s">
+      <c r="A41" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="43" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="61" t="s">
+      <c r="A42" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="43" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="39"/>
+      <c r="B43" s="44"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="43" t="s">
         <v>87</v>
       </c>
       <c r="C44" t="s">
@@ -5395,7 +5668,7 @@
       <c r="A45" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="43" t="s">
         <v>90</v>
       </c>
       <c r="D45" t="s">
@@ -5409,33 +5682,33 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="61" t="s">
+      <c r="A46" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="1"/>
+      <c r="B46" s="5"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="61"/>
-      <c r="B47" s="62" t="s">
+      <c r="A47" s="66"/>
+      <c r="B47" s="67" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="61" t="s">
+      <c r="A48" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="62" t="s">
+      <c r="B48" s="67" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="61"/>
-      <c r="B49" s="38" t="s">
+      <c r="A49" s="66"/>
+      <c r="B49" s="43" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="43" t="s">
         <v>99</v>
       </c>
     </row>
@@ -5448,7 +5721,7 @@
       <c r="A52" t="s">
         <v>101</v>
       </c>
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="43" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5456,7 +5729,7 @@
       <c r="A53" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="39" t="s">
+      <c r="B53" s="44" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5464,7 +5737,7 @@
       <c r="A55" t="s">
         <v>105</v>
       </c>
-      <c r="B55" s="39" t="s">
+      <c r="B55" s="44" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5472,7 +5745,7 @@
       <c r="A56" t="s">
         <v>107</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="6" t="s">
         <v>108</v>
       </c>
     </row>
@@ -5488,18 +5761,18 @@
       <c r="A59" t="s">
         <v>111</v>
       </c>
-      <c r="B59" s="38" t="s">
+      <c r="B59" s="43" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="38"/>
+      <c r="B60" s="43"/>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>113</v>
       </c>
-      <c r="B61" s="38" t="s">
+      <c r="B61" s="43" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5507,108 +5780,108 @@
       <c r="A62" t="s">
         <v>115</v>
       </c>
-      <c r="B62" s="39" t="s">
+      <c r="B62" s="44" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="67" t="s">
+      <c r="A63" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="B63" s="68"/>
+      <c r="B63" s="73"/>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="38" t="s">
+      <c r="B65" s="43" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="61"/>
-      <c r="B66" s="64"/>
+      <c r="A66" s="66"/>
+      <c r="B66" s="69"/>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="61" t="s">
+      <c r="A67" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="B67" s="62" t="s">
+      <c r="B67" s="67" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="61" t="s">
+      <c r="A68" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="B68" s="62" t="s">
+      <c r="B68" s="67" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="61" t="s">
+      <c r="A69" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="B69" s="64" t="s">
+      <c r="B69" s="69" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="61"/>
+      <c r="A70" s="66"/>
       <c r="B70" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="61"/>
-      <c r="B71" s="64" t="s">
+      <c r="A71" s="66"/>
+      <c r="B71" s="69" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="61"/>
-      <c r="B72" s="64"/>
+      <c r="A72" s="66"/>
+      <c r="B72" s="69"/>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="61" t="s">
+      <c r="A73" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="B73" s="70" t="s">
+      <c r="B73" s="75" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="61"/>
-      <c r="B74" s="64"/>
+      <c r="A74" s="66"/>
+      <c r="B74" s="69"/>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="61"/>
-      <c r="B75" s="64"/>
+      <c r="A75" s="66"/>
+      <c r="B75" s="69"/>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="61" t="s">
+      <c r="A76" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="B76" s="64"/>
+      <c r="B76" s="69"/>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="61" t="s">
+      <c r="A77" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="B77" s="64"/>
+      <c r="B77" s="69"/>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="61"/>
-      <c r="B78" s="64"/>
+      <c r="A78" s="66"/>
+      <c r="B78" s="69"/>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="64"/>
+      <c r="B79" s="69"/>
     </row>
     <row r="80" ht="14.25" spans="1:2">
       <c r="A80" t="s">
         <v>130</v>
       </c>
-      <c r="B80" s="36" t="s">
+      <c r="B80" s="41" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5616,7 +5889,7 @@
       <c r="A81" t="s">
         <v>132</v>
       </c>
-      <c r="B81" s="36" t="s">
+      <c r="B81" s="41" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5624,7 +5897,7 @@
       <c r="A82" t="s">
         <v>134</v>
       </c>
-      <c r="B82" s="36" t="s">
+      <c r="B82" s="41" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5632,21 +5905,21 @@
       <c r="A83" t="s">
         <v>136</v>
       </c>
-      <c r="B83" s="64"/>
+      <c r="B83" s="69"/>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="61"/>
-      <c r="B84" s="64"/>
+      <c r="A84" s="66"/>
+      <c r="B84" s="69"/>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="61"/>
-      <c r="B85" s="64"/>
+      <c r="A85" s="66"/>
+      <c r="B85" s="69"/>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>137</v>
       </c>
-      <c r="B86" s="61" t="s">
+      <c r="B86" s="66" t="s">
         <v>138</v>
       </c>
       <c r="C86" t="s">
@@ -5657,33 +5930,33 @@
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="61"/>
+      <c r="A87" s="66"/>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="64"/>
+      <c r="B88" s="69"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="61" t="s">
+      <c r="A89" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="B89" s="62" t="s">
+      <c r="B89" s="67" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="61"/>
-      <c r="B90" s="39"/>
+      <c r="A90" s="66"/>
+      <c r="B90" s="44"/>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>143</v>
       </c>
-      <c r="B92" s="39" t="s">
+      <c r="B92" s="44" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="5" t="s">
         <v>145</v>
       </c>
     </row>
@@ -5704,7 +5977,7 @@
       <c r="A98" t="s">
         <v>149</v>
       </c>
-      <c r="B98" s="39" t="s">
+      <c r="B98" s="44" t="s">
         <v>150</v>
       </c>
     </row>
@@ -5755,7 +6028,7 @@
     <hyperlink ref="B26" r:id="rId41" display="http://localhost:8080/BASE_JAVA/dtyj/qtyj.html?uid=jiangyingying.xnyq" tooltip="http://localhost:8080/BASE_JAVA/dtyj/qtyj.html?uid=jiangyingying.xnyq"/>
     <hyperlink ref="B44" r:id="rId42" display="http://localhost:8080/BASE_JAVA/sdChart/index.html?chartType=QC&amp;uid=tangsha.xnyq" tooltip="http://localhost:8080/BASE_JAVA/sdChart/index.html?chartType=QC&amp;uid=tangsha.xnyq"/>
     <hyperlink ref="B40" r:id="rId43" display="http://localhost:8080/BASE_JAVA/gjgl/index.html?uid=tangsha.xnyq" tooltip="http://localhost:8080/BASE_JAVA/gjgl/index.html?uid=tangsha.xnyq"/>
-    <hyperlink ref="B67" r:id="rId44" display="http://localhost:8080/BASE_JAVA/webRtc/WebRtcIM/Client/index.html?uid=jiangyingying.xnyq&amp;jh=川深1" tooltip="http://localhost:8080/BASE_JAVA/webRtc/WebRtcIM/Client/index.html?uid=huangtao.xnyq&amp;jh=川深1"/>
+    <hyperlink ref="B67" r:id="rId44" display="http://localhost:8080/BASE_JAVA/webRtc/WebRtcIM/Client/index.html?uid=jiangyingying.xnyq&amp;jh=川深1" tooltip="http://localhost:8080/BASE_JAVA/webRtc/WebRtcIM/Client/index.html?uid=jiangyingying.xnyq&amp;jh=川深1"/>
     <hyperlink ref="B65" r:id="rId45" display="http://real.xnyq.sinopec.com:8080/BASE_JAVA/xcdtApp/index.html?uid=tangsha.xnyq" tooltip="http://real.xnyq.sinopec.com:8080/BASE_JAVA/xcdtApp/index.html?uid=tangsha.xnyq"/>
     <hyperlink ref="B68" r:id="rId46" display="http://localhost:8080/BASE_JAVA/webRtc/WebRtcIM/Client/dj_index.html?uid=tangsha.xnyq&amp;width=1920"/>
     <hyperlink ref="B69" r:id="rId47" display="http://real.xnyq.sinopec.com:8080/WebRTC_Class_for_ie.exe"/>
@@ -5782,14 +6055,304 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="48.375" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:2">
+      <c r="A1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:1">
+      <c r="A30" s="3" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="1:1">
+      <c r="A33" s="3" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" spans="1:1">
+      <c r="A36" s="3" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="4" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>868</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A37" r:id="rId1" display="华北正式平台地址:http://framework.xnyq.sinopec.com:8080/ythjczx/mainframe/ldframe/ld_index.jsp?areaCode=HBGCGL "/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -5806,53 +6369,53 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="67.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.25" style="5" customWidth="1"/>
+    <col min="2" max="2" width="67.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="31.375" style="5" customWidth="1"/>
     <col min="4" max="4" width="36.5" customWidth="1"/>
     <col min="5" max="5" width="20.25" customWidth="1"/>
     <col min="7" max="7" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="48" customHeight="1" spans="1:4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="5" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>158</v>
       </c>
       <c r="D5" t="s">
@@ -5860,8 +6423,8 @@
       </c>
     </row>
     <row r="6" ht="21" customHeight="1" spans="1:4">
-      <c r="A6" s="12"/>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="5" t="s">
         <v>160</v>
       </c>
       <c r="D6" t="s">
@@ -5869,34 +6432,34 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="8" ht="19" customHeight="1" spans="1:2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="5" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="5" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="10" ht="19" customHeight="1" spans="1:2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="5" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="11" ht="27" spans="1:4">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>166</v>
       </c>
       <c r="D11" t="s">
@@ -5904,56 +6467,56 @@
       </c>
     </row>
     <row r="12" ht="33" customHeight="1" spans="1:2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="13" ht="27" spans="1:3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="14" ht="43" customHeight="1" spans="1:2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="16" ht="29" customHeight="1" spans="1:2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="17" ht="202.5" spans="1:4">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D17" t="s">
@@ -5961,567 +6524,567 @@
       </c>
     </row>
     <row r="18" ht="36" customHeight="1" spans="1:2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="19" ht="67.5" spans="2:2">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="5" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="5" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="1" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="5" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="1" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="5" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="1" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="5" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="1" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="5" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="1" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="5" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="1" t="s">
+      <c r="A26" s="17"/>
+      <c r="B26" s="5" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="27" ht="27" spans="1:2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="5" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="28" ht="27" spans="1:2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="5" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="29" ht="27" spans="1:2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="5" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="43"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="48"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="46"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="51"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="46"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="51"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="46"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="51"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="52" t="s">
         <v>207</v>
       </c>
       <c r="C35" t="s">
         <v>208</v>
       </c>
-      <c r="D35" s="45" t="s">
+      <c r="D35" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="E35" s="46" t="s">
+      <c r="E35" s="51" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="52" t="s">
         <v>211</v>
       </c>
       <c r="C36" t="s">
         <v>212</v>
       </c>
-      <c r="D36" s="45" t="s">
+      <c r="D36" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="E36" s="46" t="s">
+      <c r="E36" s="51" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="52" t="s">
         <v>215</v>
       </c>
       <c r="C37" t="s">
         <v>216</v>
       </c>
-      <c r="D37" s="45">
+      <c r="D37" s="50">
         <v>2</v>
       </c>
-      <c r="E37" s="46">
+      <c r="E37" s="51">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="47" t="s">
+      <c r="B38" s="52" t="s">
         <v>217</v>
       </c>
       <c r="C38" t="s">
         <v>218</v>
       </c>
-      <c r="D38" s="45" t="s">
+      <c r="D38" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="E38" s="46"/>
+      <c r="E38" s="51"/>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="47" t="s">
+      <c r="B39" s="52" t="s">
         <v>220</v>
       </c>
       <c r="C39" t="s">
         <v>221</v>
       </c>
-      <c r="D39" s="45" t="s">
+      <c r="D39" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="E39" s="46" t="s">
+      <c r="E39" s="51" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="47" t="s">
+      <c r="B40" s="52" t="s">
         <v>224</v>
       </c>
       <c r="C40" t="s">
         <v>225</v>
       </c>
-      <c r="D40" s="45">
+      <c r="D40" s="50">
         <v>1500023100</v>
       </c>
-      <c r="E40" s="46" t="s">
+      <c r="E40" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="G40" s="45"/>
+      <c r="G40" s="50"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="47" t="s">
+      <c r="B41" s="52" t="s">
         <v>227</v>
       </c>
       <c r="C41" t="s">
         <v>228</v>
       </c>
-      <c r="D41" s="45" t="s">
+      <c r="D41" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="E41" s="46">
+      <c r="E41" s="51">
         <v>1</v>
       </c>
-      <c r="G41" s="45"/>
+      <c r="G41" s="50"/>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="48" t="s">
+      <c r="B42" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="46"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="51"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="48" t="s">
+      <c r="A43" s="53" t="s">
         <v>232</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="D43" s="46"/>
+      <c r="D43" s="51"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="48" t="s">
+      <c r="A44" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="D44" s="46"/>
+      <c r="D44" s="51"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="48" t="s">
+      <c r="A45" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="B45" s="49" t="s">
+      <c r="B45" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D45" s="46"/>
+      <c r="D45" s="51"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="50" t="s">
+      <c r="A46" s="55" t="s">
         <v>240</v>
       </c>
-      <c r="B46" s="51" t="s">
+      <c r="B46" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="52"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="57"/>
     </row>
     <row r="47" ht="27" spans="1:4">
-      <c r="A47" s="53" t="s">
+      <c r="A47" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="B47" s="54" t="s">
+      <c r="B47" s="59" t="s">
         <v>243</v>
       </c>
-      <c r="C47" s="54"/>
-      <c r="D47" s="43"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="48"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="48" t="s">
+      <c r="A48" s="53" t="s">
         <v>244</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D48" s="46" t="s">
+      <c r="D48" s="51" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="50" t="s">
+      <c r="A49" s="55" t="s">
         <v>248</v>
       </c>
-      <c r="B49" s="51" t="s">
+      <c r="B49" s="56" t="s">
         <v>249</v>
       </c>
-      <c r="C49" s="51" t="s">
+      <c r="C49" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="D49" s="52" t="s">
+      <c r="D49" s="57" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="50" ht="40.5" spans="1:4">
-      <c r="A50" s="53" t="s">
+      <c r="A50" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="B50" s="54" t="s">
+      <c r="B50" s="59" t="s">
         <v>252</v>
       </c>
-      <c r="C50" s="54"/>
-      <c r="D50" s="43"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="48"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="50" t="s">
+      <c r="A51" s="55" t="s">
         <v>244</v>
       </c>
-      <c r="B51" s="51" t="s">
+      <c r="B51" s="56" t="s">
         <v>249</v>
       </c>
-      <c r="C51" s="51" t="s">
+      <c r="C51" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="D51" s="52" t="s">
+      <c r="D51" s="57" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="53" t="s">
+      <c r="A52" s="58" t="s">
         <v>254</v>
       </c>
-      <c r="B52" s="54" t="s">
+      <c r="B52" s="59" t="s">
         <v>255</v>
       </c>
-      <c r="C52" s="55" t="s">
+      <c r="C52" s="60" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="48" t="s">
+      <c r="A53" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C53" s="56" t="s">
+      <c r="C53" s="61" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="50"/>
-      <c r="B54" s="51" t="s">
+      <c r="A54" s="55"/>
+      <c r="B54" s="56" t="s">
         <v>260</v>
       </c>
-      <c r="C54" s="57" t="s">
+      <c r="C54" s="62" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="58" t="s">
+      <c r="A55" s="63" t="s">
         <v>262</v>
       </c>
-      <c r="B55" s="58" t="s">
+      <c r="B55" s="63" t="s">
         <v>263</v>
       </c>
-      <c r="C55" s="58" t="s">
+      <c r="C55" s="63" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="53" t="s">
+      <c r="A56" s="58" t="s">
         <v>265</v>
       </c>
-      <c r="B56" s="54" t="s">
+      <c r="B56" s="59" t="s">
         <v>266</v>
       </c>
-      <c r="C56" s="55" t="s">
+      <c r="C56" s="60" t="s">
         <v>267</v>
       </c>
-      <c r="D56" s="43" t="s">
+      <c r="D56" s="48" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="50" t="s">
+      <c r="A57" s="55" t="s">
         <v>269</v>
       </c>
-      <c r="B57" s="51" t="s">
+      <c r="B57" s="56" t="s">
         <v>270</v>
       </c>
-      <c r="C57" s="57" t="s">
+      <c r="C57" s="62" t="s">
         <v>271</v>
       </c>
-      <c r="D57" s="52" t="s">
+      <c r="D57" s="57" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="58" ht="27" spans="1:4">
-      <c r="A58" s="53" t="s">
+      <c r="A58" s="58" t="s">
         <v>273</v>
       </c>
-      <c r="B58" s="54" t="s">
+      <c r="B58" s="59" t="s">
         <v>266</v>
       </c>
-      <c r="C58" s="54" t="s">
+      <c r="C58" s="59" t="s">
         <v>267</v>
       </c>
-      <c r="D58" s="43" t="s">
+      <c r="D58" s="48" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="59" ht="27" spans="1:4">
-      <c r="A59" s="48" t="s">
+      <c r="A59" s="53" t="s">
         <v>274</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D59" s="46" t="s">
+      <c r="D59" s="51" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="48"/>
-      <c r="B60" s="1" t="s">
+      <c r="A60" s="53"/>
+      <c r="B60" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="D60" s="46" t="s">
+      <c r="D60" s="51" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="48"/>
-      <c r="B61" s="1" t="s">
+      <c r="A61" s="53"/>
+      <c r="B61" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="D61" s="46" t="s">
+      <c r="D61" s="51" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="50"/>
-      <c r="B62" s="51" t="s">
+      <c r="A62" s="55"/>
+      <c r="B62" s="56" t="s">
         <v>283</v>
       </c>
-      <c r="C62" s="51" t="s">
+      <c r="C62" s="56" t="s">
         <v>284</v>
       </c>
-      <c r="D62" s="52" t="s">
+      <c r="D62" s="57" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="53" t="s">
+      <c r="A63" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="B63" s="54"/>
-      <c r="C63" s="54" t="s">
+      <c r="B63" s="59"/>
+      <c r="C63" s="59" t="s">
         <v>286</v>
       </c>
-      <c r="D63" s="43" t="s">
+      <c r="D63" s="48" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="64" ht="27" spans="1:4">
-      <c r="A64" s="48" t="s">
+      <c r="A64" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="D64" s="46" t="s">
+      <c r="D64" s="51" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="48"/>
-      <c r="C65" s="1" t="s">
+      <c r="A65" s="53"/>
+      <c r="C65" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D65" s="46" t="s">
+      <c r="D65" s="51" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="48"/>
-      <c r="C66" s="1" t="s">
+      <c r="A66" s="53"/>
+      <c r="C66" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D66" s="46" t="s">
+      <c r="D66" s="51" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="48"/>
-      <c r="C67" s="1" t="s">
+      <c r="A67" s="53"/>
+      <c r="C67" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="D67" s="59">
+      <c r="D67" s="64">
         <v>43290.6385069444</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="48"/>
-      <c r="C68" s="1" t="s">
+      <c r="A68" s="53"/>
+      <c r="C68" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D68" s="46" t="s">
+      <c r="D68" s="51" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="48"/>
-      <c r="C69" s="1" t="s">
+      <c r="A69" s="53"/>
+      <c r="C69" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="D69" s="46" t="s">
+      <c r="D69" s="51" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="50"/>
-      <c r="B70" s="51"/>
-      <c r="C70" s="51" t="s">
+      <c r="A70" s="55"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="56" t="s">
         <v>299</v>
       </c>
-      <c r="D70" s="52" t="s">
+      <c r="D70" s="57" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="5" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="E72" s="60"/>
+      <c r="E72" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6537,19 +7100,19 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A91" sqref="A91"/>
+      <selection pane="bottomLeft" activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="52.25" customWidth="1"/>
     <col min="2" max="2" width="50.625" customWidth="1"/>
-    <col min="3" max="3" width="33" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33" style="5" customWidth="1"/>
     <col min="5" max="5" width="39.125" customWidth="1"/>
     <col min="6" max="6" width="11.5"/>
   </cols>
@@ -6569,10 +7132,10 @@
       <c r="D2" t="s">
         <v>308</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="37">
         <v>43095</v>
       </c>
     </row>
@@ -6583,7 +7146,7 @@
       <c r="B3" t="s">
         <v>311</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>312</v>
       </c>
       <c r="D3" t="s">
@@ -6605,7 +7168,7 @@
       <c r="A5" t="s">
         <v>317</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -6613,7 +7176,7 @@
       <c r="A6" t="s">
         <v>318</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>312</v>
       </c>
       <c r="D6" t="s">
@@ -6627,7 +7190,7 @@
       <c r="A7" t="s">
         <v>321</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>312</v>
       </c>
       <c r="D7" t="s">
@@ -6635,13 +7198,13 @@
       </c>
     </row>
     <row r="8" ht="27" hidden="1" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -6649,39 +7212,39 @@
       <c r="A9" t="s">
         <v>325</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="10" hidden="1" spans="1:5">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>312</v>
       </c>
       <c r="D10" t="s">
         <v>322</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="37">
         <v>43118</v>
       </c>
     </row>
     <row r="11" hidden="1" spans="1:5">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>312</v>
       </c>
       <c r="D11" t="s">
         <v>329</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="37">
         <v>43118</v>
       </c>
     </row>
@@ -6689,151 +7252,151 @@
       <c r="A12" t="s">
         <v>330</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="13" ht="71.25" hidden="1" spans="1:3">
-      <c r="A13" s="33">
+      <c r="A13" s="38">
         <v>43124</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="39" t="s">
         <v>331</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="40" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="14" ht="42.75" hidden="1" spans="1:3">
-      <c r="A14" s="33">
+      <c r="A14" s="38">
         <v>43125</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="39" t="s">
         <v>332</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="40" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="15" ht="14.25" hidden="1" spans="1:3">
-      <c r="A15" s="33">
+      <c r="A15" s="38">
         <v>43126</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="41" t="s">
         <v>333</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="16" ht="14.25" hidden="1" spans="1:3">
-      <c r="A16" s="33">
+      <c r="A16" s="38">
         <v>43129</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="41" t="s">
         <v>334</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="5" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="17" ht="14.25" hidden="1" spans="1:3">
-      <c r="A17" s="37">
+      <c r="A17" s="42">
         <v>43130</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="41" t="s">
         <v>335</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="18" ht="14.25" hidden="1" spans="1:3">
-      <c r="A18" s="37">
+      <c r="A18" s="42">
         <v>43131</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="41" t="s">
         <v>336</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="19" ht="14.25" hidden="1" spans="1:3">
-      <c r="A19" s="37">
+      <c r="A19" s="42">
         <v>43132</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="40" t="s">
         <v>337</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="5" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="20" ht="28.5" hidden="1" spans="1:3">
-      <c r="A20" s="37">
+      <c r="A20" s="42">
         <v>43133</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="40" t="s">
         <v>338</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="5" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="21" ht="14.25" hidden="1" spans="1:3">
-      <c r="A21" s="37">
+      <c r="A21" s="42">
         <v>43136</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="22" ht="14.25" hidden="1" spans="1:4">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="41" t="s">
         <v>340</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="41" t="s">
         <v>341</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="D22" s="36"/>
+      <c r="D22" s="41"/>
     </row>
     <row r="23" ht="14.25" hidden="1" spans="1:4">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36" t="s">
+      <c r="A23" s="41"/>
+      <c r="B23" s="41" t="s">
         <v>342</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="41" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="24" ht="14.25" hidden="1" spans="1:5">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="41" t="s">
         <v>344</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="40" t="s">
         <v>345</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="D24" s="35"/>
+      <c r="D24" s="40"/>
       <c r="E24" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="25" hidden="1" spans="2:5">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5" t="s">
         <v>312</v>
       </c>
       <c r="E25" t="s">
@@ -6844,10 +7407,10 @@
       <c r="A26" t="s">
         <v>348</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="5" t="s">
         <v>312</v>
       </c>
       <c r="D26" t="s">
@@ -6858,7 +7421,7 @@
       <c r="A27" t="s">
         <v>351</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -6879,7 +7442,7 @@
       <c r="A30" t="s">
         <v>355</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -6887,7 +7450,7 @@
       <c r="A31" t="s">
         <v>356</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -6895,7 +7458,7 @@
       <c r="A32" t="s">
         <v>357</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -6903,7 +7466,7 @@
       <c r="A33" t="s">
         <v>358</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -6914,7 +7477,7 @@
       <c r="B34" t="s">
         <v>360</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -6922,7 +7485,7 @@
       <c r="A35" t="s">
         <v>361</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -6938,10 +7501,10 @@
       <c r="A37" t="s">
         <v>364</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -6949,7 +7512,7 @@
       <c r="A38" t="s">
         <v>366</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -6957,23 +7520,23 @@
       <c r="A39" t="s">
         <v>367</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="5" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="40" ht="40.5" hidden="1" spans="1:3">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="5" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="41" ht="40" customHeight="1" spans="1:2">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="5" t="s">
         <v>370</v>
       </c>
     </row>
@@ -6981,7 +7544,7 @@
       <c r="A42" t="s">
         <v>371</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -6989,16 +7552,16 @@
       <c r="A43" t="s">
         <v>372</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="5" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="44" hidden="1" spans="1:4">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="43" t="s">
         <v>373</v>
       </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="1" t="s">
+      <c r="B44" s="43"/>
+      <c r="C44" s="5" t="s">
         <v>312</v>
       </c>
       <c r="D44" t="s">
@@ -7006,13 +7569,13 @@
       </c>
     </row>
     <row r="45" hidden="1" spans="1:4">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="43" t="s">
         <v>375</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="43" t="s">
         <v>376</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="5" t="s">
         <v>312</v>
       </c>
       <c r="D45" t="s">
@@ -7020,11 +7583,11 @@
       </c>
     </row>
     <row r="46" hidden="1" spans="1:4">
-      <c r="A46" s="39" t="s">
+      <c r="A46" s="44" t="s">
         <v>378</v>
       </c>
-      <c r="B46" s="40"/>
-      <c r="C46" s="1" t="s">
+      <c r="B46" s="45"/>
+      <c r="C46" s="5" t="s">
         <v>312</v>
       </c>
       <c r="D46" t="s">
@@ -7032,11 +7595,11 @@
       </c>
     </row>
     <row r="47" hidden="1" spans="1:4">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="43" t="s">
         <v>380</v>
       </c>
-      <c r="B47" s="38"/>
-      <c r="C47" s="1" t="s">
+      <c r="B47" s="43"/>
+      <c r="C47" s="5" t="s">
         <v>312</v>
       </c>
       <c r="D47" t="s">
@@ -7047,7 +7610,7 @@
       <c r="A48" t="s">
         <v>382</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="5" t="s">
         <v>322</v>
       </c>
     </row>
@@ -7055,10 +7618,10 @@
       <c r="A49" t="s">
         <v>383</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7069,7 +7632,7 @@
       <c r="B50" t="s">
         <v>385</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7085,7 +7648,7 @@
       <c r="B52" t="s">
         <v>388</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7093,7 +7656,7 @@
       <c r="A53" t="s">
         <v>389</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7101,7 +7664,7 @@
       <c r="A54" t="s">
         <v>390</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7109,7 +7672,7 @@
       <c r="A55" t="s">
         <v>391</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7117,7 +7680,7 @@
       <c r="A56" t="s">
         <v>392</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7125,7 +7688,7 @@
       <c r="A57" t="s">
         <v>393</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7136,7 +7699,7 @@
       <c r="B58" t="s">
         <v>395</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7147,7 +7710,7 @@
       <c r="B59" t="s">
         <v>397</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7155,7 +7718,7 @@
       <c r="A60" t="s">
         <v>398</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7163,7 +7726,7 @@
       <c r="A61" t="s">
         <v>399</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7171,10 +7734,10 @@
       <c r="A62" t="s">
         <v>400</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7182,7 +7745,7 @@
       <c r="A63" t="s">
         <v>401</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7190,7 +7753,7 @@
       <c r="A64" t="s">
         <v>402</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7201,7 +7764,7 @@
       <c r="B65" t="s">
         <v>404</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7217,7 +7780,7 @@
       <c r="B67" t="s">
         <v>407</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7225,7 +7788,7 @@
       <c r="A68" t="s">
         <v>408</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7236,7 +7799,7 @@
       <c r="B69" t="s">
         <v>410</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7244,7 +7807,7 @@
       <c r="A70" t="s">
         <v>411</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7252,7 +7815,7 @@
       <c r="A71" t="s">
         <v>412</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7263,7 +7826,7 @@
       <c r="B72" t="s">
         <v>414</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7274,7 +7837,7 @@
       <c r="B73" t="s">
         <v>363</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7287,15 +7850,15 @@
       </c>
     </row>
     <row r="75" ht="27" hidden="1" spans="1:3">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="5" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="76" ht="67.5" spans="1:1">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="5" t="s">
         <v>419</v>
       </c>
     </row>
@@ -7311,7 +7874,7 @@
       <c r="B78" t="s">
         <v>422</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7322,7 +7885,7 @@
       <c r="B79" t="s">
         <v>424</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7333,7 +7896,7 @@
       <c r="B80" t="s">
         <v>414</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7341,7 +7904,7 @@
       <c r="A81" t="s">
         <v>426</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7354,18 +7917,18 @@
       <c r="A83" t="s">
         <v>428</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="5" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="84" ht="105" hidden="1" customHeight="1" spans="1:3">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7373,7 +7936,7 @@
       <c r="A85" t="s">
         <v>431</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7381,7 +7944,7 @@
       <c r="A86" t="s">
         <v>432</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7389,7 +7952,7 @@
       <c r="A87" t="s">
         <v>433</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7397,10 +7960,10 @@
       <c r="A88" t="s">
         <v>434</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7408,10 +7971,10 @@
       <c r="A89" t="s">
         <v>436</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7419,7 +7982,7 @@
       <c r="A90" t="s">
         <v>438</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7427,12 +7990,17 @@
       <c r="A91" t="s">
         <v>439</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="5" t="s">
         <v>312</v>
       </c>
     </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>440</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F91">
+  <autoFilter ref="A1:F92">
     <filterColumn colId="2">
       <filters blank="1"/>
     </filterColumn>
@@ -7456,17 +8024,17 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="64.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="64.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="47.25" style="5" customWidth="1"/>
     <col min="4" max="4" width="50.5" customWidth="1"/>
     <col min="5" max="5" width="39.875" customWidth="1"/>
     <col min="6" max="6" width="68.25" customWidth="1"/>
@@ -7474,459 +8042,467 @@
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>442</v>
       </c>
+      <c r="C1" s="5" t="s">
+        <v>443</v>
+      </c>
       <c r="D1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" ht="67.5" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>446</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="17" t="s">
         <v>448</v>
       </c>
+      <c r="B3" s="5" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="1" t="s">
-        <v>449</v>
+      <c r="A4" s="17"/>
+      <c r="B4" s="5" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="1" t="s">
-        <v>450</v>
+      <c r="A5" s="17"/>
+      <c r="B5" s="5" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="1" t="s">
-        <v>451</v>
+      <c r="A6" s="17"/>
+      <c r="B6" s="5" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="1" t="s">
-        <v>452</v>
+      <c r="A7" s="17"/>
+      <c r="B7" s="5" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="1" t="s">
-        <v>453</v>
+      <c r="A8" s="17"/>
+      <c r="B8" s="5" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="1" t="s">
-        <v>454</v>
+      <c r="A9" s="17"/>
+      <c r="B9" s="5" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="1" t="s">
-        <v>455</v>
+      <c r="A10" s="17"/>
+      <c r="B10" s="5" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="11" ht="106.5" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="20" t="s">
         <v>458</v>
       </c>
+      <c r="C11" s="20" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="12" ht="121.5" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="5" t="s">
         <v>461</v>
       </c>
+      <c r="C12" s="21" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="13" ht="40.5" spans="1:3">
-      <c r="A13" s="17" t="s">
-        <v>462</v>
-      </c>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="22" t="s">
         <v>463</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="23" t="s">
         <v>464</v>
       </c>
+      <c r="C13" s="5" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="14" ht="40.5" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="5" t="s">
         <v>466</v>
       </c>
+      <c r="B14" s="5" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="15" ht="40.5" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>469</v>
       </c>
+      <c r="C15" s="5" t="s">
+        <v>470</v>
+      </c>
       <c r="D15" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="16" ht="67.5" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="24" t="s">
         <v>473</v>
       </c>
+      <c r="C16" s="5" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="17" ht="135" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="A17" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="B17" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="25" t="s">
         <v>477</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="D17" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="E17" s="25" t="s">
         <v>479</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="F17" s="5" t="s">
         <v>480</v>
       </c>
+      <c r="G17" s="5" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="18" ht="40.5" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="A18" s="5" t="s">
         <v>482</v>
       </c>
+      <c r="B18" s="5" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="19" ht="40.5" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="A19" s="5" t="s">
         <v>484</v>
       </c>
+      <c r="B19" s="5" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="20" ht="24" spans="1:3">
-      <c r="A20" s="21" t="s">
-        <v>485</v>
-      </c>
-      <c r="B20" s="22" t="s">
+      <c r="A20" s="26" t="s">
         <v>486</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="B20" s="27" t="s">
         <v>487</v>
       </c>
+      <c r="C20" s="28" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="21" ht="38.25" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B21" s="24" t="s">
+      <c r="A21" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="B21" s="29" t="s">
         <v>490</v>
       </c>
+      <c r="C21" s="30" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="22" ht="79.5" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="B22" s="26" t="s">
+      <c r="A22" s="5" t="s">
         <v>492</v>
       </c>
+      <c r="B22" s="31" t="s">
+        <v>493</v>
+      </c>
       <c r="D22" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B23" s="26" t="s">
+      <c r="A23" s="5" t="s">
         <v>495</v>
       </c>
+      <c r="B23" s="31" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="24" ht="108" spans="1:5">
-      <c r="A24" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="B24" s="26" t="s">
+      <c r="A24" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="31" t="s">
         <v>498</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="C24" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="D24" s="5" t="s">
         <v>500</v>
       </c>
+      <c r="E24" s="5" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="25" ht="27" spans="1:5">
-      <c r="A25" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B25" s="26" t="s">
+      <c r="A25" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="31" t="s">
         <v>503</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="C25" s="5" t="s">
         <v>504</v>
       </c>
+      <c r="D25" s="5" t="s">
+        <v>505</v>
+      </c>
       <c r="E25" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="26" ht="68.25" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="B26" s="27" t="s">
+      <c r="A26" s="5" t="s">
         <v>507</v>
       </c>
+      <c r="B26" s="32" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="27" ht="94.5" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="B27" s="28" t="s">
+      <c r="A27" s="5" t="s">
         <v>509</v>
       </c>
+      <c r="B27" s="33" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B28" s="28" t="s">
+      <c r="A28" s="5" t="s">
         <v>511</v>
       </c>
+      <c r="B28" s="33" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="29" ht="40.5" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="B29" s="28" t="s">
+      <c r="A29" s="5" t="s">
         <v>513</v>
       </c>
+      <c r="B29" s="33" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="30" ht="27" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="B30" s="28" t="s">
+      <c r="A30" s="5" t="s">
         <v>515</v>
       </c>
+      <c r="B30" s="33" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="31" ht="27" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B31" s="28" t="s">
+      <c r="A31" s="5" t="s">
         <v>517</v>
       </c>
+      <c r="B31" s="33" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="32" ht="27" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="B32" s="28" t="s">
+      <c r="A32" s="5" t="s">
         <v>519</v>
       </c>
+      <c r="B32" s="33" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="33" ht="81" spans="1:2">
-      <c r="A33" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="B33" s="28" t="s">
+      <c r="A33" s="5" t="s">
         <v>521</v>
       </c>
+      <c r="B33" s="33" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B34" s="29"/>
+      <c r="A34" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="B34" s="34"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="B35" s="29"/>
+      <c r="A35" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="B35" s="34"/>
     </row>
     <row r="36" ht="40.5" spans="1:3">
-      <c r="A36" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="A36" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="5" t="s">
         <v>526</v>
       </c>
+      <c r="C36" s="5" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="37" ht="94.5" spans="1:3">
-      <c r="A37" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="A37" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" s="5" t="s">
         <v>529</v>
       </c>
+      <c r="C37" s="5" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="38" ht="27" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B38" s="1" t="s">
+      <c r="A38" s="5" t="s">
         <v>531</v>
       </c>
+      <c r="B38" s="5" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="B39" s="23" t="s">
+      <c r="A39" s="5" t="s">
         <v>533</v>
       </c>
+      <c r="B39" s="28" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="30" t="s">
-        <v>534</v>
-      </c>
-      <c r="B40" s="23" t="s">
+      <c r="A40" s="35" t="s">
         <v>535</v>
       </c>
+      <c r="B40" s="28" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="30" t="s">
-        <v>536</v>
+      <c r="A41" s="35" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="1" t="s">
-        <v>537</v>
+      <c r="A42" s="5" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="43" ht="27" spans="1:2">
-      <c r="A43" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="B43" s="1" t="s">
+      <c r="A43" s="5" t="s">
         <v>539</v>
       </c>
+      <c r="B43" s="5" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="44" ht="17.25" spans="1:2">
-      <c r="A44" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="B44" s="31" t="s">
+      <c r="A44" s="5" t="s">
         <v>541</v>
       </c>
+      <c r="B44" s="36" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="45" ht="67.5" spans="1:2">
-      <c r="A45" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="B45" s="1" t="s">
+      <c r="A45" s="5" t="s">
         <v>543</v>
       </c>
+      <c r="B45" s="5" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="46" ht="27" spans="1:2">
-      <c r="A46" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="B46" s="1" t="s">
+      <c r="A46" s="5" t="s">
         <v>545</v>
       </c>
+      <c r="B46" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="47" ht="27" spans="1:2">
-      <c r="A47" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="B47" s="1" t="s">
+      <c r="A47" s="5" t="s">
         <v>547</v>
       </c>
+      <c r="B47" s="5" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="48" ht="67.5" spans="1:2">
-      <c r="A48" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B48" s="1" t="s">
+      <c r="A48" s="5" t="s">
         <v>549</v>
       </c>
+      <c r="B48" s="5" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="49" ht="27" spans="2:2">
-      <c r="B49" s="1" t="s">
-        <v>550</v>
+      <c r="B49" s="5" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="50" ht="108" spans="1:3">
-      <c r="A50" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="B50" s="1" t="s">
+      <c r="A50" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="B50" s="5" t="s">
         <v>553</v>
       </c>
+      <c r="C50" s="5" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="51" ht="27" spans="2:2">
-      <c r="B51" s="1" t="s">
-        <v>554</v>
+      <c r="B51" s="5" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="52" ht="27" spans="1:2">
+      <c r="A52" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -7949,55 +8525,55 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="26" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>556</v>
+      <c r="A1" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="2" ht="40.5" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>559</v>
+      <c r="A2" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="3" ht="54" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>559</v>
+      <c r="A3" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>559</v>
-      </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>559</v>
+      <c r="A5" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -8009,1184 +8585,1243 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.875" customWidth="1"/>
     <col min="2" max="2" width="21.25" customWidth="1"/>
-    <col min="3" max="3" width="50" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50" style="5" customWidth="1"/>
     <col min="4" max="4" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="1:4">
-      <c r="A1" s="9">
+      <c r="A1" s="14">
         <v>43171</v>
       </c>
       <c r="B1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>564</v>
+      <c r="D1" s="5" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="D2" s="1"/>
+      <c r="C2" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" ht="27" spans="2:4">
       <c r="B3" t="s">
-        <v>566</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:4">
-      <c r="A4" s="9">
+      <c r="A4" s="14">
         <v>43172</v>
       </c>
       <c r="B4" t="s">
-        <v>569</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="9">
+      <c r="A5" s="14">
         <v>43173</v>
       </c>
       <c r="B5" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="D5" s="1"/>
+      <c r="C5" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="9">
+      <c r="A6" s="14">
         <v>43174</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="D6" s="1"/>
+      <c r="C6" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="9">
+      <c r="A7" s="14">
         <v>43175</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="D7" s="1"/>
+      <c r="C7" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" ht="27" spans="1:4">
-      <c r="A8" s="9">
+      <c r="A8" s="14">
         <v>43176</v>
       </c>
       <c r="B8" t="s">
-        <v>575</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>578</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="9">
+      <c r="A9" s="14">
         <v>43179</v>
       </c>
       <c r="B9" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="D9" s="1"/>
+      <c r="C9" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="9">
+      <c r="A10" s="14">
         <v>43182</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="D10" s="1"/>
+      <c r="C10" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="9">
+      <c r="A11" s="14">
         <v>43185</v>
       </c>
       <c r="B11" t="s">
-        <v>579</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="12" ht="27" spans="1:4">
-      <c r="A12" s="9">
+      <c r="A12" s="14">
         <v>43187</v>
       </c>
       <c r="B12" t="s">
         <v>185</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>582</v>
+      <c r="C12" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="13" ht="27" spans="1:4">
-      <c r="A13" s="9">
+      <c r="A13" s="14">
         <v>43187</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="D13" s="1"/>
+      <c r="C13" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="9">
+      <c r="A14" s="14">
         <v>43192</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="D14" s="1"/>
+      <c r="C14" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="9">
+      <c r="A15" s="14">
         <v>43193</v>
       </c>
       <c r="B15" t="s">
         <v>185</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="D15" s="1"/>
+      <c r="C15" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="9">
+      <c r="A16" s="14">
         <v>43194</v>
       </c>
       <c r="B16" t="s">
-        <v>586</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:4">
-      <c r="A17" s="9">
+      <c r="A17" s="14">
         <v>43194</v>
       </c>
       <c r="B17" t="s">
-        <v>586</v>
-      </c>
-      <c r="C17" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>590</v>
+      <c r="C17" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="18" ht="27" spans="1:4">
-      <c r="A18" s="9">
+      <c r="A18" s="14">
         <v>43194</v>
       </c>
       <c r="B18" t="s">
-        <v>591</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="D18" s="1"/>
+        <v>594</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" ht="27" spans="1:4">
-      <c r="A19" s="9">
+      <c r="A19" s="14">
         <v>43198</v>
       </c>
       <c r="B19" t="s">
-        <v>593</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="20" ht="27" spans="1:4">
-      <c r="A20" s="9">
+      <c r="A20" s="14">
         <v>43199</v>
       </c>
       <c r="B20" t="s">
         <v>185</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>597</v>
+      <c r="C20" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="9">
+      <c r="A21" s="14">
         <v>43201</v>
       </c>
       <c r="B21" t="s">
         <v>185</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="D21" s="1"/>
+      <c r="C21" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="9">
+      <c r="A22" s="14">
         <v>43201</v>
       </c>
       <c r="B22" t="s">
         <v>185</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>600</v>
+      <c r="C22" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="9">
+      <c r="A23" s="14">
         <v>43202</v>
       </c>
       <c r="B23" t="s">
         <v>185</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>602</v>
+      <c r="C23" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="24" ht="54" spans="1:4">
-      <c r="A24" s="9">
+      <c r="A24" s="14">
         <v>43202</v>
       </c>
       <c r="B24" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>604</v>
+      <c r="C24" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:4">
-      <c r="A25" s="9">
+      <c r="A25" s="14">
         <v>43202</v>
       </c>
       <c r="B25" t="s">
         <v>185</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="D25" s="1"/>
+      <c r="C25" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" ht="27" spans="1:4">
-      <c r="A26" s="9">
+      <c r="A26" s="14">
         <v>43207</v>
       </c>
       <c r="B26" t="s">
-        <v>606</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="D26" s="1"/>
+        <v>609</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" ht="40.5" spans="1:4">
-      <c r="A27" s="9">
+      <c r="A27" s="14">
         <v>43208</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="D27" s="1"/>
+      <c r="C27" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" ht="67.5" spans="1:5">
-      <c r="A28" s="9">
+      <c r="A28" s="14">
         <v>43209</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>610</v>
+      <c r="C28" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>613</v>
       </c>
       <c r="E28" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="29" ht="94.5" spans="1:4">
-      <c r="A29" s="9">
+      <c r="A29" s="14">
         <v>43210</v>
       </c>
       <c r="B29" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>613</v>
+      <c r="C29" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="9">
+      <c r="A30" s="14">
         <v>43214</v>
       </c>
       <c r="B30" t="s">
-        <v>614</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="D30" s="1"/>
+        <v>617</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="9">
+      <c r="A31" s="14">
         <v>43214</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>617</v>
+      <c r="C31" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="9">
+      <c r="A32" s="14">
         <v>43215</v>
       </c>
       <c r="B32" t="s">
-        <v>606</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D32" s="1"/>
+        <v>609</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="D32" s="5"/>
     </row>
     <row r="33" ht="27" spans="1:4">
-      <c r="A33" s="9">
+      <c r="A33" s="14">
         <v>43216</v>
       </c>
       <c r="B33" t="s">
-        <v>619</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="D33" s="1"/>
+        <v>622</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="9">
+      <c r="A34" s="14">
         <v>43217</v>
       </c>
       <c r="B34" t="s">
-        <v>619</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="D34" s="1"/>
+        <v>622</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" ht="40.5" spans="1:4">
-      <c r="A35" s="9" t="s">
-        <v>622</v>
+      <c r="A35" s="14" t="s">
+        <v>625</v>
       </c>
       <c r="B35" t="s">
-        <v>623</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="D35" s="1"/>
+        <v>626</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="D35" s="5"/>
     </row>
     <row r="36" ht="67.5" spans="1:4">
-      <c r="A36" s="9">
+      <c r="A36" s="14">
         <v>43228</v>
       </c>
       <c r="B36" t="s">
         <v>185</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="D36" s="1"/>
+      <c r="C36" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" ht="27" spans="1:4">
-      <c r="A37" s="9">
+      <c r="A37" s="14">
         <v>43228</v>
       </c>
       <c r="B37" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="D37" s="1"/>
+      <c r="C37" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" ht="40.5" spans="1:4">
-      <c r="A38" s="9">
+      <c r="A38" s="14">
         <v>43229</v>
       </c>
       <c r="B38" t="s">
-        <v>627</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="D38" s="1"/>
+        <v>630</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="D38" s="5"/>
     </row>
     <row r="39" ht="54" spans="1:4">
-      <c r="A39" s="9">
+      <c r="A39" s="14">
         <v>43230</v>
       </c>
       <c r="B39" t="s">
-        <v>629</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="D39" s="1"/>
+        <v>632</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="D39" s="5"/>
     </row>
     <row r="40" ht="27" spans="1:4">
-      <c r="A40" s="9">
+      <c r="A40" s="14">
         <v>43230</v>
       </c>
       <c r="B40" t="s">
-        <v>631</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="D40" s="1"/>
+        <v>634</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="D40" s="5"/>
     </row>
     <row r="41" ht="40.5" spans="1:4">
-      <c r="A41" s="9">
+      <c r="A41" s="14">
         <v>43234</v>
       </c>
       <c r="B41" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="D41" s="1"/>
+      <c r="C41" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="D41" s="5"/>
     </row>
     <row r="42" ht="27" spans="1:4">
-      <c r="A42" s="11">
+      <c r="A42" s="16">
         <v>43235</v>
       </c>
       <c r="B42" t="s">
         <v>185</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="D42" s="1"/>
+      <c r="C42" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="D42" s="5"/>
     </row>
     <row r="43" ht="40.5" spans="1:5">
-      <c r="A43" s="11">
+      <c r="A43" s="16">
         <v>43236</v>
       </c>
       <c r="B43" t="s">
-        <v>635</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="E43" s="12" t="s">
         <v>638</v>
       </c>
+      <c r="C43" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="11">
+      <c r="A44" s="16">
         <v>43237</v>
       </c>
       <c r="B44" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="2"/>
+      <c r="C44" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="6"/>
     </row>
     <row r="45" ht="40.5" spans="1:5">
-      <c r="A45" s="11">
+      <c r="A45" s="16">
         <v>43241</v>
       </c>
       <c r="B45" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="E45" s="2"/>
+      <c r="C45" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="E45" s="6"/>
     </row>
     <row r="46" ht="108" spans="1:3">
-      <c r="A46" s="9">
+      <c r="A46" s="14">
         <v>43242</v>
       </c>
       <c r="B46" t="s">
         <v>185</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>641</v>
+      <c r="C46" s="5" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="47" ht="61" customHeight="1" spans="1:3">
-      <c r="A47" s="9">
+      <c r="A47" s="14">
         <v>43243</v>
       </c>
       <c r="B47" t="s">
         <v>185</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>642</v>
+      <c r="C47" s="5" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="48" ht="81" spans="1:4">
-      <c r="A48" s="13">
+      <c r="A48" s="18">
         <v>43244</v>
       </c>
       <c r="B48" t="s">
         <v>185</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>643</v>
+      <c r="C48" s="5" t="s">
+        <v>646</v>
       </c>
       <c r="D48" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="13"/>
+      <c r="A49" s="18"/>
       <c r="B49" t="s">
-        <v>645</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>646</v>
+        <v>648</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="50" ht="27" spans="1:3">
-      <c r="A50" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>648</v>
+      <c r="A50" s="19" t="s">
+        <v>650</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="14"/>
-      <c r="C51" s="1" t="s">
-        <v>649</v>
+      <c r="A51" s="19"/>
+      <c r="C51" s="5" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="52" ht="27" spans="1:4">
-      <c r="A52" s="14"/>
-      <c r="C52" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>651</v>
+      <c r="A52" s="19"/>
+      <c r="C52" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="53" ht="54" spans="1:4">
-      <c r="A53" s="14"/>
-      <c r="C53" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>653</v>
+      <c r="A53" s="19"/>
+      <c r="C53" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="54" ht="40.5" spans="1:3">
-      <c r="A54" s="14"/>
-      <c r="C54" s="1" t="s">
-        <v>654</v>
+      <c r="A54" s="19"/>
+      <c r="C54" s="5" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="55" ht="27" spans="1:3">
-      <c r="A55" s="14"/>
-      <c r="C55" s="1" t="s">
-        <v>655</v>
+      <c r="A55" s="19"/>
+      <c r="C55" s="5" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="56" ht="27" spans="1:3">
-      <c r="A56" s="14"/>
-      <c r="C56" s="1" t="s">
-        <v>656</v>
+      <c r="A56" s="19"/>
+      <c r="C56" s="5" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="57" ht="27" spans="1:3">
-      <c r="A57" s="9">
+      <c r="A57" s="14">
         <v>43251</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>657</v>
+      <c r="C57" s="5" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="58" ht="40.5" spans="1:3">
-      <c r="A58" s="9">
+      <c r="A58" s="14">
         <v>43252</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>658</v>
+      <c r="C58" s="5" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="9">
+      <c r="A59" s="14">
         <v>43255</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>659</v>
+      <c r="C59" s="5" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="60" ht="54" spans="1:3">
-      <c r="A60" s="9">
+      <c r="A60" s="14">
         <v>43256</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>660</v>
+      <c r="C60" s="5" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="61" ht="27" spans="1:3">
-      <c r="A61" s="9">
+      <c r="A61" s="14">
         <v>43256</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>661</v>
+      <c r="C61" s="5" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="62" ht="81" spans="1:3">
-      <c r="A62" s="9">
+      <c r="A62" s="14">
         <v>43257</v>
       </c>
       <c r="B62" t="s">
         <v>185</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>662</v>
+      <c r="C62" s="5" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="63" ht="40.5" spans="1:4">
-      <c r="A63" s="9">
+      <c r="A63" s="14">
         <v>43257</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>663</v>
+      <c r="C63" s="5" t="s">
+        <v>666</v>
       </c>
       <c r="D63" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="64" ht="27" spans="1:4">
-      <c r="A64" s="9">
+      <c r="A64" s="14">
         <v>43258</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>665</v>
+      <c r="C64" s="5" t="s">
+        <v>668</v>
       </c>
       <c r="D64" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="65" ht="40.5" spans="3:3">
-      <c r="C65" s="1" t="s">
-        <v>667</v>
+      <c r="C65" s="5" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="66" spans="3:3">
-      <c r="C66" s="1" t="s">
-        <v>668</v>
+      <c r="C66" s="5" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="67" ht="67.5" spans="3:3">
-      <c r="C67" s="1" t="s">
-        <v>669</v>
+      <c r="C67" s="5" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="68" ht="67.5" spans="3:3">
-      <c r="C68" s="1" t="s">
-        <v>670</v>
+      <c r="C68" s="5" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="69" ht="27" spans="3:3">
-      <c r="C69" s="1" t="s">
-        <v>671</v>
+      <c r="C69" s="5" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="70" ht="40.5" spans="1:3">
-      <c r="A70" s="9">
+      <c r="A70" s="14">
         <v>43270</v>
       </c>
       <c r="B70" t="s">
-        <v>672</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>673</v>
+        <v>675</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="71" ht="27" spans="1:3">
-      <c r="A71" s="9" t="s">
-        <v>674</v>
+      <c r="A71" s="14" t="s">
+        <v>677</v>
       </c>
       <c r="B71" t="s">
         <v>185</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>675</v>
+      <c r="C71" s="5" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="72" ht="27" spans="1:3">
-      <c r="A72" s="9">
+      <c r="A72" s="14">
         <v>43271</v>
       </c>
       <c r="B72" t="s">
-        <v>676</v>
-      </c>
-      <c r="C72" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="73" ht="98" customHeight="1" spans="1:4">
       <c r="A73" t="s">
-        <v>677</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="D73" s="1"/>
+        <v>680</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="D73" s="5"/>
     </row>
     <row r="74" ht="27" spans="1:3">
-      <c r="A74" s="9">
+      <c r="A74" s="14">
         <v>43271</v>
       </c>
       <c r="B74" t="s">
-        <v>679</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>680</v>
+        <v>682</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="9">
+      <c r="A75" s="14">
         <v>43272</v>
       </c>
       <c r="B75" t="s">
         <v>185</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>681</v>
+      <c r="C75" s="5" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="76" ht="121.5" spans="1:3">
-      <c r="A76" s="9">
+      <c r="A76" s="14">
         <v>43272</v>
       </c>
       <c r="B76" t="s">
-        <v>679</v>
-      </c>
-      <c r="C76" s="1" t="s">
         <v>682</v>
       </c>
+      <c r="C76" s="5" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="77" ht="27" spans="1:3">
-      <c r="A77" s="9">
+      <c r="A77" s="14">
         <v>43272</v>
       </c>
       <c r="B77" t="s">
-        <v>683</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="78" ht="40.5" spans="1:4">
-      <c r="A78" s="9">
+      <c r="A78" s="14">
         <v>43276</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>685</v>
+      <c r="C78" s="5" t="s">
+        <v>688</v>
       </c>
       <c r="D78" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
     </row>
     <row r="79" ht="40.5" spans="1:3">
-      <c r="A79" s="9">
+      <c r="A79" s="14">
         <v>43276</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>687</v>
+      <c r="C79" s="5" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="80" ht="40.5" spans="1:3">
-      <c r="A80" s="9">
+      <c r="A80" s="14">
         <v>43277</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>688</v>
+      <c r="C80" s="5" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="81" ht="27" spans="1:3">
-      <c r="A81" s="9">
+      <c r="A81" s="14">
         <v>43278</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>689</v>
+      <c r="C81" s="5" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="82" ht="54" spans="1:3">
-      <c r="A82" s="9">
+      <c r="A82" s="14">
         <v>43283</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>690</v>
+      <c r="C82" s="5" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="83" ht="107" customHeight="1" spans="1:3">
-      <c r="A83" s="9" t="s">
-        <v>677</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>691</v>
+      <c r="A83" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="84" ht="40.5" spans="1:3">
-      <c r="A84" s="9">
+      <c r="A84" s="14">
         <v>43284</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>692</v>
+      <c r="C84" s="5" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="85" ht="67.5" spans="1:3">
-      <c r="A85" s="9">
+      <c r="A85" s="14">
         <v>43285</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>693</v>
+      <c r="C85" s="5" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="86" ht="54" spans="1:3">
-      <c r="A86" s="9">
+      <c r="A86" s="14">
         <v>43286</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>694</v>
+      <c r="C86" s="5" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="9">
+      <c r="A87" s="14">
         <v>43290</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>695</v>
+      <c r="C87" s="5" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="88" ht="27" spans="1:3">
-      <c r="A88" s="9">
+      <c r="A88" s="14">
         <v>43290</v>
       </c>
       <c r="B88" t="s">
-        <v>696</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>697</v>
+        <v>699</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="89" ht="27" spans="1:3">
-      <c r="A89" s="9">
+      <c r="A89" s="14">
         <v>43291</v>
       </c>
       <c r="B89" t="s">
-        <v>696</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="90" ht="27" spans="1:3">
-      <c r="A90" s="9">
+      <c r="A90" s="14">
         <v>43291</v>
       </c>
       <c r="B90" t="s">
-        <v>699</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>700</v>
+        <v>702</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="91" ht="40.5" spans="1:3">
-      <c r="A91" s="9">
+      <c r="A91" s="14">
         <v>43292</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>701</v>
+      <c r="C91" s="5" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="9">
+      <c r="A92" s="14">
         <v>43293</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>702</v>
+      <c r="C92" s="5" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="93" ht="54" spans="1:3">
-      <c r="A93" s="9">
+      <c r="A93" s="14">
         <v>43294</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>703</v>
+      <c r="C93" s="5" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="94" ht="40.5" spans="1:3">
-      <c r="A94" s="9">
+      <c r="A94" s="14">
         <v>43297</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>704</v>
+      <c r="C94" s="5" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="95" ht="189" spans="1:3">
       <c r="A95" t="s">
-        <v>677</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>705</v>
+        <v>680</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="96" ht="54" spans="1:3">
-      <c r="A96" s="9">
+      <c r="A96" s="14">
         <v>43298</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>706</v>
+      <c r="C96" s="5" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="97" ht="94.5" spans="1:3">
-      <c r="A97" s="9">
+      <c r="A97" s="14">
         <v>43299</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>707</v>
+      <c r="C97" s="5" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="98" ht="40.5" spans="1:3">
-      <c r="A98" s="9">
+      <c r="A98" s="14">
         <v>43300</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>708</v>
+      <c r="C98" s="5" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="99" ht="54" spans="1:3">
-      <c r="A99" s="9">
+      <c r="A99" s="14">
         <v>43301</v>
       </c>
       <c r="B99" t="s">
+        <v>702</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="100" ht="54" spans="1:3">
+      <c r="A100" s="14">
+        <v>43304</v>
+      </c>
+      <c r="B100" t="s">
+        <v>713</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="101" ht="40.5" spans="1:3">
+      <c r="A101" s="14">
+        <v>43304</v>
+      </c>
+      <c r="B101" t="s">
         <v>699</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="100" ht="54" spans="1:3">
-      <c r="A100" s="9">
-        <v>43304</v>
-      </c>
-      <c r="B100" t="s">
-        <v>710</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="101" ht="40.5" spans="1:3">
-      <c r="A101" s="9">
-        <v>43304</v>
-      </c>
-      <c r="B101" t="s">
-        <v>696</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>712</v>
+      <c r="C101" s="5" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="102" ht="40.5" spans="1:3">
-      <c r="A102" s="9">
+      <c r="A102" s="14">
         <v>43305</v>
       </c>
       <c r="B102" t="s">
-        <v>713</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="9">
+      <c r="A103" s="14">
         <v>43305</v>
       </c>
       <c r="B103" t="s">
-        <v>715</v>
-      </c>
-      <c r="C103" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="14">
+        <v>43305</v>
+      </c>
+      <c r="B104" t="s">
+        <v>702</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="105" ht="40.5" spans="1:3">
+      <c r="A105" s="14">
+        <v>43306</v>
+      </c>
+      <c r="B105" t="s">
+        <v>718</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="106" ht="54" spans="1:3">
+      <c r="A106" s="14">
+        <v>43306</v>
+      </c>
+      <c r="B106" t="s">
+        <v>702</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="107" ht="27" spans="1:4">
+      <c r="A107" s="14">
+        <v>43306</v>
+      </c>
+      <c r="B107" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="9">
-        <v>43305</v>
-      </c>
-      <c r="B104" t="s">
-        <v>699</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="105" ht="40.5" spans="1:3">
-      <c r="A105" s="9">
+      <c r="C107" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="D107" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="108" ht="27" spans="1:3">
+      <c r="A108" s="14">
         <v>43306</v>
       </c>
-      <c r="B105" t="s">
-        <v>715</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="106" ht="54" spans="1:3">
-      <c r="A106" s="9">
-        <v>43306</v>
-      </c>
-      <c r="B106" t="s">
-        <v>699</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="107" ht="27" spans="1:4">
-      <c r="A107" s="9">
-        <v>43306</v>
-      </c>
-      <c r="B107" t="s">
-        <v>713</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="D107" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="108" ht="27" spans="1:3">
-      <c r="A108" s="9">
-        <v>43306</v>
-      </c>
       <c r="B108" t="s">
-        <v>722</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="109" ht="54" spans="1:3">
-      <c r="A109" s="9">
+      <c r="A109" s="14">
         <v>43307</v>
       </c>
       <c r="B109" t="s">
-        <v>699</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>724</v>
+        <v>702</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="110" ht="27" spans="1:3">
-      <c r="A110" s="9">
+      <c r="A110" s="14">
         <v>43307</v>
       </c>
       <c r="B110" t="s">
-        <v>725</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>726</v>
+        <v>728</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="111" ht="27" spans="1:3">
-      <c r="A111" s="9">
+      <c r="A111" s="14">
         <v>43308</v>
       </c>
       <c r="B111" t="s">
-        <v>713</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>727</v>
+        <v>716</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="112" ht="40.5" spans="1:3">
+      <c r="A112" s="14">
+        <v>43311</v>
+      </c>
+      <c r="B112" t="s">
+        <v>716</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="14">
+        <v>43311</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="14">
+        <v>43311</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="14">
+        <v>43311</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="116" ht="54" spans="1:3">
+      <c r="A116" s="14">
+        <v>43312</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="117" ht="27" spans="1:3">
+      <c r="A117" s="14">
+        <v>43312</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="118" ht="27" spans="1:3">
+      <c r="A118" s="14">
+        <v>43313</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>737</v>
       </c>
     </row>
   </sheetData>
@@ -9207,7 +9842,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -9216,226 +9851,245 @@
     <col min="2" max="2" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>728</v>
+    <row r="1" ht="14.25" spans="1:3">
+      <c r="A1" s="10" t="s">
+        <v>738</v>
       </c>
       <c r="B1" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:2">
-      <c r="A2" s="7" t="s">
-        <v>730</v>
+        <v>739</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:3">
+      <c r="A2" s="11" t="s">
+        <v>741</v>
       </c>
       <c r="B2" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:2">
-      <c r="A3" s="7" t="s">
-        <v>732</v>
+        <v>742</v>
+      </c>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:3">
+      <c r="A3" s="11" t="s">
+        <v>743</v>
       </c>
       <c r="B3" t="s">
-        <v>733</v>
-      </c>
+        <v>744</v>
+      </c>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" ht="14.25" spans="1:2">
-      <c r="A4" s="8" t="s">
-        <v>734</v>
+      <c r="A4" s="13" t="s">
+        <v>745</v>
       </c>
       <c r="B4" t="s">
-        <v>735</v>
+        <v>746</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:2">
-      <c r="A5" s="8" t="s">
-        <v>736</v>
+      <c r="A5" s="13" t="s">
+        <v>747</v>
       </c>
       <c r="B5" t="s">
-        <v>737</v>
+        <v>748</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:2">
-      <c r="A6" s="8" t="s">
-        <v>738</v>
+      <c r="A6" s="13" t="s">
+        <v>749</v>
       </c>
       <c r="B6" t="s">
-        <v>739</v>
+        <v>750</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>740</v>
+        <v>751</v>
       </c>
       <c r="B7" t="s">
-        <v>741</v>
+        <v>752</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>742</v>
+        <v>753</v>
       </c>
       <c r="B8" t="s">
-        <v>743</v>
+        <v>754</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>744</v>
+        <v>755</v>
       </c>
       <c r="B9" t="s">
-        <v>745</v>
+        <v>756</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>746</v>
+        <v>757</v>
       </c>
       <c r="B10" t="s">
-        <v>747</v>
+        <v>758</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>748</v>
+        <v>759</v>
       </c>
       <c r="B11" t="s">
-        <v>749</v>
+        <v>760</v>
       </c>
     </row>
     <row r="12" ht="94.5" spans="1:1">
-      <c r="A12" s="1" t="s">
-        <v>750</v>
+      <c r="A12" s="5" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>751</v>
+        <v>762</v>
       </c>
       <c r="B13" t="s">
-        <v>752</v>
+        <v>763</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>753</v>
+        <v>764</v>
       </c>
       <c r="B14" t="s">
-        <v>754</v>
+        <v>765</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>755</v>
+        <v>766</v>
       </c>
       <c r="B15" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
       <c r="B16" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
       <c r="B17" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>761</v>
+        <v>772</v>
       </c>
       <c r="B18" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>773</v>
+      </c>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>763</v>
+        <v>774</v>
       </c>
       <c r="B19" t="s">
-        <v>764</v>
-      </c>
+        <v>775</v>
+      </c>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>765</v>
+        <v>776</v>
       </c>
       <c r="B20" t="s">
-        <v>766</v>
+        <v>777</v>
       </c>
       <c r="C20" t="s">
-        <v>767</v>
+        <v>778</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>768</v>
+        <v>779</v>
       </c>
       <c r="B21" t="s">
-        <v>766</v>
+        <v>777</v>
       </c>
       <c r="C21" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="23" ht="175.5" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>770</v>
+        <v>780</v>
+      </c>
+    </row>
+    <row r="22" ht="175.5" spans="1:2">
+      <c r="A22" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="B22" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>783</v>
       </c>
       <c r="B23" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>772</v>
+        <v>785</v>
       </c>
       <c r="B24" t="s">
-        <v>773</v>
+        <v>786</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>774</v>
+        <v>787</v>
       </c>
       <c r="B25" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
       <c r="B26" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
       <c r="B27" t="s">
-        <v>779</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="C27" s="8"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="B28" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C28">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -9454,82 +10108,82 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="43.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="24.75" style="5" customWidth="1"/>
     <col min="4" max="4" width="15.375" customWidth="1"/>
     <col min="5" max="5" width="28.375" customWidth="1"/>
     <col min="6" max="6" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="A1" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>784</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>785</v>
+        <v>797</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="3" ht="27" spans="2:6">
-      <c r="B3" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>788</v>
+        <v>801</v>
       </c>
     </row>
     <row r="7" ht="67.5" spans="2:3">
-      <c r="B7" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>790</v>
+      <c r="B7" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="1" t="s">
-        <v>791</v>
+      <c r="B8" s="5" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="1" t="s">
-        <v>792</v>
+      <c r="B9" s="5" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="1" t="s">
-        <v>793</v>
+      <c r="B10" s="5" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="1" t="s">
-        <v>794</v>
+      <c r="B11" s="5" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="1" t="s">
-        <v>795</v>
+      <c r="B12" s="5" t="s">
+        <v>808</v>
       </c>
     </row>
   </sheetData>
@@ -9552,12 +10206,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="43.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="108" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>796</v>
+      <c r="A1" s="5" t="s">
+        <v>809</v>
       </c>
     </row>
   </sheetData>

--- a/doc/本地测试链接.xlsx
+++ b/doc/本地测试链接.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="5"/>
+    <workbookView windowWidth="28695" windowHeight="13050" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="系统网址" sheetId="1" r:id="rId1"/>
@@ -17,17 +17,18 @@
     <sheet name="坐岗预警规则" sheetId="8" r:id="rId8"/>
     <sheet name="曲线检测" sheetId="9" r:id="rId9"/>
     <sheet name="服务器及数据库密码" sheetId="10" r:id="rId10"/>
+    <sheet name="分布式" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">计划工作内容!$A$1:$F$92</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">业务类视图!$A$1:$C$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">计划工作内容!$A$1:$F$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">业务类视图!$A$1:$C$38</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035">
   <si>
     <t>先调整为debug</t>
   </si>
@@ -443,13 +444,13 @@
     <t>gehesheng.osxn 葛和生</t>
   </si>
   <si>
-    <t>yangjian.osxn</t>
-  </si>
-  <si>
-    <t>lidaijin.osxn</t>
-  </si>
-  <si>
-    <t>yubin.osxn</t>
+    <t>视频对讲域名对应</t>
+  </si>
+  <si>
+    <t>10.18.2.27 xnyqkf.yunqt.net
+10.18.2.155 xnyqkfmedia.yunqt.net
+10.18.2.142 xnyq.yunqt.net
+10.18.2.143 xnyqas.yunqt.net</t>
   </si>
   <si>
     <t>华北一体化平台网址</t>
@@ -960,6 +961,63 @@
     <t>短信发送历史时间,当前等级</t>
   </si>
   <si>
+    <t>jh_yxj_pz</t>
+  </si>
+  <si>
+    <t>人员井号显示优先级配置</t>
+  </si>
+  <si>
+    <t>单位名称</t>
+  </si>
+  <si>
+    <t>zzjgqc</t>
+  </si>
+  <si>
+    <t>单位代码</t>
+  </si>
+  <si>
+    <t>zzjgdm</t>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>priority 优先级,为2时通过人员绑定井没有找到井时执行,找到不执行</t>
+  </si>
+  <si>
+    <t>接口地址:</t>
+  </si>
+  <si>
+    <t>http://real.xnyq.sinopec.com:8070/BASE_JAVA/chartAction/saveUserLoginInfo.do</t>
+  </si>
+  <si>
+    <t>接口说明:上报用户登录状态心跳接口</t>
+  </si>
+  <si>
+    <t>传入参数</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>用户id</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>上报类型:login-用户登录成功时.exit-每30秒上报一次</t>
+  </si>
+  <si>
+    <t>远程桌面端口:63311</t>
+  </si>
+  <si>
+    <t>http://10.18.3.82:8085/WebOfficeServer.aspx</t>
+  </si>
+  <si>
+    <t>文件预览服务-不支持域名-wjyl.js</t>
+  </si>
+  <si>
     <t>对接人</t>
   </si>
   <si>
@@ -1342,6 +1400,9 @@
   </si>
   <si>
     <t>base_java所有模块作用新版井号面板</t>
+  </si>
+  <si>
+    <t>剩余视频数据</t>
   </si>
   <si>
     <t>记录接口执行情况将数据存入数据库并编写界面进行展示</t>
@@ -1391,6 +1452,206 @@
   </si>
   <si>
     <t>增加异常基础信息表中小部分定时任务和通过预警传递过来的数据不允许操作和查看异常执行配置</t>
+  </si>
+  <si>
+    <t>井号面板井号显示逻辑重构,人员查询权限调整</t>
+  </si>
+  <si>
+    <t>井号面板井号显示优先级单位配置</t>
+  </si>
+  <si>
+    <t>BASE_JAVA华北下面需要过滤接口配置并调用loadPageManagerSystem刷新</t>
+  </si>
+  <si>
+    <t>PAGE_MAMAGER_SYSTEM</t>
+  </si>
+  <si>
+    <t>资料上传表格增加跟异常管控实例列表相同的查询权限</t>
+  </si>
+  <si>
+    <t>测试synchronized  在页面通过定时任务多开几个页面一起验证同步关键词</t>
+  </si>
+  <si>
+    <t>验证创建对象和继承时,类中的方法是否会窜数据</t>
+  </si>
+  <si>
+    <t>重新编译tomcat-coyote</t>
+  </si>
+  <si>
+    <t>综合信息-人员信息-证件信息-切换井数据不改变</t>
+  </si>
+  <si>
+    <t>华北井号面板 施工单位对应查询需要调整</t>
+  </si>
+  <si>
+    <t>井队人员都必须要有井控证和HSE,失效日期为空的预警</t>
+  </si>
+  <si>
+    <t>人员持证重复消息提醒四级每天1次发送消息</t>
+  </si>
+  <si>
+    <t>异常管控-处理接口调用需要增加:1.处理人,2.处理描述,3.回跳异常管控页面带参数显示已处理信息</t>
+  </si>
+  <si>
+    <t>3.1需要在处理时判断信息是否是超期处理,
+3.2回跳链接中需要标识清楚已处理和超期处理,异常实例标识</t>
+  </si>
+  <si>
+    <t>1.异常管控-短信接收人 逻辑新版确认</t>
+  </si>
+  <si>
+    <t>部分岗位和人员在sys_user中没有</t>
+  </si>
+  <si>
+    <t>2.完井及井下作业  井号面板 施工结束追踪</t>
+  </si>
+  <si>
+    <t>dense_rank() over(order by nvl(BB.fs, 0) asc) as KHPM</t>
+  </si>
+  <si>
+    <t>考核分数排名</t>
+  </si>
+  <si>
+    <t>异常实例-短信接收人列表 没有岗位</t>
+  </si>
+  <si>
+    <t>西南根据人员查询组织机构(井号面板需要)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select t.org_nm zzjgjc,t.sinopec_code zshqybm,t.org_code from EPBW_XN.SYS_ORG t
+start with t.sinopec_code =(select distinct zzjgdm from v_user_info where yhadzh='jiahaiping.xnyq')
+connect by prior  t.diruorg_id=org_id;
+</t>
+  </si>
+  <si>
+    <t>select * from v_parorgcode a where p_view_param.SET_VALUE('shiwenzhao.osxn')='shiwenzhao.osxn'</t>
+  </si>
+  <si>
+    <t>根据人员账号获取组织机构含上级</t>
+  </si>
+  <si>
+    <t>华北根据人员查询组织机构(井号面板需要)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select t.org_nm zzjgjc,t.sinopec_code zshqybm,t.org_code from EPBW_HB.SYS_ORG t
+ start with t.org_code =(select t.zzjgdm from v_user_info t where t.yhadzh='caif.slyt')
+connect by prior  t.diruorg_id=org_id;
+</t>
+  </si>
+  <si>
+    <t>综合信息-设备信息-定向改为录井,钻井和录井已经提供接口</t>
+  </si>
+  <si>
+    <t>异常管控-视频无数据</t>
+  </si>
+  <si>
+    <t>华北yuxianyong.hbsj 不存在</t>
+  </si>
+  <si>
+    <t>优化数据查询直接从v_sys_user中查询</t>
+  </si>
+  <si>
+    <t>视频对讲-用户在线时长</t>
+  </si>
+  <si>
+    <t>视图日期字段转换为字符串后引起的查询错误</t>
+  </si>
+  <si>
+    <t>xnyq.yunqt.net-155验证</t>
+  </si>
+  <si>
+    <t>已验证</t>
+  </si>
+  <si>
+    <t>综合信息-华北-人员信息监督验证数据,</t>
+  </si>
+  <si>
+    <t>从数据服务中获取queryDjryxx</t>
+  </si>
+  <si>
+    <t>综合信息-新做功能查询测试</t>
+  </si>
+  <si>
+    <t>华北-工程,气测,泥浆,IE下井号选择点击后页面刷新导致井号面板频闪</t>
+  </si>
+  <si>
+    <t>取消点击时刷新操作</t>
+  </si>
+  <si>
+    <t>华北-综合信息-JPH429-无井身结构实际数据-导致切换回来时显示上一个井的数据</t>
+  </si>
+  <si>
+    <t>业绩考核-权重</t>
+  </si>
+  <si>
+    <t>考核分数=原始扣分/(井数*系数)
+井深(h):     系数
+h&lt;2000       1
+2000&lt;=h&lt;3000 1.1
+3000&lt;=h&lt;4500 1.2
+4500&lt;=h&lt;6000 1.5
+h&gt;=6000       2</t>
+  </si>
+  <si>
+    <t>V_ODS_ZJ_GJSNJYPJCJL---固井水泥浆样品检测记录视图
+Sheet页放在专报文档后面“水泥浆实验”
+展示字段：
+JCJL.TGMC--套管记录
+JCJL.FJMC  FABGMC,--方案报告名称
+预览（按钮）
+----通过 order by jh,tgmcdm desc;</t>
+  </si>
+  <si>
+    <t>方案设计：展示字段：文档类别（方案类别）、文档名称（方案报告名称）、预览，通过ORDER BY JH,BXRQ DESC,FALB               * VIEW: V_ODS_JCXX_WDGL_FASJ
+ * 功能:方案设计视图</t>
+  </si>
+  <si>
+    <t>监督指令</t>
+  </si>
+  <si>
+    <t>测试库需要增加查询权限</t>
+  </si>
+  <si>
+    <t>1.EPBW_XN.SYS_role
+2.EPBW_XN.SYS_org</t>
+  </si>
+  <si>
+    <t>能不能在测试库 中建一个 sssj.ljy_sj_new   并 实现将正式数据 同步到 new中,跟西南正式库中sssj.ljy_sj_new 同样的功能?</t>
+  </si>
+  <si>
+    <r>
+      <t>测试库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF191F25"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10.18.2.5</t>
+    </r>
+  </si>
+  <si>
+    <t>需要增加查询权限:</t>
+  </si>
+  <si>
+    <t>1.EPBW_XN.SYS_role</t>
+  </si>
+  <si>
+    <t>2.EPBW_XN.SYS_org</t>
+  </si>
+  <si>
+    <t>修改插入权限</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPBW_xn.ZJGC_TXCJJBXX </t>
+  </si>
+  <si>
+    <t>在tomcat建立前台插件库,统一管理插件版本,减少各个项目中插件版本不一致</t>
+  </si>
+  <si>
+    <t>坐岗溢流和井漏,开停泵三分钟不预警实现:以最近坐岗记录时间为准,到综合录井仪记录中查询三分钟内的数据,如果泵冲之和小于5并且立管压力小于0.5,则不预警.</t>
   </si>
   <si>
     <t>js中json的一些使用</t>
@@ -2432,6 +2693,104 @@
     <t>在使用中如果遇到数据表被锁定会造成不能正常运行,需要解锁数据表后才能正常运行</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">oracle MERGE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>INTO</t>
+    </r>
+  </si>
+  <si>
+    <t>在一个同时存在Insert和Update语法的Merge语句中，总共Insert/Update的记录数，就是Using语句中alias2的记录数;
+可用于大数据优化或者简化java代码编写,提高数据存储性能</t>
+  </si>
+  <si>
+    <t>MERGE INTO T T1
+USING (SELECT '1001' AS a,2 AS b FROM dual) T2
+ON ( T1.a=T2.a)
+WHEN MATCHED THEN
+    UPDATE SET T1.b = T2.b
+WHEN NOT MATCHED THEN 
+    INSERT (a,b) VALUES(T2.a,T2.b);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sqlserver:if exists(select 1 from T where T.a='1001' )
+    update T set T.b=2 Where T.a='1001' 
+else 
+    insert into T(a,b) values('1001',2); </t>
+  </si>
+  <si>
+    <t>springboot</t>
+  </si>
+  <si>
+    <t>springcloud</t>
+  </si>
+  <si>
+    <t>lucene</t>
+  </si>
+  <si>
+    <t>搜索引擎</t>
+  </si>
+  <si>
+    <t>solr</t>
+  </si>
+  <si>
+    <t>elasticSearch</t>
+  </si>
+  <si>
+    <t>Swagger UI</t>
+  </si>
+  <si>
+    <t>RabbitMQ</t>
+  </si>
+  <si>
+    <t>缓存雪崩-并发时从缓存中获取数据时,缓存到期或其它情况,缓存不存在引起</t>
+  </si>
+  <si>
+    <t>接口方法:限流
+1.缓存降级:准确性要求不高,使用备用缓存
+2.准确性要求高只能使用阻塞</t>
+  </si>
+  <si>
+    <t>分布式技术-dubbo协议详解</t>
+  </si>
+  <si>
+    <t>服务注册和发现</t>
+  </si>
+  <si>
+    <t>分布式环境指挥官zookeeper</t>
+  </si>
+  <si>
+    <t>基于Redis的分布式锁会出现死锁</t>
+  </si>
+  <si>
+    <t>nginx 热点数据负载</t>
+  </si>
+  <si>
+    <t>activeMq 并发达到一定程度会丢包</t>
+  </si>
+  <si>
+    <t>rabbitMq 支持事务</t>
+  </si>
+  <si>
+    <t>只有kafka支持百万级并发</t>
+  </si>
+  <si>
+    <t>jen</t>
+  </si>
+  <si>
     <t>1.改造微服务</t>
   </si>
   <si>
@@ -3075,6 +3434,184 @@
 检查异常配置页面中周期策略配置页面显示控制功能</t>
   </si>
   <si>
+    <t>1.版本号调整为固定路径,初始化时对期加1然后写入到ver文件中,将变量放入到baseAction.VER中,以后直接使用,减少I/O操作</t>
+  </si>
+  <si>
+    <t>设计异常管控一井一测配置功能</t>
+  </si>
+  <si>
+    <t>1.修复异常管控中打开曲线工况显示错误
+2.修复5点范围内的曲线定位错误</t>
+  </si>
+  <si>
+    <t>对导航页面中的导航进行分组展示,</t>
+  </si>
+  <si>
+    <t>1.账号验证增加第三次从sys_user中查询
+2.调整异常实例列表曲线和视频链接参数</t>
+  </si>
+  <si>
+    <t>调整异常策略周期配置页面,策略配置调整为支持一对多,增加策略名称和描述配置,在界面上用表格显示名称和描述,为一井一测提供数据.</t>
+  </si>
+  <si>
+    <t>修复页面链接不存在时引起的后台报错</t>
+  </si>
+  <si>
+    <t>测试西南项目链接华北的数据库和数据服务,统计后台表和视图不存在,提交到数据部进行处理</t>
+  </si>
+  <si>
+    <t>总结</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.应用服务器分布式部署负载均衡
+</t>
+  </si>
+  <si>
+    <t>1.应用服务器采用Nginx+Tomcat分布式部署进行负载均衡,解决以前应用服务器经常出现服务器卡顿,宕机问题</t>
+  </si>
+  <si>
+    <t>2.引入Redis缓存机制对模块中访问量大的接口,访问耗时长的接口数据从Redis缓存中进行读取,从而大大的优化了页面响应速度</t>
+  </si>
+  <si>
+    <t>3.BASE_JAVA西南华北合并</t>
+  </si>
+  <si>
+    <t>石油工程下属两个子系统BASE_JAVA和异常管控实现通过自动识别所在服务器,从而在应用启动时自动加载对应的配置文件,系统智能对后台sql查询进行过滤再整理</t>
+  </si>
+  <si>
+    <t>4.引入sql监控功能,对系统中执行的sql性能进行可视化监控,从而对性能较低的sql进行专项优化</t>
+  </si>
+  <si>
+    <t>5.应用服务器运行监控,通过每个应用向服务器发送心跳,记录每个应用服务器运行是否正常,对于出现的异常的应用服务通过发送短信提醒相关责任人及时进行处理.</t>
+  </si>
+  <si>
+    <t>6.井号选择面板配置化,通过在配置页面可视化进行配置实现井号面板显示内容快速调整修改,并立即生效.</t>
+  </si>
+  <si>
+    <t>1.编写获取用户井号查询权限函数,通过返回值控制用户查询sql分流
+2.全面取消表前缀动态改由mybatis通过配置文件自动进行处理,西南华北配置文件优化取消表前缀配置改为单独json文件进行配置</t>
+  </si>
+  <si>
+    <t>1.取消数据表前缀采用变量
+2.井号选择面板增加从函数获取用户查询井号权限
+3.页面井号选择除视频数据和完井,试油气全部使用综合信息一样的井号面板</t>
+  </si>
+  <si>
+    <t>记录base_java中所有使用中的接口到数据表中
+1.增加拦截器记录base_java中所有使用中的接口到数据表中
+2.启用接口参数过滤
+3.取消多余重复的数据源代码
+4.取消配置文件中多余的jdbc配置项,增加url配置项并改变spring xml使用
+1.坐岗数据采用井号面板选择井号进行查询,取消下拉选择井号</t>
+  </si>
+  <si>
+    <t>编写施工设计文档上传前端页面功能和后台功能</t>
+  </si>
+  <si>
+    <t>资料上传新增加字段功能开发</t>
+  </si>
+  <si>
+    <t>1.资料上传根据工程部提出的需求进行对应增加;
+2.综合信息指令信息和资料信息增加全部资料显示,指令信息按照所属专业井查询,资料信息根据文档类型进行查询
+3.检查并指导新同事工作</t>
+  </si>
+  <si>
+    <t>资料上传表格增加跟异常管控实例列表相同的查询权限
+base_login增加岗位工作台中转,在链接中增加uid</t>
+  </si>
+  <si>
+    <t>资料上传界面调整,1.改变井号选择为弹出框中进行搜索选择,2.改变上传单位从弹出框中的tree中进行选择,3.改变界面文字内容,3.修复下载文件内容为空,在下载文件接口中增加过滤筛选</t>
+  </si>
+  <si>
+    <t>1.解决多井轮循不显示井号,在井号面板js中增加调用多井轮循初始化方法
+2.修复综合信息证件信息切换井时错误,未清空导致切换数据累加在最下面
+3.综合信息文件下载部分使用到的数据服务接口相关url等信息先从后台获取后前端在使用</t>
+  </si>
+  <si>
+    <t>对接视频对讲流媒体1.必须使用xnyq.yunqt.net;2.域名必须指向2.155;</t>
+  </si>
+  <si>
+    <t>修复井号面板华北兼容方面相关问题
+增加最高级例外账号
+试油气,完井增加华北IP地址</t>
+  </si>
+  <si>
+    <t>1.取消异常管控页面初始化时间显示
+2.重新编写人员持证到期异常,增加失效日期为空和井队上人员没有证件异常</t>
+  </si>
+  <si>
+    <t>1.完善登录用户查询井号权限
+2.优化后台sql过滤
+3.平台所有模块采用新版本井号面板插件
+4.优化系统数据库配置
+5.编写资料上传和综合信息中展示功能
+6.解决平台部分已知问题</t>
+  </si>
+  <si>
+    <t>异常管控-重新调用异常处理接口,取消直接在url中加uid,通过单点登录获取,升级异常时取消处置接口调用改为删除接口
+业务考核页面编写</t>
+  </si>
+  <si>
+    <t>完成业务考核前端和后台功能.</t>
+  </si>
+  <si>
+    <t>补全异常管理单位和责任单位.记录所有调用亚太的数据接口用于测试,向个人工作台推送信息时先将管理单位转换为用户中心编码,重新编写获取异常需要推送消息的人员</t>
+  </si>
+  <si>
+    <t>1.优化获取组织机构代码树形结构数据
+2.更改生成异常时获取责任单位代码函数</t>
+  </si>
+  <si>
+    <t>井号查询编写后台sql,前端增加是否根据中模块进行范围查询</t>
+  </si>
+  <si>
+    <t>编写查询人员查询权限视图,编写获取异常推送人员视图</t>
+  </si>
+  <si>
+    <t>重新编写获取待发送短信人员信息,西南tomcat服务器升级到tomcat8.5;提交视频对讲代码,并部署到西南.异常实例页面中文增加编码</t>
+  </si>
+  <si>
+    <t>编写视频对讲用户在线状态功能,记录用户每天在线时长</t>
+  </si>
+  <si>
+    <t>系统维护,填坑</t>
+  </si>
+  <si>
+    <t>综合信息-指令信息-管理
+指令根据提供的视图重新进行开发,
+资料信息-施工文档,专报文档根据提供的视图进行进行数据展示;
+设备信息-井控设备根据提供的视图进行数据展示;
+根据安琪瑞提供的文件预览接口对数据中的文件进行文件预览;</t>
+  </si>
+  <si>
+    <t>视频对讲优化对配置url依赖,编写历史会议查询列表功能</t>
+  </si>
+  <si>
+    <t>综合信息中新增加功能弹出框高度重新计算高度,修复已知bug;
+井号面板数据源切换为视图.完井,试油气中增加施工结束显示;</t>
+  </si>
+  <si>
+    <t>方案设计,监督指令,水泥浆实验功能开发</t>
+  </si>
+  <si>
+    <t>异常管控:
+1.优化异常管控人员查询权限;
+2.优化异常推送人员视图
+一体化:
+1.完善视频对讲新版功能,编写用户在线记录和查询,编写历史会议数据展示功能.
+2.综合信息页面新增加模块功能开发:
+2.1指令信息-管理指令,监督指令数据展示;
+2.2资料信息-施工文档,专报文档,方案设计,水泥浆实数据展示;
+2.3设备信息-井控设备信息展示;
+3.井号面板数据源调整为视图,增加完井,试油气模块下可查询相对应的施工结束井;</t>
+  </si>
+  <si>
+    <t>异常测试平台测试页面开发</t>
+  </si>
+  <si>
+    <t>考核排名页面增加原始分数和考核分数</t>
+  </si>
+  <si>
     <t>EPBW_XN.ODS_BLBM_JZTBM</t>
   </si>
   <si>
@@ -3090,6 +3627,12 @@
     <t>井状态分类信息表</t>
   </si>
   <si>
+    <t>EPBW_XN.v_jcxx_jztflxx_qb</t>
+  </si>
+  <si>
+    <t>包含井下作业施工结束内容</t>
+  </si>
+  <si>
     <t>EPBW_XN.V_ZJJTG_TG</t>
   </si>
   <si>
@@ -3102,7 +3645,7 @@
     <t>井岗位人员电话</t>
   </si>
   <si>
-    <t>EPBW_XN.V_SYS_ROLE </t>
+    <t>EPBW_XN.V_SYS_ROLE</t>
   </si>
   <si>
     <t>岗位信息</t>
@@ -3123,7 +3666,10 @@
     <t>EPBW_XN.V_SYS_USER_JH</t>
   </si>
   <si>
-    <t>人员绑定井查询</t>
+    <t>人员分配井查询</t>
+  </si>
+  <si>
+    <t>sys_user中work_jhdm为当前绑定井</t>
   </si>
   <si>
     <t>EPBW_XN.SYS_USER</t>
@@ -3164,6 +3710,12 @@
     <t>查询工况</t>
   </si>
   <si>
+    <t>EPBW_XN.ZJGC_CJJDJBXX</t>
+  </si>
+  <si>
+    <t>工况字典表</t>
+  </si>
+  <si>
     <t>EPBW_HB.ODS_JCXX_TJBZJDLXDYGX</t>
   </si>
   <si>
@@ -3256,6 +3808,57 @@
     <t>井工况视图</t>
   </si>
   <si>
+    <t>YTSJ.ZYK_ZJGC_500</t>
+  </si>
+  <si>
+    <t>EPBW_XN.V_YHZX_YYXX_YYST</t>
+  </si>
+  <si>
+    <t>用户中心用户信息(应用视图)</t>
+  </si>
+  <si>
+    <t>EPBW_XN.sys_org</t>
+  </si>
+  <si>
+    <t>EPBW_XN.v_Jcxx_Djsgsjjd</t>
+  </si>
+  <si>
+    <t>单井施工时间节点信息</t>
+  </si>
+  <si>
+    <t>EPBW_XN.V_ODS_JCXX_WDGL_XCSGSJ</t>
+  </si>
+  <si>
+    <t>资料信息-施工文档</t>
+  </si>
+  <si>
+    <t>EPBW_XN.V_ODS_JCXX_WDGL_ZBWD</t>
+  </si>
+  <si>
+    <t>资料信息-专报文档</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPBW_XN.V_ODS_RWZL_TZZLJCXX </t>
+  </si>
+  <si>
+    <t>指令信息-管理指令</t>
+  </si>
+  <si>
+    <t>EPBW_XN.V_ODS_ZJ_JKSBXX</t>
+  </si>
+  <si>
+    <t>设备信息-井控设备</t>
+  </si>
+  <si>
+    <t>设计井深</t>
+  </si>
+  <si>
+    <t>sssj.gj_gjsgsssj</t>
+  </si>
+  <si>
+    <t>固井施工实时数据表</t>
+  </si>
+  <si>
     <t>坐岗预警规则</t>
   </si>
   <si>
@@ -3483,12 +4086,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="49">
+  <fonts count="54">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3615,6 +4218,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3D464D"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -3626,6 +4241,18 @@
       <sz val="9"/>
       <color rgb="FF222222"/>
       <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF191F25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF191F25"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3657,6 +4284,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -3664,16 +4321,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3695,36 +4345,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3739,39 +4375,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3788,6 +4393,28 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3828,13 +4455,31 @@
       <name val="Helvetica"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -3844,25 +4489,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3880,7 +4531,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3892,7 +4549,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3904,13 +4603,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3922,25 +4645,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3952,79 +4669,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4168,13 +4813,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4184,6 +4833,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4203,6 +4867,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4218,30 +4891,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -4251,17 +4900,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4273,10 +4918,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4285,135 +4930,135 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4426,7 +5071,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4450,10 +5095,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -4473,6 +5121,15 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4525,6 +5182,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -4543,13 +5206,16 @@
     <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
@@ -4576,7 +5242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4609,7 +5275,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -4617,19 +5286,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="10" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4795,7 +5464,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10391775" y="1028700"/>
+          <a:off x="11220450" y="1028700"/>
           <a:ext cx="1355090" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4837,7 +5506,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11725910" y="1028700"/>
+          <a:off x="12554585" y="1028700"/>
           <a:ext cx="5189855" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4879,7 +5548,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11734800" y="1200150"/>
+          <a:off x="12563475" y="1200150"/>
           <a:ext cx="4209415" cy="843915"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4896,15 +5565,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>46355</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>27305</xdr:rowOff>
+      <xdr:colOff>208280</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4921,8 +5590,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11039475" y="2051050"/>
-          <a:ext cx="10761980" cy="8256905"/>
+          <a:off x="12030075" y="2889250"/>
+          <a:ext cx="10761980" cy="13514705"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4991,13 +5660,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>189865</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5015,12 +5684,941 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5572125" y="4000500"/>
+          <a:off x="7315200" y="4171950"/>
           <a:ext cx="3552190" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>172085</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7715885" y="391160"/>
+          <a:ext cx="3152140" cy="3514090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>579755</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>145415</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="438150" y="9525"/>
+          <a:ext cx="6999605" cy="3564890"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>132715</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="438150" y="3581400"/>
+          <a:ext cx="3809365" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>50165</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="3495040"/>
+          <a:ext cx="5927725" cy="3241675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10658475" y="1714500"/>
+          <a:ext cx="3771900" cy="2880360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10410825" y="4752975"/>
+          <a:ext cx="2943225" cy="3036570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8648700" y="5848350"/>
+          <a:ext cx="4714875" cy="2542540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>130810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13687425" y="5010150"/>
+          <a:ext cx="2409825" cy="949960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>562610</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="7677150"/>
+          <a:ext cx="6039485" cy="4124325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>627380</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="8458200"/>
+          <a:ext cx="4323080" cy="3196590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>163830</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11287125" y="8915400"/>
+          <a:ext cx="3278505" cy="2466975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>534035</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="11830050"/>
+          <a:ext cx="8077835" cy="4295140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>614045</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8972550" y="11830050"/>
+          <a:ext cx="2614295" cy="3733800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>194310</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11677650" y="11972925"/>
+          <a:ext cx="2232660" cy="3638550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>275590</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>37465</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="15601950"/>
+          <a:ext cx="2952115" cy="3466465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>56515</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>56515</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11201400" y="15344775"/>
+          <a:ext cx="3942715" cy="3056890"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>256540</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16973550"/>
+          <a:ext cx="6428740" cy="1504950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="19030950"/>
+          <a:ext cx="2762250" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>513715</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>161290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="18821400"/>
+          <a:ext cx="4361815" cy="3628390"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>94615</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="19888200"/>
+          <a:ext cx="4895215" cy="1781175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>113665</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8829675" y="21764625"/>
+          <a:ext cx="4314190" cy="2152650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>237490</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="22974300"/>
+          <a:ext cx="2980690" cy="2047875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -5289,7 +6887,7 @@
   <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5306,258 +6904,258 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="66" customFormat="1" spans="1:2">
-      <c r="A2" s="66" t="s">
+    <row r="2" s="74" customFormat="1" spans="1:2">
+      <c r="A2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="75" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="66" customFormat="1" spans="2:2">
-      <c r="B3" s="67"/>
-    </row>
-    <row r="4" s="66" customFormat="1" spans="1:2">
-      <c r="A4" s="66" t="s">
+    <row r="3" s="74" customFormat="1" spans="2:2">
+      <c r="B3" s="75"/>
+    </row>
+    <row r="4" s="74" customFormat="1" spans="1:2">
+      <c r="A4" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="75" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" s="66" customFormat="1" spans="1:2">
-      <c r="A5" s="66" t="s">
+    <row r="5" s="74" customFormat="1" spans="1:2">
+      <c r="A5" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="75" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" s="66" customFormat="1" spans="1:2">
-      <c r="A6" s="66" t="s">
+    <row r="6" s="74" customFormat="1" spans="1:2">
+      <c r="A6" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="75" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" s="66" customFormat="1" spans="2:2">
-      <c r="B7" s="67"/>
-    </row>
-    <row r="8" s="66" customFormat="1" spans="1:2">
-      <c r="A8" s="66" t="s">
+    <row r="7" s="74" customFormat="1" spans="2:2">
+      <c r="B7" s="75"/>
+    </row>
+    <row r="8" s="74" customFormat="1" spans="1:2">
+      <c r="A8" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="75" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" s="66" customFormat="1" spans="1:2">
-      <c r="A9" s="66" t="s">
+    <row r="9" s="74" customFormat="1" spans="1:2">
+      <c r="A9" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="75" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" s="66" customFormat="1" spans="1:2">
-      <c r="A10" s="66" t="s">
+    <row r="10" s="74" customFormat="1" spans="1:2">
+      <c r="A10" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="75" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" s="66" customFormat="1" spans="1:2">
-      <c r="A11" s="66" t="s">
+    <row r="11" s="74" customFormat="1" spans="1:2">
+      <c r="A11" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="75" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" s="66" customFormat="1" spans="1:2">
-      <c r="A12" s="66" t="s">
+    <row r="12" s="74" customFormat="1" spans="1:2">
+      <c r="A12" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="75" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" s="66" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A13" s="66" t="s">
+    <row r="13" s="74" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A13" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" s="66" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A14" s="66" t="s">
+    <row r="14" s="74" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A14" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="41" t="s">
+      <c r="C14" s="76"/>
+      <c r="D14" s="47" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" s="66" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A15" s="66" t="s">
+    <row r="15" s="74" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A15" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="47" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" s="66" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A16" s="66" t="s">
+    <row r="16" s="74" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A16" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="47" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" s="66" customFormat="1" spans="1:2">
-      <c r="A17" s="66" t="s">
+    <row r="17" s="74" customFormat="1" spans="1:2">
+      <c r="A17" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="75" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" s="66" customFormat="1" spans="1:2">
-      <c r="A18" s="66" t="s">
+    <row r="18" s="74" customFormat="1" spans="1:2">
+      <c r="A18" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="75" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" s="66" customFormat="1" spans="1:2">
-      <c r="A19" s="66" t="s">
+    <row r="19" s="74" customFormat="1" spans="1:2">
+      <c r="A19" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="75" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" s="66" customFormat="1" spans="1:2">
+    <row r="20" s="74" customFormat="1" spans="1:2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="75" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" s="66" customFormat="1" spans="1:2">
-      <c r="A21" s="66" t="s">
+    <row r="21" s="74" customFormat="1" spans="1:2">
+      <c r="A21" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="75" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" s="66" customFormat="1" spans="1:2">
-      <c r="A22" s="66" t="s">
+    <row r="22" s="74" customFormat="1" spans="1:2">
+      <c r="A22" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="75" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" s="66" customFormat="1" spans="1:2">
-      <c r="A23" s="66" t="s">
+    <row r="23" s="74" customFormat="1" spans="1:2">
+      <c r="A23" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="75" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" s="66" customFormat="1" spans="1:2">
-      <c r="A24" s="66" t="s">
+    <row r="24" s="74" customFormat="1" spans="1:2">
+      <c r="A24" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="75" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" s="66" customFormat="1" spans="1:2">
-      <c r="A25" s="66" t="s">
+    <row r="25" s="74" customFormat="1" spans="1:2">
+      <c r="A25" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="77" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" s="66" customFormat="1" spans="1:2">
-      <c r="A26" s="66" t="s">
+    <row r="26" s="74" customFormat="1" spans="1:2">
+      <c r="A26" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="77" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="49" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" s="66" customFormat="1" spans="1:2">
-      <c r="A28" s="66" t="s">
+    <row r="28" s="74" customFormat="1" spans="1:2">
+      <c r="A28" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="75" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" s="66" customFormat="1" spans="2:2">
-      <c r="B29" s="67"/>
-    </row>
-    <row r="30" s="66" customFormat="1" spans="1:2">
-      <c r="A30" s="66" t="s">
+    <row r="29" s="74" customFormat="1" spans="2:2">
+      <c r="B29" s="75"/>
+    </row>
+    <row r="30" s="74" customFormat="1" spans="1:2">
+      <c r="A30" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="75" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" s="66" customFormat="1" spans="1:2">
-      <c r="A31" s="66" t="s">
+    <row r="31" s="74" customFormat="1" spans="1:2">
+      <c r="A31" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="75" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" s="66" customFormat="1" spans="1:2">
-      <c r="A32" s="66" t="s">
+    <row r="32" s="74" customFormat="1" spans="1:2">
+      <c r="A32" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="67" t="s">
+      <c r="B32" s="75" t="s">
         <v>64</v>
       </c>
     </row>
@@ -5565,7 +7163,7 @@
       <c r="A33" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5573,7 +7171,7 @@
       <c r="A34" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="4" t="s">
         <v>67</v>
       </c>
       <c r="G34" t="s">
@@ -5582,39 +7180,39 @@
       <c r="H34" t="s">
         <v>69</v>
       </c>
-      <c r="I34" s="74" t="s">
+      <c r="I34" s="82" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" s="66" customFormat="1" spans="1:2">
-      <c r="A35" s="66" t="s">
+    <row r="35" s="74" customFormat="1" spans="1:2">
+      <c r="A35" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="70" t="s">
+      <c r="B35" s="78" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="36" s="66" customFormat="1" spans="1:2">
-      <c r="A36" s="66" t="s">
+    <row r="36" s="74" customFormat="1" spans="1:2">
+      <c r="A36" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="70" t="s">
+      <c r="B36" s="78" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" s="66" customFormat="1" spans="1:2">
-      <c r="A37" s="66" t="s">
+    <row r="37" s="74" customFormat="1" spans="1:2">
+      <c r="A37" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="71" t="s">
+      <c r="B37" s="79" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" s="66" customFormat="1" spans="1:2">
-      <c r="A38" s="66" t="s">
+    <row r="38" s="74" customFormat="1" spans="1:2">
+      <c r="A38" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="71" t="s">
+      <c r="B38" s="79" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5622,42 +7220,42 @@
       <c r="A39" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="66" t="s">
+      <c r="A40" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="66" t="s">
+      <c r="A41" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="66" t="s">
+      <c r="A42" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="44"/>
+      <c r="B43" s="49"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="43" t="s">
+      <c r="B44" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C44" t="s">
@@ -5668,7 +7266,7 @@
       <c r="A45" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D45" t="s">
@@ -5682,33 +7280,33 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="66" t="s">
+      <c r="A46" s="74" t="s">
         <v>94</v>
       </c>
       <c r="B46" s="5"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="66"/>
-      <c r="B47" s="67" t="s">
+      <c r="A47" s="74"/>
+      <c r="B47" s="75" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="66" t="s">
+      <c r="A48" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="67" t="s">
+      <c r="B48" s="75" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="66"/>
-      <c r="B49" s="43" t="s">
+      <c r="A49" s="74"/>
+      <c r="B49" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="4" t="s">
         <v>99</v>
       </c>
     </row>
@@ -5721,7 +7319,7 @@
       <c r="A52" t="s">
         <v>101</v>
       </c>
-      <c r="B52" s="43" t="s">
+      <c r="B52" s="4" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5729,7 +7327,7 @@
       <c r="A53" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="44" t="s">
+      <c r="B53" s="49" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5737,7 +7335,7 @@
       <c r="A55" t="s">
         <v>105</v>
       </c>
-      <c r="B55" s="44" t="s">
+      <c r="B55" s="49" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5761,18 +7359,18 @@
       <c r="A59" t="s">
         <v>111</v>
       </c>
-      <c r="B59" s="43" t="s">
+      <c r="B59" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="43"/>
+      <c r="B60" s="4"/>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>113</v>
       </c>
-      <c r="B61" s="43" t="s">
+      <c r="B61" s="4" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5780,108 +7378,108 @@
       <c r="A62" t="s">
         <v>115</v>
       </c>
-      <c r="B62" s="44" t="s">
+      <c r="B62" s="49" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="72" t="s">
+      <c r="A63" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="B63" s="73"/>
+      <c r="B63" s="81"/>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="43" t="s">
+      <c r="B65" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="66"/>
-      <c r="B66" s="69"/>
+      <c r="A66" s="74"/>
+      <c r="B66" s="77"/>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="66" t="s">
+      <c r="A67" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="B67" s="67" t="s">
+      <c r="B67" s="75" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="66" t="s">
+      <c r="A68" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="B68" s="67" t="s">
+      <c r="B68" s="75" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="66" t="s">
+      <c r="A69" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="B69" s="69" t="s">
+      <c r="B69" s="77" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="66"/>
+      <c r="A70" s="74"/>
       <c r="B70" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="66"/>
-      <c r="B71" s="69" t="s">
+      <c r="A71" s="74"/>
+      <c r="B71" s="77" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="66"/>
-      <c r="B72" s="69"/>
+      <c r="A72" s="74"/>
+      <c r="B72" s="77"/>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="66" t="s">
+      <c r="A73" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="B73" s="75" t="s">
+      <c r="B73" s="83" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="66"/>
-      <c r="B74" s="69"/>
+      <c r="A74" s="74"/>
+      <c r="B74" s="77"/>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="66"/>
-      <c r="B75" s="69"/>
+      <c r="A75" s="74"/>
+      <c r="B75" s="77"/>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="66" t="s">
+      <c r="A76" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="B76" s="69"/>
+      <c r="B76" s="77"/>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="66" t="s">
+      <c r="A77" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="B77" s="69"/>
+      <c r="B77" s="77"/>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="66"/>
-      <c r="B78" s="69"/>
+      <c r="A78" s="74"/>
+      <c r="B78" s="77"/>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="69"/>
+      <c r="B79" s="77"/>
     </row>
     <row r="80" ht="14.25" spans="1:2">
       <c r="A80" t="s">
         <v>130</v>
       </c>
-      <c r="B80" s="41" t="s">
+      <c r="B80" s="47" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5889,7 +7487,7 @@
       <c r="A81" t="s">
         <v>132</v>
       </c>
-      <c r="B81" s="41" t="s">
+      <c r="B81" s="47" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5897,7 +7495,7 @@
       <c r="A82" t="s">
         <v>134</v>
       </c>
-      <c r="B82" s="41" t="s">
+      <c r="B82" s="47" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5905,80 +7503,77 @@
       <c r="A83" t="s">
         <v>136</v>
       </c>
-      <c r="B83" s="69"/>
+      <c r="B83" s="77"/>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="66"/>
-      <c r="B84" s="69"/>
+      <c r="A84" s="74"/>
+      <c r="B84" s="77"/>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="66"/>
-      <c r="B85" s="69"/>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="A85" s="74"/>
+      <c r="B85" s="77"/>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>137</v>
       </c>
-      <c r="B86" s="66" t="s">
+      <c r="B86" s="74"/>
+    </row>
+    <row r="87" ht="54" spans="1:2">
+      <c r="A87" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="C86" t="s">
+      <c r="B87" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E86" t="s">
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="77"/>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="74" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="66"/>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88" s="69"/>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="66" t="s">
+      <c r="B89" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="B89" s="67" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="66"/>
-      <c r="B90" s="44"/>
+      <c r="A90" s="74"/>
+      <c r="B90" s="49"/>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
+        <v>142</v>
+      </c>
+      <c r="B92" s="49" t="s">
         <v>143</v>
-      </c>
-      <c r="B92" s="44" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
+        <v>145</v>
+      </c>
+      <c r="B95" t="s">
         <v>146</v>
-      </c>
-      <c r="B95" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
+        <v>148</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="B98" s="44" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -5987,7 +7582,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId2" display="http://localhost:8080/BASE_JAVA/qxhz/qx.html?uid=jiangyingying.xnyq&amp;chartid=1" tooltip="http://localhost:8080/BASE_JAVA/qxhz/qx.html?uid=jiangyingying.xnyq&amp;chartid=1"/>
-    <hyperlink ref="B32" r:id="rId3" display="http://localhost:8080/BASE_JAVA/video/video_index.html?uid=jiangyingying.xnyq" tooltip="http://localhost:8080/BASE_JAVA/video/video_index.html?uid=huangtao.xnyq"/>
+    <hyperlink ref="B32" r:id="rId3" display="http://localhost:8080/BASE_JAVA/video/video_index.html?uid=jiangyingying.xnyq" tooltip="http://localhost:8080/BASE_JAVA/video/video_index.html?uid=jiangyingying.xnyq"/>
     <hyperlink ref="B31" r:id="rId4" display="http://10.18.3.32:8080/GISManage/Default.html?id=DataStatistics"/>
     <hyperlink ref="B30" r:id="rId5" display="http://10.18.3.32:8080/ChuanXiGIS/JCZHIndex.html?id=wzjl"/>
     <hyperlink ref="B21" r:id="rId6" display="http://localhost:8080/BASE_JAVA/iframes/dx_index.html?uid=jiangyingying.xnyq" tooltip="http://localhost:8080/BASE_JAVA/iframes/dx_index.html?uid=jiangyingying.xnyq"/>
@@ -6043,7 +7638,7 @@
     <hyperlink ref="B92" r:id="rId56" display="https://ids.sinopec.com/ss/losePwd/reset"/>
     <hyperlink ref="B45" r:id="rId57" display="http://localhost:8080/BASE_JAVA/sdChart/index.html?chartType=GC&amp;uid=tangsha.xnyq"/>
     <hyperlink ref="B50" r:id="rId58" display="http://localhost:8080/BASE_JAVA/iframes/syq_index.html?uid%3Dxurenjun.hwrj%26name%3D%E5%BE%90%E4%BB%BB%E5%86%9B%26orgname%26ticket%3DST-360814-SLFJM3a47dKzaNdDDjqT-cas27.example.org"/>
-    <hyperlink ref="B98" r:id="rId59" display="http://test.xnyq.sinopec.com:8802/ythjczx/mainframe/ldframe/ld_index.jsp?areaCode=SSSJ"/>
+    <hyperlink ref="B98" r:id="rId59" display="http://test.xnyq.sinopec.com:8802/ythjczx/mainframe/ldframe/ld_index.jsp?areaCode=SSSJ" tooltip="http://test.xnyq.sinopec.com:8802/ythjczx/mainframe/ldframe/ld_index.jsp?areaCode=SSSJ"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6069,71 +7664,71 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:2">
       <c r="A1" t="s">
-        <v>810</v>
+        <v>976</v>
       </c>
       <c r="B1" t="s">
-        <v>524</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>811</v>
+        <v>977</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>812</v>
+        <v>978</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>813</v>
+        <v>979</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>814</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>815</v>
+        <v>981</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>816</v>
+        <v>982</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>817</v>
+        <v>983</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>818</v>
+        <v>984</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>819</v>
+        <v>985</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>820</v>
+        <v>986</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>821</v>
+        <v>987</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>822</v>
+        <v>988</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>823</v>
+        <v>989</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>824</v>
+        <v>990</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>825</v>
+        <v>991</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>131</v>
@@ -6141,7 +7736,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>826</v>
+        <v>992</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>133</v>
@@ -6149,204 +7744,204 @@
     </row>
     <row r="11" ht="14.25" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>813</v>
+        <v>979</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>827</v>
+        <v>993</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>828</v>
+        <v>994</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>829</v>
+        <v>995</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>830</v>
+        <v>996</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>831</v>
+        <v>997</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>832</v>
+        <v>998</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>833</v>
+        <v>999</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>834</v>
+        <v>1000</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>835</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>836</v>
+        <v>1002</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>837</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>813</v>
+        <v>979</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>838</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>839</v>
+        <v>1005</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>840</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>841</v>
+        <v>1007</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>842</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>832</v>
+        <v>998</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>843</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>834</v>
+        <v>1000</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>844</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>845</v>
+        <v>1011</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>846</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>832</v>
+        <v>998</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>847</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>848</v>
+        <v>1014</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>849</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>850</v>
+        <v>1016</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>851</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>852</v>
+        <v>1018</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>853</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>854</v>
+        <v>1020</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>855</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>856</v>
+        <v>1022</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>857</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>858</v>
+        <v>1024</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>859</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:1">
       <c r="A30" s="3" t="s">
-        <v>860</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>861</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
-        <v>862</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:1">
       <c r="A33" s="3" t="s">
-        <v>863</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>864</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
-        <v>813</v>
+        <v>979</v>
       </c>
     </row>
     <row r="36" ht="14.25" spans="1:1">
       <c r="A36" s="3" t="s">
-        <v>865</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="4" t="s">
-        <v>866</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>867</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>868</v>
+        <v>1034</v>
       </c>
     </row>
   </sheetData>
@@ -6358,13 +7953,30 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="J139" sqref="J139"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -6378,92 +7990,92 @@
   </cols>
   <sheetData>
     <row r="1" ht="48" customHeight="1" spans="1:4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="18" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="17" t="s">
+      <c r="B2" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="5" t="s">
+    </row>
+    <row r="3" ht="20" customHeight="1" spans="1:2">
+      <c r="A3" s="18"/>
+      <c r="B3" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1" spans="1:2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="5" t="s">
+    <row r="4" ht="20" customHeight="1" spans="1:2">
+      <c r="A4" s="18"/>
+      <c r="B4" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" ht="20" customHeight="1" spans="1:2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="5" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" t="s">
         <v>158</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" ht="21" customHeight="1" spans="1:4">
+      <c r="A6" s="18"/>
+      <c r="B6" s="5" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="6" ht="21" customHeight="1" spans="1:4">
-      <c r="A6" s="17"/>
-      <c r="B6" s="5" t="s">
+      <c r="D6" t="s">
         <v>160</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="5" t="s">
+    <row r="8" ht="19" customHeight="1" spans="1:2">
+      <c r="A8" s="18"/>
+      <c r="B8" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="8" ht="19" customHeight="1" spans="1:2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="5" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="5" t="s">
+    <row r="10" ht="19" customHeight="1" spans="1:2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="10" ht="19" customHeight="1" spans="1:2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="5" t="s">
+    <row r="11" ht="27" spans="1:4">
+      <c r="A11" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="11" ht="27" spans="1:4">
-      <c r="A11" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="D11" t="s">
         <v>166</v>
-      </c>
-      <c r="D11" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="12" ht="33" customHeight="1" spans="1:2">
@@ -6471,620 +8083,716 @@
         <v>84</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" ht="27" spans="1:3">
       <c r="A13" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="14" ht="43" customHeight="1" spans="1:2">
       <c r="A14" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="16" ht="29" customHeight="1" spans="1:2">
       <c r="A16" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="17" ht="202.5" spans="1:4">
       <c r="A17" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" t="s">
         <v>180</v>
-      </c>
-      <c r="D17" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="18" ht="36" customHeight="1" spans="1:2">
       <c r="A18" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="19" ht="67.5" spans="2:2">
       <c r="B19" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="18" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="17" t="s">
+      <c r="B20" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="5" t="s">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="5" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="18"/>
+      <c r="B22" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="5" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="18"/>
+      <c r="B23" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="5" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="18"/>
+      <c r="B24" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="5" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="5" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="5" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="5" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="27" ht="27" spans="1:2">
       <c r="A27" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="28" ht="27" spans="1:2">
       <c r="A28" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="29" ht="27" spans="1:2">
       <c r="A29" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B29" s="5" t="s">
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="53" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="46" t="s">
+      <c r="B31" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="B31" s="47" t="s">
+      <c r="C31" s="54"/>
+      <c r="D31" s="55"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="48"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="49" t="s">
+      <c r="B32" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="C32" s="57"/>
+      <c r="D32" s="58"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="56" t="s">
         <v>202</v>
       </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="51"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="49" t="s">
+      <c r="B33" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="C33" s="57"/>
+      <c r="D33" s="58"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="C33" s="50"/>
-      <c r="D33" s="51"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="49" t="s">
+      <c r="B34" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="C34" s="57"/>
+      <c r="D34" s="58"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="C34" s="50"/>
-      <c r="D34" s="51"/>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="52" t="s">
+      <c r="C35" t="s">
         <v>207</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="D35" s="50" t="s">
+      <c r="E35" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="E35" s="51" t="s">
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="59" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="52" t="s">
+      <c r="C36" t="s">
         <v>211</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="D36" s="50" t="s">
+      <c r="E36" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="E36" s="51" t="s">
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="59" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="52" t="s">
+      <c r="C37" t="s">
         <v>215</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" s="57">
+        <v>2</v>
+      </c>
+      <c r="E37" s="58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="D37" s="50">
-        <v>2</v>
-      </c>
-      <c r="E37" s="51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="52" t="s">
+      <c r="C38" t="s">
         <v>217</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" s="57" t="s">
         <v>218</v>
       </c>
-      <c r="D38" s="50" t="s">
+      <c r="E38" s="58"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="E38" s="51"/>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="52" t="s">
+      <c r="C39" t="s">
         <v>220</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="D39" s="50" t="s">
+      <c r="E39" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="E39" s="51" t="s">
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="59" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="52" t="s">
+      <c r="C40" t="s">
         <v>224</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" s="57">
+        <v>1500023100</v>
+      </c>
+      <c r="E40" s="58" t="s">
         <v>225</v>
       </c>
-      <c r="D40" s="50">
-        <v>1500023100</v>
-      </c>
-      <c r="E40" s="51" t="s">
+      <c r="G40" s="57"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="G40" s="50"/>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="52" t="s">
+      <c r="C41" t="s">
         <v>227</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="D41" s="50" t="s">
+      <c r="E41" s="58">
+        <v>1</v>
+      </c>
+      <c r="G41" s="57"/>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="60" t="s">
         <v>229</v>
       </c>
-      <c r="E41" s="51">
-        <v>1</v>
-      </c>
-      <c r="G41" s="50"/>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" s="53" t="s">
+      <c r="C42" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="D42" s="5"/>
+      <c r="E42" s="58"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="60" t="s">
         <v>231</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="51"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="53" t="s">
+      <c r="B43" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="D43" s="58"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="60" t="s">
         <v>234</v>
       </c>
-      <c r="D43" s="51"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="53" t="s">
+      <c r="B44" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="D44" s="58"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="60" t="s">
         <v>236</v>
       </c>
-      <c r="D44" s="51"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="53" t="s">
+      <c r="B45" s="61" t="s">
         <v>237</v>
       </c>
-      <c r="B45" s="54" t="s">
+      <c r="C45" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="D45" s="58"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="D45" s="51"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="55" t="s">
+      <c r="B46" s="63" t="s">
         <v>240</v>
       </c>
-      <c r="B46" s="56" t="s">
+      <c r="C46" s="63"/>
+      <c r="D46" s="64"/>
+    </row>
+    <row r="47" ht="27" spans="1:4">
+      <c r="A47" s="65" t="s">
         <v>241</v>
       </c>
-      <c r="C46" s="56"/>
-      <c r="D46" s="57"/>
-    </row>
-    <row r="47" ht="27" spans="1:4">
-      <c r="A47" s="58" t="s">
+      <c r="B47" s="66" t="s">
         <v>242</v>
       </c>
-      <c r="B47" s="59" t="s">
+      <c r="C47" s="66"/>
+      <c r="D47" s="55"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="60" t="s">
         <v>243</v>
       </c>
-      <c r="C47" s="59"/>
-      <c r="D47" s="48"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="53" t="s">
+      <c r="B48" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="D48" s="58" t="s">
         <v>246</v>
       </c>
-      <c r="D48" s="51" t="s">
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="62" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="55" t="s">
+      <c r="B49" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="B49" s="56" t="s">
+      <c r="C49" s="63" t="s">
+        <v>245</v>
+      </c>
+      <c r="D49" s="64" t="s">
         <v>249</v>
       </c>
-      <c r="C49" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="D49" s="57" t="s">
+    </row>
+    <row r="50" ht="40.5" spans="1:4">
+      <c r="A50" s="65" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="50" ht="40.5" spans="1:4">
-      <c r="A50" s="58" t="s">
+      <c r="B50" s="66" t="s">
         <v>251</v>
       </c>
-      <c r="B50" s="59" t="s">
+      <c r="C50" s="66"/>
+      <c r="D50" s="55"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="B51" s="63" t="s">
+        <v>248</v>
+      </c>
+      <c r="C51" s="63" t="s">
+        <v>245</v>
+      </c>
+      <c r="D51" s="64" t="s">
         <v>252</v>
       </c>
-      <c r="C50" s="59"/>
-      <c r="D50" s="48"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="55" t="s">
-        <v>244</v>
-      </c>
-      <c r="B51" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="C51" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="D51" s="57" t="s">
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="65" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="58" t="s">
+      <c r="B52" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="B52" s="59" t="s">
+      <c r="C52" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="C52" s="60" t="s">
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="60" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="53" t="s">
+      <c r="B53" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="C53" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="C53" s="61" t="s">
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="62"/>
+      <c r="B54" s="63" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="55"/>
-      <c r="B54" s="56" t="s">
+      <c r="C54" s="69" t="s">
         <v>260</v>
       </c>
-      <c r="C54" s="62" t="s">
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="70" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="63" t="s">
+      <c r="B55" s="70" t="s">
         <v>262</v>
       </c>
-      <c r="B55" s="63" t="s">
+      <c r="C55" s="70" t="s">
         <v>263</v>
       </c>
-      <c r="C55" s="63" t="s">
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="65" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="58" t="s">
+      <c r="B56" s="66" t="s">
         <v>265</v>
       </c>
-      <c r="B56" s="59" t="s">
+      <c r="C56" s="67" t="s">
         <v>266</v>
       </c>
-      <c r="C56" s="60" t="s">
+      <c r="D56" s="55" t="s">
         <v>267</v>
       </c>
-      <c r="D56" s="48" t="s">
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="62" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="55" t="s">
+      <c r="B57" s="63" t="s">
         <v>269</v>
       </c>
-      <c r="B57" s="56" t="s">
+      <c r="C57" s="69" t="s">
         <v>270</v>
       </c>
-      <c r="C57" s="62" t="s">
+      <c r="D57" s="64" t="s">
         <v>271</v>
       </c>
-      <c r="D57" s="57" t="s">
+    </row>
+    <row r="58" ht="27" spans="1:4">
+      <c r="A58" s="65" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="58" ht="27" spans="1:4">
-      <c r="A58" s="58" t="s">
+      <c r="B58" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="C58" s="66" t="s">
+        <v>266</v>
+      </c>
+      <c r="D58" s="55" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="59" ht="27" spans="1:4">
+      <c r="A59" s="60" t="s">
         <v>273</v>
       </c>
-      <c r="B58" s="59" t="s">
-        <v>266</v>
-      </c>
-      <c r="C58" s="59" t="s">
-        <v>267</v>
-      </c>
-      <c r="D58" s="48" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="59" ht="27" spans="1:4">
-      <c r="A59" s="53" t="s">
+      <c r="B59" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="C59" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="D59" s="58" t="s">
         <v>276</v>
       </c>
-      <c r="D59" s="51" t="s">
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="60"/>
+      <c r="B60" s="5" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="53"/>
-      <c r="B60" s="5" t="s">
+      <c r="C60" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="D60" s="58" t="s">
         <v>279</v>
       </c>
-      <c r="D60" s="51" t="s">
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="60"/>
+      <c r="B61" s="5" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="53"/>
-      <c r="B61" s="5" t="s">
+      <c r="C61" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="D61" s="58" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="62"/>
+      <c r="B62" s="63" t="s">
         <v>282</v>
       </c>
-      <c r="D61" s="51" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="55"/>
-      <c r="B62" s="56" t="s">
+      <c r="C62" s="63" t="s">
         <v>283</v>
       </c>
-      <c r="C62" s="56" t="s">
+      <c r="D62" s="64" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="65" t="s">
         <v>284</v>
       </c>
-      <c r="D62" s="57" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="58" t="s">
+      <c r="B63" s="66"/>
+      <c r="C63" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="B63" s="59"/>
-      <c r="C63" s="59" t="s">
+      <c r="D63" s="55" t="s">
         <v>286</v>
       </c>
-      <c r="D63" s="48" t="s">
+    </row>
+    <row r="64" ht="27" spans="1:4">
+      <c r="A64" s="60" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="64" ht="27" spans="1:4">
-      <c r="A64" s="53" t="s">
+      <c r="C64" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="D64" s="58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="60"/>
+      <c r="C65" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="D64" s="51" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="53"/>
-      <c r="C65" s="5" t="s">
+      <c r="D65" s="58" t="s">
         <v>290</v>
       </c>
-      <c r="D65" s="51" t="s">
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="60"/>
+      <c r="C66" s="5" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="53"/>
-      <c r="C66" s="5" t="s">
+      <c r="D66" s="58" t="s">
         <v>292</v>
       </c>
-      <c r="D66" s="51" t="s">
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="60"/>
+      <c r="C67" s="5" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="53"/>
-      <c r="C67" s="5" t="s">
+      <c r="D67" s="71">
+        <v>43290.6385069444</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="60"/>
+      <c r="C68" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="D67" s="64">
-        <v>43290.6385069444</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="53"/>
-      <c r="C68" s="5" t="s">
+      <c r="D68" s="58" t="s">
         <v>295</v>
       </c>
-      <c r="D68" s="51" t="s">
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="60"/>
+      <c r="C69" s="5" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="53"/>
-      <c r="C69" s="5" t="s">
+      <c r="D69" s="58" t="s">
         <v>297</v>
       </c>
-      <c r="D69" s="51" t="s">
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="62"/>
+      <c r="B70" s="63"/>
+      <c r="C70" s="63" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="55"/>
-      <c r="B70" s="56"/>
-      <c r="C70" s="56" t="s">
+      <c r="D70" s="64" t="s">
         <v>299</v>
-      </c>
-      <c r="D70" s="57" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="E72" s="72"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="53" t="s">
         <v>304</v>
       </c>
-      <c r="E72" s="65"/>
+      <c r="B73" s="54" t="s">
+        <v>305</v>
+      </c>
+      <c r="C73" s="55"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="59" t="s">
+        <v>306</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C74" s="58">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="59" t="s">
+        <v>308</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C75" s="58">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="59" t="s">
+        <v>310</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C76" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="73" t="s">
+        <v>240</v>
+      </c>
+      <c r="B77" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="C77" s="64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" ht="27" spans="1:3">
+      <c r="A78" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="80" ht="27" spans="2:3">
+      <c r="B80" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>321</v>
+      </c>
+      <c r="B82" t="s">
+        <v>322</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7100,17 +8808,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B92" sqref="B92"/>
+      <selection pane="bottomLeft" activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="52.25" customWidth="1"/>
+    <col min="1" max="1" width="63.125" customWidth="1"/>
     <col min="2" max="2" width="50.625" customWidth="1"/>
     <col min="3" max="3" width="33" style="5" customWidth="1"/>
     <col min="5" max="5" width="39.125" customWidth="1"/>
@@ -7119,888 +8827,1189 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:6">
       <c r="A2" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="B2" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="D2" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="F2" s="37">
+        <v>327</v>
+      </c>
+      <c r="F2" s="43">
         <v>43095</v>
       </c>
     </row>
     <row r="3" hidden="1" spans="1:4">
       <c r="A3" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="B3" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="D3" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="B4" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="D4" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" hidden="1" spans="1:3">
       <c r="A5" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" hidden="1" spans="1:5">
       <c r="A6" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="D6" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="E6" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" hidden="1" spans="1:4">
       <c r="A7" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="D7" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" ht="27" hidden="1" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" hidden="1" spans="1:3">
       <c r="A9" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" hidden="1" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="D10" t="s">
-        <v>322</v>
-      </c>
-      <c r="E10" s="37">
+        <v>340</v>
+      </c>
+      <c r="E10" s="43">
         <v>43118</v>
       </c>
     </row>
     <row r="11" hidden="1" spans="1:5">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="D11" t="s">
-        <v>329</v>
-      </c>
-      <c r="E11" s="37">
+        <v>347</v>
+      </c>
+      <c r="E11" s="43">
         <v>43118</v>
       </c>
     </row>
     <row r="12" hidden="1" spans="1:3">
       <c r="A12" t="s">
+        <v>348</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>312</v>
-      </c>
     </row>
     <row r="13" ht="71.25" hidden="1" spans="1:3">
-      <c r="A13" s="38">
+      <c r="A13" s="44">
         <v>43124</v>
       </c>
-      <c r="B13" s="39" t="s">
-        <v>331</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>312</v>
+      <c r="B13" s="45" t="s">
+        <v>349</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="14" ht="42.75" hidden="1" spans="1:3">
-      <c r="A14" s="38">
+      <c r="A14" s="44">
         <v>43125</v>
       </c>
-      <c r="B14" s="39" t="s">
-        <v>332</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>312</v>
+      <c r="B14" s="45" t="s">
+        <v>350</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="15" ht="14.25" hidden="1" spans="1:3">
-      <c r="A15" s="38">
+      <c r="A15" s="44">
         <v>43126</v>
       </c>
-      <c r="B15" s="41" t="s">
-        <v>333</v>
+      <c r="B15" s="47" t="s">
+        <v>351</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" ht="14.25" hidden="1" spans="1:3">
-      <c r="A16" s="38">
+      <c r="A16" s="44">
         <v>43129</v>
       </c>
-      <c r="B16" s="41" t="s">
-        <v>334</v>
+      <c r="B16" s="47" t="s">
+        <v>352</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" ht="14.25" hidden="1" spans="1:3">
-      <c r="A17" s="42">
+      <c r="A17" s="48">
         <v>43130</v>
       </c>
-      <c r="B17" s="41" t="s">
-        <v>335</v>
+      <c r="B17" s="47" t="s">
+        <v>353</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" ht="14.25" hidden="1" spans="1:3">
-      <c r="A18" s="42">
+      <c r="A18" s="48">
         <v>43131</v>
       </c>
-      <c r="B18" s="41" t="s">
-        <v>336</v>
+      <c r="B18" s="47" t="s">
+        <v>354</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" ht="14.25" hidden="1" spans="1:3">
-      <c r="A19" s="42">
+      <c r="A19" s="48">
         <v>43132</v>
       </c>
-      <c r="B19" s="40" t="s">
-        <v>337</v>
+      <c r="B19" s="46" t="s">
+        <v>355</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" ht="28.5" hidden="1" spans="1:3">
-      <c r="A20" s="42">
+      <c r="A20" s="48">
         <v>43133</v>
       </c>
-      <c r="B20" s="40" t="s">
-        <v>338</v>
+      <c r="B20" s="46" t="s">
+        <v>356</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" ht="14.25" hidden="1" spans="1:3">
-      <c r="A21" s="42">
+      <c r="A21" s="48">
         <v>43136</v>
       </c>
-      <c r="B21" s="41" t="s">
-        <v>339</v>
+      <c r="B21" s="47" t="s">
+        <v>357</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" ht="14.25" hidden="1" spans="1:4">
-      <c r="A22" s="41" t="s">
-        <v>340</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>341</v>
+      <c r="A22" s="47" t="s">
+        <v>358</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>359</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="D22" s="41"/>
+        <v>330</v>
+      </c>
+      <c r="D22" s="47"/>
     </row>
     <row r="23" ht="14.25" hidden="1" spans="1:4">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41" t="s">
-        <v>342</v>
+      <c r="A23" s="47"/>
+      <c r="B23" s="47" t="s">
+        <v>360</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>343</v>
+        <v>330</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="24" ht="14.25" hidden="1" spans="1:5">
-      <c r="A24" s="41" t="s">
-        <v>344</v>
-      </c>
-      <c r="B24" s="40" t="s">
-        <v>345</v>
+      <c r="A24" s="47" t="s">
+        <v>362</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>363</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="D24" s="40"/>
+        <v>330</v>
+      </c>
+      <c r="D24" s="46"/>
       <c r="E24" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
     </row>
     <row r="25" hidden="1" spans="2:5">
       <c r="B25" s="5"/>
       <c r="C25" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="E25" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
     </row>
     <row r="26" hidden="1" spans="1:4">
       <c r="A26" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="D26" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" hidden="1" spans="1:3">
       <c r="A27" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="B28" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" hidden="1" spans="1:3">
       <c r="A30" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" hidden="1" spans="1:3">
       <c r="A31" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32" hidden="1" spans="1:3">
       <c r="A32" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33" hidden="1" spans="1:3">
       <c r="A33" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" hidden="1" spans="1:3">
       <c r="A34" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="B34" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" hidden="1" spans="1:3">
       <c r="A35" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="B36" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
     </row>
     <row r="37" hidden="1" spans="1:3">
       <c r="A37" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38" hidden="1" spans="1:3">
       <c r="A38" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="39" hidden="1" spans="1:3">
       <c r="A39" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40" ht="40.5" hidden="1" spans="1:3">
       <c r="A40" s="5" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="41" ht="40" customHeight="1" spans="1:2">
       <c r="A41" s="5" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
     </row>
     <row r="42" hidden="1" spans="1:3">
       <c r="A42" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="43" hidden="1" spans="1:3">
       <c r="A43" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44" hidden="1" spans="1:4">
-      <c r="A44" s="43" t="s">
-        <v>373</v>
-      </c>
-      <c r="B44" s="43"/>
+      <c r="A44" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B44" s="4"/>
       <c r="C44" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="D44" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
     </row>
     <row r="45" hidden="1" spans="1:4">
-      <c r="A45" s="43" t="s">
-        <v>375</v>
-      </c>
-      <c r="B45" s="43" t="s">
-        <v>376</v>
+      <c r="A45" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>394</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="D45" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
     </row>
     <row r="46" hidden="1" spans="1:4">
-      <c r="A46" s="44" t="s">
-        <v>378</v>
-      </c>
-      <c r="B46" s="45"/>
+      <c r="A46" s="49" t="s">
+        <v>396</v>
+      </c>
+      <c r="B46" s="50"/>
       <c r="C46" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="D46" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
     </row>
     <row r="47" hidden="1" spans="1:4">
-      <c r="A47" s="43" t="s">
-        <v>380</v>
-      </c>
-      <c r="B47" s="43"/>
+      <c r="A47" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B47" s="4"/>
       <c r="C47" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="D47" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
     </row>
     <row r="49" hidden="1" spans="1:3">
       <c r="A49" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50" hidden="1" spans="1:3">
       <c r="A50" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="B50" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52" hidden="1" spans="1:3">
       <c r="A52" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="B52" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" hidden="1" spans="1:3">
       <c r="A53" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="54" hidden="1" spans="1:3">
       <c r="A54" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="55" hidden="1" spans="1:3">
       <c r="A55" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56" hidden="1" spans="1:3">
       <c r="A56" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="57" hidden="1" spans="1:3">
       <c r="A57" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="58" hidden="1" spans="1:3">
       <c r="A58" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="B58" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="59" hidden="1" spans="1:3">
       <c r="A59" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="B59" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="60" hidden="1" spans="1:3">
       <c r="A60" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="61" hidden="1" spans="1:3">
       <c r="A61" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="62" hidden="1" spans="1:3">
       <c r="A62" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="63" hidden="1" spans="1:3">
       <c r="A63" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64" hidden="1" spans="1:3">
       <c r="A64" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="65" hidden="1" spans="1:3">
       <c r="A65" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="B65" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
     </row>
     <row r="67" hidden="1" spans="1:3">
       <c r="A67" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="B67" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="68" hidden="1" spans="1:3">
       <c r="A68" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="69" hidden="1" spans="1:3">
       <c r="A69" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="B69" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="70" hidden="1" spans="1:3">
       <c r="A70" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="71" hidden="1" spans="1:3">
       <c r="A71" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="72" hidden="1" spans="1:3">
       <c r="A72" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="B72" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="73" hidden="1" spans="1:3">
       <c r="A73" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="B73" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B74" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
     </row>
     <row r="75" ht="27" hidden="1" spans="1:3">
       <c r="A75" s="5" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="76" ht="67.5" spans="1:1">
       <c r="A76" s="5" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
     </row>
     <row r="78" hidden="1" spans="1:3">
       <c r="A78" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="B78" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="79" hidden="1" spans="1:3">
       <c r="A79" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="B79" t="s">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="80" hidden="1" spans="1:3">
       <c r="A80" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="B80" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="81" hidden="1" spans="1:3">
       <c r="A81" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>427</v>
+        <v>445</v>
+      </c>
+      <c r="B82" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="83" hidden="1" spans="1:3">
       <c r="A83" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="84" ht="105" hidden="1" customHeight="1" spans="1:3">
       <c r="A84" s="5" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="85" hidden="1" spans="1:3">
       <c r="A85" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="86" hidden="1" spans="1:3">
       <c r="A86" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="87" hidden="1" spans="1:3">
       <c r="A87" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="88" hidden="1" spans="1:3">
       <c r="A88" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="89" ht="40.5" spans="1:3">
       <c r="A89" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>440</v>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>460</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>461</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>462</v>
+      </c>
+      <c r="B95" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>464</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>465</v>
+      </c>
+      <c r="B97" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>467</v>
+      </c>
+      <c r="B98" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>468</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>469</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>470</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>471</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="103" ht="40.5" spans="1:3">
+      <c r="A103" t="s">
+        <v>472</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C103"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>474</v>
+      </c>
+      <c r="B104" t="s">
+        <v>475</v>
+      </c>
+      <c r="C104"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>476</v>
+      </c>
+      <c r="C105"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>477</v>
+      </c>
+      <c r="B106" t="s">
+        <v>478</v>
+      </c>
+      <c r="C106"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>479</v>
+      </c>
+      <c r="C107"/>
+    </row>
+    <row r="108" ht="81" spans="1:4">
+      <c r="A108" t="s">
+        <v>480</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="109" ht="81" spans="1:2">
+      <c r="A109" t="s">
+        <v>484</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>488</v>
+      </c>
+      <c r="B112" t="s">
+        <v>489</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>490</v>
+      </c>
+      <c r="B113" t="s">
+        <v>491</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>492</v>
+      </c>
+      <c r="B114" t="s">
+        <v>493</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>494</v>
+      </c>
+      <c r="B115" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>496</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>497</v>
+      </c>
+      <c r="B117" t="s">
+        <v>498</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>499</v>
+      </c>
+      <c r="B118" t="s">
+        <v>435</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="119" ht="94.5" spans="1:2">
+      <c r="A119" t="s">
+        <v>500</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="120" ht="94.5" spans="1:1">
+      <c r="A120" s="5" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="121" ht="54" spans="1:1">
+      <c r="A121" s="5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="123" ht="27" spans="1:2">
+      <c r="A123" t="s">
+        <v>505</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="124" ht="40.5" spans="2:2">
+      <c r="B124" s="5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="125" ht="15.75" spans="1:1">
+      <c r="A125" s="51" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="126" ht="15.75" spans="1:1">
+      <c r="A126" s="52" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="127" ht="15.75" spans="1:1">
+      <c r="A127" s="52" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="128" ht="15.75" spans="1:1">
+      <c r="A128" s="52" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>515</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F92">
+  <autoFilter ref="A1:F124">
     <filterColumn colId="2">
       <filters blank="1"/>
     </filterColumn>
@@ -8024,10 +10033,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -8043,466 +10052,570 @@
   <sheetData>
     <row r="1" ht="27" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>441</v>
+        <v>516</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>442</v>
+        <v>517</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>443</v>
+        <v>518</v>
       </c>
       <c r="D1" t="s">
-        <v>444</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" ht="67.5" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>445</v>
+        <v>520</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>446</v>
+        <v>521</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>447</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="17" t="s">
-        <v>448</v>
+      <c r="A3" s="18" t="s">
+        <v>523</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>449</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="5" t="s">
-        <v>450</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="5" t="s">
-        <v>451</v>
+        <v>526</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="17"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="5" t="s">
-        <v>452</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="5" t="s">
-        <v>453</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="5" t="s">
-        <v>454</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="17"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="5" t="s">
-        <v>455</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="17"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="5" t="s">
-        <v>456</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11" ht="106.5" spans="1:3">
       <c r="A11" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>458</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>459</v>
+        <v>532</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>533</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="12" ht="121.5" spans="1:3">
       <c r="A12" s="5" t="s">
-        <v>460</v>
+        <v>535</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>462</v>
+        <v>536</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="13" ht="40.5" spans="1:3">
-      <c r="A13" s="22" t="s">
-        <v>463</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>464</v>
+      <c r="A13" s="26" t="s">
+        <v>538</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>539</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>465</v>
+        <v>540</v>
       </c>
     </row>
     <row r="14" ht="40.5" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>466</v>
+        <v>541</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>467</v>
+        <v>542</v>
       </c>
     </row>
     <row r="15" ht="40.5" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>468</v>
+        <v>543</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>469</v>
+        <v>544</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>470</v>
+        <v>545</v>
       </c>
       <c r="D15" t="s">
-        <v>471</v>
+        <v>546</v>
       </c>
     </row>
     <row r="16" ht="67.5" spans="1:3">
       <c r="A16" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>473</v>
+        <v>547</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>548</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>474</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17" ht="135" spans="1:7">
       <c r="A17" s="5" t="s">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>477</v>
+        <v>551</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>552</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>479</v>
+        <v>553</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>554</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>480</v>
+        <v>555</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>481</v>
+        <v>556</v>
       </c>
     </row>
     <row r="18" ht="40.5" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>482</v>
+        <v>557</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>483</v>
+        <v>558</v>
       </c>
     </row>
     <row r="19" ht="40.5" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>484</v>
+        <v>559</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>485</v>
+        <v>560</v>
       </c>
     </row>
     <row r="20" ht="24" spans="1:3">
-      <c r="A20" s="26" t="s">
-        <v>486</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>487</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>488</v>
+      <c r="A20" s="30" t="s">
+        <v>561</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>562</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="21" ht="38.25" spans="1:3">
       <c r="A21" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>490</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>491</v>
+        <v>564</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>565</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="22" ht="79.5" spans="1:4">
       <c r="A22" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>493</v>
+        <v>567</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>568</v>
       </c>
       <c r="D22" t="s">
-        <v>494</v>
+        <v>569</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>496</v>
+        <v>570</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="24" ht="108" spans="1:5">
       <c r="A24" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>498</v>
+        <v>572</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>573</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>499</v>
+        <v>574</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>500</v>
+        <v>575</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>501</v>
+        <v>576</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:5">
       <c r="A25" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>503</v>
+        <v>577</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>578</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>504</v>
+        <v>579</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>505</v>
+        <v>580</v>
       </c>
       <c r="E25" t="s">
-        <v>506</v>
+        <v>581</v>
       </c>
     </row>
     <row r="26" ht="68.25" spans="1:2">
       <c r="A26" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>508</v>
+        <v>582</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="27" ht="94.5" spans="1:2">
       <c r="A27" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>510</v>
+        <v>584</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>512</v>
+        <v>586</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="29" ht="40.5" spans="1:2">
       <c r="A29" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>514</v>
+        <v>588</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="30" ht="27" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>516</v>
+        <v>590</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="31" ht="27" spans="1:2">
       <c r="A31" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>518</v>
+        <v>592</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="32" ht="27" spans="1:2">
       <c r="A32" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>520</v>
+        <v>594</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="33" ht="81" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>522</v>
+        <v>596</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="B34" s="34"/>
+        <v>598</v>
+      </c>
+      <c r="B34" s="38"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="B35" s="34"/>
+        <v>599</v>
+      </c>
+      <c r="B35" s="38"/>
     </row>
     <row r="36" ht="40.5" spans="1:3">
       <c r="A36" s="5" t="s">
-        <v>525</v>
+        <v>600</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>526</v>
+        <v>601</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>527</v>
+        <v>602</v>
       </c>
     </row>
     <row r="37" ht="94.5" spans="1:3">
       <c r="A37" s="5" t="s">
-        <v>528</v>
+        <v>603</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>529</v>
+        <v>604</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>530</v>
+        <v>605</v>
       </c>
     </row>
     <row r="38" ht="27" spans="1:2">
       <c r="A38" s="5" t="s">
-        <v>531</v>
+        <v>606</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>532</v>
+        <v>607</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>534</v>
+        <v>608</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="35" t="s">
-        <v>535</v>
-      </c>
-      <c r="B40" s="28" t="s">
-        <v>536</v>
+      <c r="A40" s="39" t="s">
+        <v>610</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="35" t="s">
-        <v>537</v>
+      <c r="A41" s="39" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="5" t="s">
-        <v>538</v>
+        <v>613</v>
       </c>
     </row>
     <row r="43" ht="27" spans="1:2">
       <c r="A43" s="5" t="s">
-        <v>539</v>
+        <v>614</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>540</v>
+        <v>615</v>
       </c>
     </row>
     <row r="44" ht="17.25" spans="1:2">
       <c r="A44" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="B44" s="36" t="s">
-        <v>542</v>
+        <v>616</v>
+      </c>
+      <c r="B44" s="40" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="45" ht="67.5" spans="1:2">
       <c r="A45" s="5" t="s">
-        <v>543</v>
+        <v>618</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>544</v>
+        <v>619</v>
       </c>
     </row>
     <row r="46" ht="27" spans="1:2">
       <c r="A46" s="5" t="s">
-        <v>545</v>
+        <v>620</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>546</v>
+        <v>621</v>
       </c>
     </row>
     <row r="47" ht="27" spans="1:2">
       <c r="A47" s="5" t="s">
-        <v>547</v>
+        <v>622</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>548</v>
+        <v>623</v>
       </c>
     </row>
     <row r="48" ht="67.5" spans="1:2">
       <c r="A48" s="5" t="s">
-        <v>549</v>
+        <v>624</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>550</v>
+        <v>625</v>
       </c>
     </row>
     <row r="49" ht="27" spans="2:2">
       <c r="B49" s="5" t="s">
-        <v>551</v>
+        <v>626</v>
       </c>
     </row>
     <row r="50" ht="108" spans="1:3">
       <c r="A50" s="5" t="s">
-        <v>552</v>
+        <v>627</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>553</v>
+        <v>628</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>554</v>
+        <v>629</v>
       </c>
     </row>
     <row r="51" ht="27" spans="2:2">
       <c r="B51" s="5" t="s">
-        <v>555</v>
+        <v>630</v>
       </c>
     </row>
     <row r="52" ht="27" spans="1:2">
       <c r="A52" s="5" t="s">
-        <v>556</v>
+        <v>631</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>557</v>
+        <v>632</v>
+      </c>
+    </row>
+    <row r="53" ht="94.5" spans="1:4">
+      <c r="A53" s="41" t="s">
+        <v>633</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="5" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="5" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="59" ht="15" spans="1:1">
+      <c r="A59" s="42" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>644</v>
+      </c>
+      <c r="B60"/>
+    </row>
+    <row r="61" ht="54" spans="1:2">
+      <c r="A61" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="62" ht="27" spans="1:2">
+      <c r="A62" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="63" ht="27" spans="1:1">
+      <c r="A63" s="5" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="64" ht="27" spans="1:1">
+      <c r="A64" s="5" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="66" ht="27" spans="1:1">
+      <c r="A66" s="5" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="68" ht="27" spans="1:1">
+      <c r="A68" s="5" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="5" t="s">
+        <v>655</v>
       </c>
     </row>
   </sheetData>
@@ -8520,7 +10633,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
@@ -8532,48 +10645,48 @@
   <sheetData>
     <row r="1" ht="27" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>558</v>
+        <v>656</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>559</v>
+        <v>657</v>
       </c>
     </row>
     <row r="2" ht="40.5" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>560</v>
+        <v>658</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>561</v>
+        <v>659</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>562</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3" ht="54" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>563</v>
+        <v>661</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>564</v>
+        <v>662</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>562</v>
+        <v>660</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>565</v>
+        <v>663</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>562</v>
+        <v>660</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>566</v>
+        <v>664</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>562</v>
+        <v>660</v>
       </c>
     </row>
   </sheetData>
@@ -8585,10 +10698,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119"/>
+    <sheetView topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -8600,14 +10713,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="1:4">
-      <c r="A1" s="14">
+      <c r="A1" s="15">
         <v>43171</v>
       </c>
       <c r="B1" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>567</v>
+        <v>665</v>
       </c>
     </row>
     <row r="2" spans="2:4">
@@ -8615,1219 +10728,1579 @@
         <v>33</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>568</v>
+        <v>666</v>
       </c>
       <c r="D2" s="5"/>
     </row>
     <row r="3" ht="27" spans="2:4">
       <c r="B3" t="s">
-        <v>569</v>
+        <v>667</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>570</v>
+        <v>668</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>571</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:4">
-      <c r="A4" s="14">
+      <c r="A4" s="15">
         <v>43172</v>
       </c>
       <c r="B4" t="s">
-        <v>572</v>
+        <v>670</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>573</v>
+        <v>671</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>574</v>
+        <v>672</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="14">
+      <c r="A5" s="15">
         <v>43173</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>575</v>
+        <v>673</v>
       </c>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="14">
+      <c r="A6" s="15">
         <v>43174</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>576</v>
+        <v>674</v>
       </c>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="14">
+      <c r="A7" s="15">
         <v>43175</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>577</v>
+        <v>675</v>
       </c>
       <c r="D7" s="5"/>
     </row>
     <row r="8" ht="27" spans="1:4">
-      <c r="A8" s="14">
+      <c r="A8" s="15">
         <v>43176</v>
       </c>
       <c r="B8" t="s">
-        <v>578</v>
+        <v>676</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>579</v>
+        <v>677</v>
       </c>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="14">
+      <c r="A9" s="15">
         <v>43179</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>580</v>
+        <v>678</v>
       </c>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="14">
+      <c r="A10" s="15">
         <v>43182</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>581</v>
+        <v>679</v>
       </c>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="14">
+      <c r="A11" s="15">
         <v>43185</v>
       </c>
       <c r="B11" t="s">
-        <v>582</v>
+        <v>680</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>583</v>
+        <v>681</v>
       </c>
     </row>
     <row r="12" ht="27" spans="1:4">
-      <c r="A12" s="14">
+      <c r="A12" s="15">
         <v>43187</v>
       </c>
       <c r="B12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>584</v>
+        <v>682</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>585</v>
+        <v>683</v>
       </c>
     </row>
     <row r="13" ht="27" spans="1:4">
-      <c r="A13" s="14">
+      <c r="A13" s="15">
         <v>43187</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>185</v>
+      <c r="B13" s="16" t="s">
+        <v>184</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>586</v>
+        <v>684</v>
       </c>
       <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="14">
+      <c r="A14" s="15">
         <v>43192</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>185</v>
+      <c r="B14" s="16" t="s">
+        <v>184</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>587</v>
+        <v>685</v>
       </c>
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="14">
+      <c r="A15" s="15">
         <v>43193</v>
       </c>
       <c r="B15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>588</v>
+        <v>686</v>
       </c>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="14">
+      <c r="A16" s="15">
         <v>43194</v>
       </c>
       <c r="B16" t="s">
-        <v>589</v>
+        <v>687</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>590</v>
+        <v>688</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>591</v>
+        <v>689</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:4">
-      <c r="A17" s="14">
+      <c r="A17" s="15">
         <v>43194</v>
       </c>
       <c r="B17" t="s">
-        <v>589</v>
+        <v>687</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>592</v>
+        <v>690</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>593</v>
+        <v>691</v>
       </c>
     </row>
     <row r="18" ht="27" spans="1:4">
-      <c r="A18" s="14">
+      <c r="A18" s="15">
         <v>43194</v>
       </c>
       <c r="B18" t="s">
-        <v>594</v>
+        <v>692</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>595</v>
+        <v>693</v>
       </c>
       <c r="D18" s="5"/>
     </row>
     <row r="19" ht="27" spans="1:4">
-      <c r="A19" s="14">
+      <c r="A19" s="15">
         <v>43198</v>
       </c>
       <c r="B19" t="s">
-        <v>596</v>
+        <v>694</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>597</v>
+        <v>695</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>598</v>
+        <v>696</v>
       </c>
     </row>
     <row r="20" ht="27" spans="1:4">
-      <c r="A20" s="14">
+      <c r="A20" s="15">
         <v>43199</v>
       </c>
       <c r="B20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>599</v>
+        <v>697</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>600</v>
+        <v>698</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="14">
+      <c r="A21" s="15">
         <v>43201</v>
       </c>
       <c r="B21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>601</v>
+        <v>699</v>
       </c>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="14">
+      <c r="A22" s="15">
         <v>43201</v>
       </c>
       <c r="B22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>602</v>
+        <v>700</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>603</v>
+        <v>701</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="14">
+      <c r="A23" s="15">
         <v>43202</v>
       </c>
       <c r="B23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>604</v>
+        <v>702</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>605</v>
+        <v>703</v>
       </c>
     </row>
     <row r="24" ht="54" spans="1:4">
-      <c r="A24" s="14">
+      <c r="A24" s="15">
         <v>43202</v>
       </c>
       <c r="B24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>606</v>
+        <v>704</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>607</v>
+        <v>705</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:4">
-      <c r="A25" s="14">
+      <c r="A25" s="15">
         <v>43202</v>
       </c>
       <c r="B25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>608</v>
+        <v>706</v>
       </c>
       <c r="D25" s="5"/>
     </row>
     <row r="26" ht="27" spans="1:4">
-      <c r="A26" s="14">
+      <c r="A26" s="15">
         <v>43207</v>
       </c>
       <c r="B26" t="s">
-        <v>609</v>
+        <v>707</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>610</v>
+        <v>708</v>
       </c>
       <c r="D26" s="5"/>
     </row>
     <row r="27" ht="40.5" spans="1:4">
-      <c r="A27" s="14">
+      <c r="A27" s="15">
         <v>43208</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>611</v>
+        <v>709</v>
       </c>
       <c r="D27" s="5"/>
     </row>
     <row r="28" ht="67.5" spans="1:5">
-      <c r="A28" s="14">
+      <c r="A28" s="15">
         <v>43209</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>612</v>
+        <v>710</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>613</v>
+        <v>711</v>
       </c>
       <c r="E28" t="s">
-        <v>614</v>
+        <v>712</v>
       </c>
     </row>
     <row r="29" ht="94.5" spans="1:4">
-      <c r="A29" s="14">
+      <c r="A29" s="15">
         <v>43210</v>
       </c>
       <c r="B29" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>615</v>
+        <v>713</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>616</v>
+        <v>714</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="14">
+      <c r="A30" s="15">
         <v>43214</v>
       </c>
       <c r="B30" t="s">
-        <v>617</v>
+        <v>715</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>618</v>
+        <v>716</v>
       </c>
       <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="14">
+      <c r="A31" s="15">
         <v>43214</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>619</v>
+        <v>717</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>620</v>
+        <v>718</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="14">
+      <c r="A32" s="15">
         <v>43215</v>
       </c>
       <c r="B32" t="s">
-        <v>609</v>
+        <v>707</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>621</v>
+        <v>719</v>
       </c>
       <c r="D32" s="5"/>
     </row>
     <row r="33" ht="27" spans="1:4">
-      <c r="A33" s="14">
+      <c r="A33" s="15">
         <v>43216</v>
       </c>
       <c r="B33" t="s">
-        <v>622</v>
+        <v>720</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>623</v>
+        <v>721</v>
       </c>
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="14">
+      <c r="A34" s="15">
         <v>43217</v>
       </c>
       <c r="B34" t="s">
-        <v>622</v>
+        <v>720</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>624</v>
+        <v>722</v>
       </c>
       <c r="D34" s="5"/>
     </row>
     <row r="35" ht="40.5" spans="1:4">
-      <c r="A35" s="14" t="s">
-        <v>625</v>
+      <c r="A35" s="15" t="s">
+        <v>723</v>
       </c>
       <c r="B35" t="s">
-        <v>626</v>
+        <v>724</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>627</v>
+        <v>725</v>
       </c>
       <c r="D35" s="5"/>
     </row>
     <row r="36" ht="67.5" spans="1:4">
-      <c r="A36" s="14">
+      <c r="A36" s="15">
         <v>43228</v>
       </c>
       <c r="B36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>628</v>
+        <v>726</v>
       </c>
       <c r="D36" s="5"/>
     </row>
     <row r="37" ht="27" spans="1:4">
-      <c r="A37" s="14">
+      <c r="A37" s="15">
         <v>43228</v>
       </c>
       <c r="B37" t="s">
         <v>2</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>629</v>
+        <v>727</v>
       </c>
       <c r="D37" s="5"/>
     </row>
     <row r="38" ht="40.5" spans="1:4">
-      <c r="A38" s="14">
+      <c r="A38" s="15">
         <v>43229</v>
       </c>
       <c r="B38" t="s">
-        <v>630</v>
+        <v>728</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>631</v>
+        <v>729</v>
       </c>
       <c r="D38" s="5"/>
     </row>
     <row r="39" ht="54" spans="1:4">
-      <c r="A39" s="14">
+      <c r="A39" s="15">
         <v>43230</v>
       </c>
       <c r="B39" t="s">
-        <v>632</v>
+        <v>730</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>633</v>
+        <v>731</v>
       </c>
       <c r="D39" s="5"/>
     </row>
     <row r="40" ht="27" spans="1:4">
-      <c r="A40" s="14">
+      <c r="A40" s="15">
         <v>43230</v>
       </c>
       <c r="B40" t="s">
-        <v>634</v>
+        <v>732</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>635</v>
+        <v>733</v>
       </c>
       <c r="D40" s="5"/>
     </row>
     <row r="41" ht="40.5" spans="1:4">
-      <c r="A41" s="14">
+      <c r="A41" s="15">
         <v>43234</v>
       </c>
       <c r="B41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>636</v>
+        <v>734</v>
       </c>
       <c r="D41" s="5"/>
     </row>
     <row r="42" ht="27" spans="1:4">
-      <c r="A42" s="16">
+      <c r="A42" s="17">
         <v>43235</v>
       </c>
       <c r="B42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>637</v>
+        <v>735</v>
       </c>
       <c r="D42" s="5"/>
     </row>
     <row r="43" ht="40.5" spans="1:5">
-      <c r="A43" s="16">
+      <c r="A43" s="17">
         <v>43236</v>
       </c>
       <c r="B43" t="s">
-        <v>638</v>
+        <v>736</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>639</v>
+        <v>737</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>640</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>641</v>
+        <v>738</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="16">
+      <c r="A44" s="17">
         <v>43237</v>
       </c>
       <c r="B44" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>642</v>
+        <v>740</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
     </row>
     <row r="45" ht="40.5" spans="1:5">
-      <c r="A45" s="16">
+      <c r="A45" s="17">
         <v>43241</v>
       </c>
       <c r="B45" t="s">
         <v>47</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>643</v>
+        <v>741</v>
       </c>
       <c r="E45" s="6"/>
     </row>
     <row r="46" ht="108" spans="1:3">
-      <c r="A46" s="14">
+      <c r="A46" s="15">
         <v>43242</v>
       </c>
       <c r="B46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>644</v>
+        <v>742</v>
       </c>
     </row>
     <row r="47" ht="61" customHeight="1" spans="1:3">
-      <c r="A47" s="14">
+      <c r="A47" s="15">
         <v>43243</v>
       </c>
       <c r="B47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>645</v>
+        <v>743</v>
       </c>
     </row>
     <row r="48" ht="81" spans="1:4">
-      <c r="A48" s="18">
+      <c r="A48" s="19">
         <v>43244</v>
       </c>
       <c r="B48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>646</v>
+        <v>744</v>
       </c>
       <c r="D48" t="s">
-        <v>647</v>
+        <v>745</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="18"/>
+      <c r="A49" s="19"/>
       <c r="B49" t="s">
-        <v>648</v>
+        <v>746</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>649</v>
+        <v>747</v>
       </c>
     </row>
     <row r="50" ht="27" spans="1:3">
-      <c r="A50" s="19" t="s">
-        <v>650</v>
+      <c r="A50" s="20" t="s">
+        <v>748</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>651</v>
+        <v>749</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="19"/>
+      <c r="A51" s="20"/>
       <c r="C51" s="5" t="s">
-        <v>652</v>
+        <v>750</v>
       </c>
     </row>
     <row r="52" ht="27" spans="1:4">
-      <c r="A52" s="19"/>
+      <c r="A52" s="20"/>
       <c r="C52" s="5" t="s">
-        <v>653</v>
+        <v>751</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>654</v>
+        <v>752</v>
       </c>
     </row>
     <row r="53" ht="54" spans="1:4">
-      <c r="A53" s="19"/>
+      <c r="A53" s="20"/>
       <c r="C53" s="5" t="s">
-        <v>655</v>
+        <v>753</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>656</v>
+        <v>754</v>
       </c>
     </row>
     <row r="54" ht="40.5" spans="1:3">
-      <c r="A54" s="19"/>
+      <c r="A54" s="20"/>
       <c r="C54" s="5" t="s">
-        <v>657</v>
+        <v>755</v>
       </c>
     </row>
     <row r="55" ht="27" spans="1:3">
-      <c r="A55" s="19"/>
+      <c r="A55" s="20"/>
       <c r="C55" s="5" t="s">
-        <v>658</v>
+        <v>756</v>
       </c>
     </row>
     <row r="56" ht="27" spans="1:3">
-      <c r="A56" s="19"/>
+      <c r="A56" s="20"/>
       <c r="C56" s="5" t="s">
-        <v>659</v>
+        <v>757</v>
       </c>
     </row>
     <row r="57" ht="27" spans="1:3">
-      <c r="A57" s="14">
+      <c r="A57" s="15">
         <v>43251</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>660</v>
+        <v>758</v>
       </c>
     </row>
     <row r="58" ht="40.5" spans="1:3">
-      <c r="A58" s="14">
+      <c r="A58" s="15">
         <v>43252</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>661</v>
+        <v>759</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="14">
+      <c r="A59" s="15">
         <v>43255</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>662</v>
+        <v>760</v>
       </c>
     </row>
     <row r="60" ht="54" spans="1:3">
-      <c r="A60" s="14">
+      <c r="A60" s="15">
         <v>43256</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>663</v>
+        <v>761</v>
       </c>
     </row>
     <row r="61" ht="27" spans="1:3">
-      <c r="A61" s="14">
+      <c r="A61" s="15">
         <v>43256</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>664</v>
+        <v>762</v>
       </c>
     </row>
     <row r="62" ht="81" spans="1:3">
-      <c r="A62" s="14">
+      <c r="A62" s="15">
         <v>43257</v>
       </c>
       <c r="B62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>665</v>
+        <v>763</v>
       </c>
     </row>
     <row r="63" ht="40.5" spans="1:4">
-      <c r="A63" s="14">
+      <c r="A63" s="15">
         <v>43257</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>666</v>
+        <v>764</v>
       </c>
       <c r="D63" t="s">
-        <v>667</v>
+        <v>765</v>
       </c>
     </row>
     <row r="64" ht="27" spans="1:4">
-      <c r="A64" s="14">
+      <c r="A64" s="15">
         <v>43258</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>668</v>
+        <v>766</v>
       </c>
       <c r="D64" t="s">
-        <v>669</v>
+        <v>767</v>
       </c>
     </row>
     <row r="65" ht="40.5" spans="3:3">
       <c r="C65" s="5" t="s">
-        <v>670</v>
+        <v>768</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" s="5" t="s">
-        <v>671</v>
+        <v>769</v>
       </c>
     </row>
     <row r="67" ht="67.5" spans="3:3">
       <c r="C67" s="5" t="s">
-        <v>672</v>
+        <v>770</v>
       </c>
     </row>
     <row r="68" ht="67.5" spans="3:3">
       <c r="C68" s="5" t="s">
-        <v>673</v>
+        <v>771</v>
       </c>
     </row>
     <row r="69" ht="27" spans="3:3">
       <c r="C69" s="5" t="s">
-        <v>674</v>
+        <v>772</v>
       </c>
     </row>
     <row r="70" ht="40.5" spans="1:3">
-      <c r="A70" s="14">
+      <c r="A70" s="15">
         <v>43270</v>
       </c>
       <c r="B70" t="s">
-        <v>675</v>
+        <v>773</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>676</v>
+        <v>774</v>
       </c>
     </row>
     <row r="71" ht="27" spans="1:3">
-      <c r="A71" s="14" t="s">
-        <v>677</v>
+      <c r="A71" s="15" t="s">
+        <v>775</v>
       </c>
       <c r="B71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>678</v>
+        <v>776</v>
       </c>
     </row>
     <row r="72" ht="27" spans="1:3">
-      <c r="A72" s="14">
+      <c r="A72" s="15">
         <v>43271</v>
       </c>
       <c r="B72" t="s">
-        <v>679</v>
+        <v>777</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
     </row>
     <row r="73" ht="98" customHeight="1" spans="1:4">
       <c r="A73" t="s">
-        <v>680</v>
+        <v>778</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>681</v>
+        <v>779</v>
       </c>
       <c r="D73" s="5"/>
     </row>
     <row r="74" ht="27" spans="1:3">
-      <c r="A74" s="14">
+      <c r="A74" s="15">
         <v>43271</v>
       </c>
       <c r="B74" t="s">
-        <v>682</v>
+        <v>780</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>683</v>
+        <v>781</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="14">
+      <c r="A75" s="15">
         <v>43272</v>
       </c>
       <c r="B75" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>684</v>
+        <v>782</v>
       </c>
     </row>
     <row r="76" ht="121.5" spans="1:3">
-      <c r="A76" s="14">
+      <c r="A76" s="15">
         <v>43272</v>
       </c>
       <c r="B76" t="s">
-        <v>682</v>
+        <v>780</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>685</v>
+        <v>783</v>
       </c>
     </row>
     <row r="77" ht="27" spans="1:3">
-      <c r="A77" s="14">
+      <c r="A77" s="15">
         <v>43272</v>
       </c>
       <c r="B77" t="s">
-        <v>686</v>
+        <v>784</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>687</v>
+        <v>785</v>
       </c>
     </row>
     <row r="78" ht="40.5" spans="1:4">
-      <c r="A78" s="14">
+      <c r="A78" s="15">
         <v>43276</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>688</v>
+        <v>786</v>
       </c>
       <c r="D78" t="s">
-        <v>689</v>
+        <v>787</v>
       </c>
     </row>
     <row r="79" ht="40.5" spans="1:3">
-      <c r="A79" s="14">
+      <c r="A79" s="15">
         <v>43276</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>690</v>
+        <v>788</v>
       </c>
     </row>
     <row r="80" ht="40.5" spans="1:3">
-      <c r="A80" s="14">
+      <c r="A80" s="15">
         <v>43277</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>691</v>
+        <v>789</v>
       </c>
     </row>
     <row r="81" ht="27" spans="1:3">
-      <c r="A81" s="14">
+      <c r="A81" s="15">
         <v>43278</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>692</v>
+        <v>790</v>
       </c>
     </row>
     <row r="82" ht="54" spans="1:3">
-      <c r="A82" s="14">
+      <c r="A82" s="15">
         <v>43283</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>693</v>
+        <v>791</v>
       </c>
     </row>
     <row r="83" ht="107" customHeight="1" spans="1:3">
-      <c r="A83" s="14" t="s">
-        <v>680</v>
+      <c r="A83" s="15" t="s">
+        <v>778</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>694</v>
+        <v>792</v>
       </c>
     </row>
     <row r="84" ht="40.5" spans="1:3">
-      <c r="A84" s="14">
+      <c r="A84" s="15">
         <v>43284</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>695</v>
+        <v>793</v>
       </c>
     </row>
     <row r="85" ht="67.5" spans="1:3">
-      <c r="A85" s="14">
+      <c r="A85" s="15">
         <v>43285</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>696</v>
+        <v>794</v>
       </c>
     </row>
     <row r="86" ht="54" spans="1:3">
-      <c r="A86" s="14">
+      <c r="A86" s="15">
         <v>43286</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>697</v>
+        <v>795</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="14">
+      <c r="A87" s="15">
         <v>43290</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>698</v>
+        <v>796</v>
       </c>
     </row>
     <row r="88" ht="27" spans="1:3">
-      <c r="A88" s="14">
+      <c r="A88" s="15">
         <v>43290</v>
       </c>
       <c r="B88" t="s">
-        <v>699</v>
+        <v>797</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>700</v>
+        <v>798</v>
       </c>
     </row>
     <row r="89" ht="27" spans="1:3">
-      <c r="A89" s="14">
+      <c r="A89" s="15">
         <v>43291</v>
       </c>
       <c r="B89" t="s">
-        <v>699</v>
+        <v>797</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>701</v>
+        <v>799</v>
       </c>
     </row>
     <row r="90" ht="27" spans="1:3">
-      <c r="A90" s="14">
+      <c r="A90" s="15">
         <v>43291</v>
       </c>
       <c r="B90" t="s">
-        <v>702</v>
+        <v>800</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>703</v>
+        <v>801</v>
       </c>
     </row>
     <row r="91" ht="40.5" spans="1:3">
-      <c r="A91" s="14">
+      <c r="A91" s="15">
         <v>43292</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>704</v>
+        <v>802</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="14">
+      <c r="A92" s="15">
         <v>43293</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>705</v>
+        <v>803</v>
       </c>
     </row>
     <row r="93" ht="54" spans="1:3">
-      <c r="A93" s="14">
+      <c r="A93" s="15">
         <v>43294</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>706</v>
+        <v>804</v>
       </c>
     </row>
     <row r="94" ht="40.5" spans="1:3">
-      <c r="A94" s="14">
+      <c r="A94" s="15">
         <v>43297</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>707</v>
+        <v>805</v>
       </c>
     </row>
     <row r="95" ht="189" spans="1:3">
       <c r="A95" t="s">
-        <v>680</v>
+        <v>778</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>708</v>
+        <v>806</v>
       </c>
     </row>
     <row r="96" ht="54" spans="1:3">
-      <c r="A96" s="14">
+      <c r="A96" s="15">
         <v>43298</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>709</v>
+        <v>807</v>
       </c>
     </row>
     <row r="97" ht="94.5" spans="1:3">
-      <c r="A97" s="14">
+      <c r="A97" s="15">
         <v>43299</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>710</v>
+        <v>808</v>
       </c>
     </row>
     <row r="98" ht="40.5" spans="1:3">
-      <c r="A98" s="14">
+      <c r="A98" s="15">
         <v>43300</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>711</v>
+        <v>809</v>
       </c>
     </row>
     <row r="99" ht="54" spans="1:3">
-      <c r="A99" s="14">
+      <c r="A99" s="15">
         <v>43301</v>
       </c>
       <c r="B99" t="s">
-        <v>702</v>
+        <v>800</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>712</v>
+        <v>810</v>
       </c>
     </row>
     <row r="100" ht="54" spans="1:3">
-      <c r="A100" s="14">
+      <c r="A100" s="15">
         <v>43304</v>
       </c>
       <c r="B100" t="s">
-        <v>713</v>
+        <v>811</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>714</v>
+        <v>812</v>
       </c>
     </row>
     <row r="101" ht="40.5" spans="1:3">
-      <c r="A101" s="14">
+      <c r="A101" s="15">
         <v>43304</v>
       </c>
       <c r="B101" t="s">
-        <v>699</v>
+        <v>797</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>715</v>
+        <v>813</v>
       </c>
     </row>
     <row r="102" ht="40.5" spans="1:3">
-      <c r="A102" s="14">
+      <c r="A102" s="15">
         <v>43305</v>
       </c>
       <c r="B102" t="s">
-        <v>716</v>
+        <v>814</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>717</v>
+        <v>815</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="14">
+      <c r="A103" s="15">
         <v>43305</v>
       </c>
       <c r="B103" t="s">
-        <v>718</v>
+        <v>816</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>719</v>
+        <v>817</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="14">
+      <c r="A104" s="15">
         <v>43305</v>
       </c>
       <c r="B104" t="s">
-        <v>702</v>
+        <v>800</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>720</v>
+        <v>818</v>
       </c>
     </row>
     <row r="105" ht="40.5" spans="1:3">
-      <c r="A105" s="14">
+      <c r="A105" s="15">
         <v>43306</v>
       </c>
       <c r="B105" t="s">
-        <v>718</v>
+        <v>816</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>721</v>
+        <v>819</v>
       </c>
     </row>
     <row r="106" ht="54" spans="1:3">
-      <c r="A106" s="14">
+      <c r="A106" s="15">
         <v>43306</v>
       </c>
       <c r="B106" t="s">
-        <v>702</v>
+        <v>800</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>722</v>
+        <v>820</v>
       </c>
     </row>
     <row r="107" ht="27" spans="1:4">
-      <c r="A107" s="14">
+      <c r="A107" s="15">
         <v>43306</v>
       </c>
       <c r="B107" t="s">
-        <v>716</v>
+        <v>814</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>723</v>
+        <v>821</v>
       </c>
       <c r="D107" t="s">
-        <v>724</v>
+        <v>822</v>
       </c>
     </row>
     <row r="108" ht="27" spans="1:3">
-      <c r="A108" s="14">
+      <c r="A108" s="15">
         <v>43306</v>
       </c>
       <c r="B108" t="s">
-        <v>725</v>
+        <v>823</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>726</v>
+        <v>824</v>
       </c>
     </row>
     <row r="109" ht="54" spans="1:3">
-      <c r="A109" s="14">
+      <c r="A109" s="15">
         <v>43307</v>
       </c>
       <c r="B109" t="s">
-        <v>702</v>
+        <v>800</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>727</v>
+        <v>825</v>
       </c>
     </row>
     <row r="110" ht="27" spans="1:3">
-      <c r="A110" s="14">
+      <c r="A110" s="15">
         <v>43307</v>
       </c>
       <c r="B110" t="s">
-        <v>728</v>
+        <v>826</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>729</v>
+        <v>827</v>
       </c>
     </row>
     <row r="111" ht="27" spans="1:3">
-      <c r="A111" s="14">
+      <c r="A111" s="15">
         <v>43308</v>
       </c>
       <c r="B111" t="s">
-        <v>716</v>
+        <v>814</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>730</v>
+        <v>828</v>
       </c>
     </row>
     <row r="112" ht="40.5" spans="1:3">
-      <c r="A112" s="14">
+      <c r="A112" s="15">
         <v>43311</v>
       </c>
       <c r="B112" t="s">
-        <v>716</v>
+        <v>814</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>731</v>
+        <v>829</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="14">
+      <c r="A113" s="15">
         <v>43311</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>732</v>
+        <v>830</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="14">
+      <c r="A114" s="15">
         <v>43311</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>733</v>
+        <v>831</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="14">
+      <c r="A115" s="15">
         <v>43311</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>734</v>
+        <v>832</v>
       </c>
     </row>
     <row r="116" ht="54" spans="1:3">
-      <c r="A116" s="14">
+      <c r="A116" s="15">
         <v>43312</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>735</v>
+        <v>833</v>
       </c>
     </row>
     <row r="117" ht="27" spans="1:3">
-      <c r="A117" s="14">
+      <c r="A117" s="15">
         <v>43312</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>736</v>
+        <v>834</v>
       </c>
     </row>
     <row r="118" ht="27" spans="1:3">
-      <c r="A118" s="14">
+      <c r="A118" s="15">
         <v>43313</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>737</v>
+        <v>835</v>
+      </c>
+    </row>
+    <row r="119" ht="40.5" spans="1:3">
+      <c r="A119" s="15">
+        <v>43314</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="15">
+        <v>43314</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="121" ht="27" spans="1:3">
+      <c r="A121" s="15">
+        <v>43315</v>
+      </c>
+      <c r="B121" t="s">
+        <v>800</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="15">
+        <v>43318</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="123" ht="27" spans="1:3">
+      <c r="A123" s="15">
+        <v>43318</v>
+      </c>
+      <c r="B123" t="s">
+        <v>800</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="124" ht="40.5" spans="1:3">
+      <c r="A124" s="15">
+        <v>43319</v>
+      </c>
+      <c r="B124" t="s">
+        <v>800</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="15">
+        <v>43319</v>
+      </c>
+      <c r="B125" t="s">
+        <v>814</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="126" ht="27" spans="1:3">
+      <c r="A126" s="15">
+        <v>43320</v>
+      </c>
+      <c r="B126" t="s">
+        <v>814</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="127" ht="27" spans="1:4">
+      <c r="A127" s="6" t="s">
+        <v>844</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="D127" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="128" ht="40.5" spans="1:3">
+      <c r="A128" s="6"/>
+      <c r="C128" s="5" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="6"/>
+      <c r="C129" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="D129" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="130" ht="27" spans="1:3">
+      <c r="A130" s="6"/>
+      <c r="C130" s="5" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="131" ht="40.5" spans="1:3">
+      <c r="A131" s="6"/>
+      <c r="C131" s="5" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="132" ht="27" spans="1:3">
+      <c r="A132" s="6"/>
+      <c r="C132" s="5" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="133" ht="67.5" spans="1:3">
+      <c r="A133" s="15">
+        <v>43321</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="134" ht="54" spans="1:3">
+      <c r="A134" s="15">
+        <v>43322</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="135" ht="121.5" spans="1:3">
+      <c r="A135" s="15">
+        <v>43325</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="15">
+        <v>43326</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="15">
+        <v>43327</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="138" ht="54" spans="1:3">
+      <c r="A138" s="15">
+        <v>43328</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="139" ht="27" spans="1:3">
+      <c r="A139" s="15">
+        <v>43329</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="140" ht="54" spans="1:3">
+      <c r="A140" s="15">
+        <v>43332</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="141" ht="81" spans="1:3">
+      <c r="A141" s="15">
+        <v>43333</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="142" ht="27" spans="1:3">
+      <c r="A142" s="15">
+        <v>43333</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="143" ht="40.5" spans="1:3">
+      <c r="A143" s="15">
+        <v>43334</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="144" ht="40.5" spans="1:3">
+      <c r="A144" s="15">
+        <v>43335</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="145" s="13" customFormat="1" ht="81" spans="1:3">
+      <c r="A145" s="13" t="s">
+        <v>844</v>
+      </c>
+      <c r="C145" s="21" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="146" ht="54" spans="1:3">
+      <c r="A146" s="15">
+        <v>43336</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="15">
+        <v>43339</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="148" ht="40.5" spans="1:3">
+      <c r="A148" s="15">
+        <v>43340</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="149" ht="27" spans="3:3">
+      <c r="C149" s="5" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="150" ht="27" spans="3:3">
+      <c r="C150" s="5" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="15">
+        <v>43348</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="152" ht="40.5" spans="1:3">
+      <c r="A152" s="15">
+        <v>43349</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="15">
+        <v>43350</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="15">
+        <v>43354</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="15">
+        <v>43355</v>
+      </c>
+      <c r="C155" s="22" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="156" ht="43" customHeight="1" spans="1:3">
+      <c r="A156" s="15">
+        <v>43356</v>
+      </c>
+      <c r="C156" s="22"/>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="15">
+        <v>43357</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="158" ht="54" spans="1:3">
+      <c r="A158" s="15">
+        <v>43360</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="15">
+        <v>43361</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="160" s="14" customFormat="1" ht="175.5" spans="1:3">
+      <c r="A160" s="14" t="s">
+        <v>778</v>
+      </c>
+      <c r="C160" s="23" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="15">
+        <v>43362</v>
+      </c>
+      <c r="B161" s="15">
+        <v>43363</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="15">
+        <v>43364</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>881</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A50:A56"/>
+    <mergeCell ref="A127:A132"/>
+    <mergeCell ref="C155:C156"/>
     <mergeCell ref="E43:E45"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -9839,255 +12312,352 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="34.625" customWidth="1"/>
     <col min="2" max="2" width="28.625" customWidth="1"/>
+    <col min="3" max="3" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
       <c r="A1" s="10" t="s">
-        <v>738</v>
+        <v>882</v>
       </c>
       <c r="B1" t="s">
-        <v>739</v>
+        <v>883</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:3">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:4">
       <c r="A2" s="11" t="s">
-        <v>741</v>
+        <v>885</v>
       </c>
       <c r="B2" t="s">
-        <v>742</v>
-      </c>
-      <c r="C2" s="12"/>
+        <v>886</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>887</v>
+      </c>
+      <c r="D2" t="s">
+        <v>888</v>
+      </c>
     </row>
     <row r="3" ht="14.25" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>743</v>
+        <v>889</v>
       </c>
       <c r="B3" t="s">
-        <v>744</v>
+        <v>890</v>
       </c>
       <c r="C3" s="8"/>
     </row>
     <row r="4" ht="14.25" spans="1:2">
-      <c r="A4" s="13" t="s">
-        <v>745</v>
+      <c r="A4" s="12" t="s">
+        <v>891</v>
       </c>
       <c r="B4" t="s">
-        <v>746</v>
+        <v>892</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:2">
-      <c r="A5" s="13" t="s">
-        <v>747</v>
+      <c r="A5" s="12" t="s">
+        <v>893</v>
       </c>
       <c r="B5" t="s">
-        <v>748</v>
+        <v>894</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:2">
-      <c r="A6" s="13" t="s">
-        <v>749</v>
+      <c r="A6" s="12" t="s">
+        <v>895</v>
       </c>
       <c r="B6" t="s">
-        <v>750</v>
+        <v>896</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>751</v>
+        <v>897</v>
       </c>
       <c r="B7" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>753</v>
+        <v>899</v>
       </c>
       <c r="B8" t="s">
-        <v>754</v>
+        <v>900</v>
+      </c>
+      <c r="C8" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>755</v>
+        <v>902</v>
       </c>
       <c r="B9" t="s">
-        <v>756</v>
+        <v>903</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>757</v>
+        <v>904</v>
       </c>
       <c r="B10" t="s">
-        <v>758</v>
+        <v>905</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>759</v>
+        <v>906</v>
       </c>
       <c r="B11" t="s">
-        <v>760</v>
+        <v>907</v>
       </c>
     </row>
     <row r="12" ht="94.5" spans="1:1">
       <c r="A12" s="5" t="s">
-        <v>761</v>
+        <v>908</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>762</v>
+        <v>909</v>
       </c>
       <c r="B13" t="s">
-        <v>763</v>
+        <v>910</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>764</v>
+        <v>911</v>
       </c>
       <c r="B14" t="s">
-        <v>765</v>
+        <v>912</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>766</v>
+        <v>913</v>
       </c>
       <c r="B15" t="s">
-        <v>767</v>
+        <v>914</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>768</v>
+        <v>915</v>
       </c>
       <c r="B16" t="s">
-        <v>769</v>
+        <v>916</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>770</v>
+        <v>917</v>
       </c>
       <c r="B17" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>772</v>
+        <v>919</v>
       </c>
       <c r="B18" t="s">
-        <v>773</v>
-      </c>
-      <c r="C18" s="8"/>
+        <v>920</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>774</v>
+        <v>921</v>
       </c>
       <c r="B19" t="s">
-        <v>775</v>
+        <v>922</v>
       </c>
       <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>776</v>
+        <v>923</v>
       </c>
       <c r="B20" t="s">
-        <v>777</v>
-      </c>
-      <c r="C20" t="s">
-        <v>778</v>
-      </c>
+        <v>924</v>
+      </c>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>779</v>
+        <v>925</v>
       </c>
       <c r="B21" t="s">
-        <v>777</v>
+        <v>926</v>
       </c>
       <c r="C21" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="22" ht="175.5" spans="1:2">
-      <c r="A22" s="5" t="s">
-        <v>781</v>
+        <v>927</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>928</v>
       </c>
       <c r="B22" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>783</v>
+        <v>926</v>
+      </c>
+      <c r="C22" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="23" ht="175.5" spans="1:2">
+      <c r="A23" s="5" t="s">
+        <v>930</v>
       </c>
       <c r="B23" t="s">
-        <v>784</v>
+        <v>931</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>785</v>
+        <v>932</v>
       </c>
       <c r="B24" t="s">
-        <v>786</v>
+        <v>933</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>787</v>
+        <v>934</v>
       </c>
       <c r="B25" t="s">
-        <v>788</v>
+        <v>935</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>789</v>
+        <v>936</v>
       </c>
       <c r="B26" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>791</v>
+        <v>938</v>
       </c>
       <c r="B27" t="s">
-        <v>792</v>
-      </c>
-      <c r="C27" s="8"/>
-    </row>
-    <row r="28" spans="1:2">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>793</v>
+        <v>940</v>
       </c>
       <c r="B28" t="s">
-        <v>794</v>
+        <v>941</v>
+      </c>
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>942</v>
+      </c>
+      <c r="B29" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>944</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>945</v>
+      </c>
+      <c r="B31" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>947</v>
+      </c>
+      <c r="B32" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>948</v>
+      </c>
+      <c r="B33" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>950</v>
+      </c>
+      <c r="B34" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>952</v>
+      </c>
+      <c r="B35" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>954</v>
+      </c>
+      <c r="B36" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>956</v>
+      </c>
+      <c r="B37" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>895</v>
+      </c>
+      <c r="B38" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>959</v>
+      </c>
+      <c r="B39" t="s">
+        <v>960</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C28">
+  <autoFilter ref="A1:C38">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -10102,7 +12672,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -10117,11 +12687,11 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
-        <v>795</v>
+        <v>961</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="7" t="s">
-        <v>796</v>
+        <v>962</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -10129,61 +12699,61 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>797</v>
+        <v>963</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>798</v>
+        <v>964</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>798</v>
+        <v>964</v>
       </c>
     </row>
     <row r="3" ht="27" spans="2:6">
       <c r="B3" s="5" t="s">
-        <v>799</v>
+        <v>965</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>800</v>
+        <v>966</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>801</v>
+        <v>967</v>
       </c>
     </row>
     <row r="7" ht="67.5" spans="2:3">
       <c r="B7" s="5" t="s">
-        <v>802</v>
+        <v>968</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>803</v>
+        <v>969</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="5" t="s">
-        <v>804</v>
+        <v>970</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="5" t="s">
-        <v>805</v>
+        <v>971</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="5" t="s">
-        <v>806</v>
+        <v>972</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="5" t="s">
-        <v>807</v>
+        <v>973</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="5" t="s">
-        <v>808</v>
+        <v>974</v>
       </c>
     </row>
   </sheetData>
@@ -10211,7 +12781,7 @@
   <sheetData>
     <row r="1" ht="108" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>809</v>
+        <v>975</v>
       </c>
     </row>
   </sheetData>

--- a/doc/本地测试链接.xlsx
+++ b/doc/本地测试链接.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" firstSheet="1" activeTab="10"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="系统网址" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,15 @@
     <sheet name="分布式" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">计划工作内容!$A$1:$F$124</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">业务类视图!$A$1:$C$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">计划工作内容!$A$1:$F$138</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">业务类视图!$A$1:$C$39</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111">
   <si>
     <t>先调整为debug</t>
   </si>
@@ -1018,6 +1018,153 @@
     <t>文件预览服务-不支持域名-wjyl.js</t>
   </si>
   <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>可为空</t>
+  </si>
+  <si>
+    <t>默认值</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>人脸识别-设备信息rlsb_sbxx</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>设备ip</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>端口</t>
+  </si>
+  <si>
+    <t>user_nm</t>
+  </si>
+  <si>
+    <t>设备登录用户名</t>
+  </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>设备登录密码</t>
+  </si>
+  <si>
+    <t>jhdm</t>
+  </si>
+  <si>
+    <t>所属井号</t>
+  </si>
+  <si>
+    <t>jckbs</t>
+  </si>
+  <si>
+    <t>number(1)</t>
+  </si>
+  <si>
+    <t>进出口标识0-进口,1-出口,2-进口和出口(只有一个设备时)</t>
+  </si>
+  <si>
+    <t>sfdl</t>
+  </si>
+  <si>
+    <t>char(1)</t>
+  </si>
+  <si>
+    <t>是否登录,0-未登录,1-登录</t>
+  </si>
+  <si>
+    <t>sfbf</t>
+  </si>
+  <si>
+    <t>是否布防,0-撤防,1-布防</t>
+  </si>
+  <si>
+    <t>bfsj</t>
+  </si>
+  <si>
+    <t>布防时间</t>
+  </si>
+  <si>
+    <t>sblx</t>
+  </si>
+  <si>
+    <t>0-摄像头,1-超脑</t>
+  </si>
+  <si>
+    <t>sscnip</t>
+  </si>
+  <si>
+    <t>所属超脑ip</t>
+  </si>
+  <si>
+    <t>人脸识别-人员进出信息rlsb_ryjcxx</t>
+  </si>
+  <si>
+    <t>井号代码</t>
+  </si>
+  <si>
+    <t>yhadzh</t>
+  </si>
+  <si>
+    <t>用户ad账号</t>
+  </si>
+  <si>
+    <t>jrsbip</t>
+  </si>
+  <si>
+    <t>进入设备ip</t>
+  </si>
+  <si>
+    <t>jrsj</t>
+  </si>
+  <si>
+    <t>进入时间</t>
+  </si>
+  <si>
+    <t>lksbip</t>
+  </si>
+  <si>
+    <t>离开设备ip</t>
+  </si>
+  <si>
+    <t>lksj</t>
+  </si>
+  <si>
+    <t>离开时间</t>
+  </si>
+  <si>
+    <t>jrimg</t>
+  </si>
+  <si>
+    <t>varchar2(200)</t>
+  </si>
+  <si>
+    <t>进入图片</t>
+  </si>
+  <si>
+    <t>lkimg</t>
+  </si>
+  <si>
+    <t>离开图片</t>
+  </si>
+  <si>
+    <t>人脸识别-设备操作记录rlsb_operation_log</t>
+  </si>
+  <si>
     <t>对接人</t>
   </si>
   <si>
@@ -1620,6 +1767,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF191F25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>测试库</t>
     </r>
     <r>
@@ -1642,16 +1795,43 @@
     <t>2.EPBW_XN.SYS_org</t>
   </si>
   <si>
-    <t>修改插入权限</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPBW_xn.ZJGC_TXCJJBXX </t>
+    <t xml:space="preserve">修改插入权限 EPBW_xn.ZJGC_TXCJJBXX </t>
   </si>
   <si>
     <t>在tomcat建立前台插件库,统一管理插件版本,减少各个项目中插件版本不一致</t>
   </si>
   <si>
     <t>坐岗溢流和井漏,开停泵三分钟不预警实现:以最近坐岗记录时间为准,到综合录井仪记录中查询三分钟内的数据,如果泵冲之和小于5并且立管压力小于0.5,则不预警.</t>
+  </si>
+  <si>
+    <t>openoffice 并发测试</t>
+  </si>
+  <si>
+    <t>单线程运行</t>
+  </si>
+  <si>
+    <t>现场动态报警上下限保存到数据表中,每个井的钻井技术员和钻井工程师才能配置,后台每5秒钟自动扫描录井仪时间表</t>
+  </si>
+  <si>
+    <t>1.记录数据每次操作日志</t>
+  </si>
+  <si>
+    <t>异常管控-已处理信息列表中将未处理列表中的数据列平移.</t>
+  </si>
+  <si>
+    <t>测试超脑ip地址10.18.19.180:8000</t>
+  </si>
+  <si>
+    <t>密码:Hik12345</t>
+  </si>
+  <si>
+    <t>测试摄像头IP地址10.18.248.180:8000</t>
+  </si>
+  <si>
+    <t>视频对讲-视频录制完成接口测试</t>
+  </si>
+  <si>
+    <t>视频对讲会议记录查询完善:时间段查询,时间段加人员uid查询</t>
   </si>
   <si>
     <t>js中json的一些使用</t>
@@ -2791,6 +2971,251 @@
     <t>jen</t>
   </si>
   <si>
+    <t>openoffice使用</t>
+  </si>
+  <si>
+    <t>下载地址:
+https://jaist.dl.sourceforge.net/project/openofficeorg.mirror/4.1.5/binaries/zh-CN/Apache_OpenOffice_4.1.5_Win_x86_install_zh-CN.exe
+依赖jar下载地址:
+https://nchc.dl.sourceforge.net/project/jodconverter/JODConverter/2.2.2/jodconverter-2.2.2.zip
+启动服务:
+1.打开cmd进入D:\Program Files (x86)\OpenOffice 4\program
+2.输入soffice -headless -accept="socket,host=127.0.0.1,port=8100;urp;" -nofirststartwizard
+3.打开任务管理器在进程中查找soffice.bin存在即表示启动成功</t>
+  </si>
+  <si>
+    <t>依赖jar:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package com.utils;
+import java.io.BufferedInputStream;
+import java.io.File;
+import java.io.IOException;
+import java.io.InputStream;
+import org.apache.log4j.Logger;
+import com.artofsolving.jodconverter.DocumentConverter;
+import com.artofsolving.jodconverter.openoffice.connection.OpenOfficeConnection;
+import com.artofsolving.jodconverter.openoffice.connection.SocketOpenOfficeConnection;
+import com.artofsolving.jodconverter.openoffice.converter.OpenOfficeDocumentConverter;
+/**
+ * doc docx格式转换
+ */
+public class DocConverter {
+ private static final int environment = 1;// 环境 1：windows 2:linux
+ public static Logger log = Logger.getLogger(DocConverter.class);
+ private String fileString;// (只涉及pdf2swf路径问题)
+ private String outputPath = "";// 输入路径 ，如果不设置就输出在默认的位置
+ private String fileName;
+ private File pdfFile;
+ private File swfFile;
+ private File docFile;
+ public DocConverter(String fileString) {
+  ini(fileString);
+ }
+ /**
+  * 重新设置file
+  * 
+  * @param fileString
+  */
+ public void setFile(String fileString) {
+  ini(fileString);
+ }
+ /**
+  * 初始化
+  * 
+  * @param fileString
+  */
+ private void ini(String fileString) {
+  this.fileString = fileString;
+  fileName = fileString.substring(0, fileString.lastIndexOf("."));
+  docFile = new File(fileString);
+  pdfFile = new File(fileName + ".pdf");
+  swfFile = new File(fileName + ".swf");
+ }
+ /**
+  * 转为PDF
+  * 
+  * @param file
+  */
+ private void doc2pdf() throws Exception {
+  if (docFile.exists()) {
+   if (!pdfFile.exists()) {
+    OpenOfficeConnection connection = new SocketOpenOfficeConnection(8100);
+    try {
+     connection.connect();
+     DocumentConverter converter = new OpenOfficeDocumentConverter(connection);
+     converter.convert(docFile, pdfFile);
+     // close the connection
+     connection.disconnect();
+     log.debug("****pdf转换成功，PDF输出：" + pdfFile.getPath()+ "****");
+    } catch (java.net.ConnectException e) {
+     e.printStackTrace();
+     log.debug("****swf转换器异常，openoffice服务未启动！****");
+     throw e;
+    } catch (com.artofsolving.jodconverter.openoffice.connection.OpenOfficeException e) {
+     e.printStackTrace();
+     log.debug("****swf转换器异常，读取转换文件失败****");
+     throw e;
+    } catch (Exception e) {
+     e.printStackTrace();
+     throw e;
+    }
+   } else {
+    log.debug("****已经转换为pdf，不需要再进行转化****");
+   }
+  } else {
+   log.debug("****swf转换器异常，需要转换的文档不存在，无法转换****");
+  }
+ }
+ /**
+  * 转换成 swf
+  */
+ @SuppressWarnings("unused")
+ private void pdf2swf() throws Exception {
+  Runtime r = Runtime.getRuntime();
+  if (!swfFile.exists()) {
+   if (pdfFile.exists()) {
+    if (environment == 1) {// windows环境处理
+     try {
+      Process p = r.exec("D:/Program Files/SWFTools/pdf2swf.exe "+ pdfFile.getPath() + " -o "+ swfFile.getPath() + " -T 9");
+      System.out.print(loadStream(p.getInputStream()));
+      System.err.print(loadStream(p.getErrorStream()));
+      System.out.print(loadStream(p.getInputStream()));
+      System.err.println("****swf转换成功，文件输出："
+        + swfFile.getPath() + "****");
+      if (pdfFile.exists()) {
+       pdfFile.delete();
+      }
+     } catch (IOException e) {
+      e.printStackTrace();
+      throw e;
+     }
+    } else if (environment == 2) {// linux环境处理
+     try {
+      Process p = r.exec("pdf2swf " + pdfFile.getPath()
+        + " -o " + swfFile.getPath() + " -T 9");
+      System.out.print(loadStream(p.getInputStream()));
+      System.err.print(loadStream(p.getErrorStream()));
+      System.err.println("****swf转换成功，文件输出："
+        + swfFile.getPath() + "****");
+      if (pdfFile.exists()) {
+       pdfFile.delete();
+      }
+     } catch (Exception e) {
+      e.printStackTrace();
+      throw e;
+     }
+    }
+   } else {
+    log.debug("****pdf不存在,无法转换****");
+   }
+  } else {
+   log.debug("****swf已经存在不需要转换****");
+  }
+ }
+ static String loadStream(InputStream in) throws IOException {
+  int ptr = 0;
+  in = new BufferedInputStream(in);
+  StringBuffer buffer = new StringBuffer();
+  while ((ptr = in.read()) != -1) {
+   buffer.append((char) ptr);
+  }
+  return buffer.toString();
+ }
+ /**
+  * 转换主方法
+  */
+ @SuppressWarnings("unused")
+ public boolean conver() {
+  if (swfFile.exists()) {
+   log.debug("****swf转换器开始工作，该文件已经转换为swf****");
+   return true;
+  }
+  if (environment == 1) {
+   log.debug("****swf转换器开始工作，当前设置运行环境windows****");
+  } else {
+   log.debug("****swf转换器开始工作，当前设置运行环境linux****");
+  }
+  try {
+   doc2pdf();
+//   pdf2swf();
+  } catch (Exception e) {
+   e.printStackTrace();
+   return false;
+  }
+  if (swfFile.exists()) {
+   return true;
+  } else {
+   return false;
+  }
+ }
+ /**
+  * 返回文件路径
+  * 
+  * @param s
+  */
+ public String getswfPath() {
+  if (swfFile.exists()) {
+   String tempString = swfFile.getPath();
+   tempString = tempString.replaceAll("\\\\", "/");
+   return tempString;
+  } else {
+   return "";
+  }
+ }
+ /**
+  * 设置输出路径
+  */
+ public void setOutputPath(String outputPath) {
+  this.outputPath = outputPath;
+  if (!outputPath.equals("")) {
+   String realName = fileName.substring(fileName.lastIndexOf("/"),
+     fileName.lastIndexOf("."));
+   if (outputPath.charAt(outputPath.length()) == '/') {
+    swfFile = new File(outputPath + realName + ".swf");
+   } else {
+    swfFile = new File(outputPath + realName + ".swf");
+   }
+  }
+ }
+}
+</t>
+  </si>
+  <si>
+    <t>调用方式:    DocConverter d=new DocConverter(file.getPath());
+    d.conver();
+其它文件转pdf:
+    //1.获取非pdf文件
+    File file=new File(BaseAction.getRealPath(request)+"temp/"+FilenameUtils.getName(fullpath));
+    if (!file.getParentFile().exists()) {
+     file.getParentFile().mkdirs();
+    }
+    OutputStream outputStream = new FileOutputStream(file);
+    IOUtils.copy(inputStream, outputStream);
+    close(inputStream, outputStream);
+    //2.转换为pdfwenj
+    DocConverter d=new DocConverter(file.getPath());
+    d.conver();
+    //输出pdf到页面
+    File pdf=new File(file.getPath().replace(ext, "pdf"));
+    response.setHeader("content-disposition", "attachment;fileName="+URLEncoder.encode(pdf.getName(), "UTF-8"));
+    inputStream=new FileInputStream(pdf);
+    outputStream = response.getOutputStream();
+    IOUtils.copy(inputStream, outputStream);
+    close(inputStream, outputStream);</t>
+  </si>
+  <si>
+    <t>pdf.js</t>
+  </si>
+  <si>
+    <t>下载地址:
+http://mozilla.github.io/pdf.js/getting_started/#download 点击stable按钮下载
+内部地址
+var docUrl="http://"+window.location.hostname+":8080/web_plug/pdf/web/viewer.html?file="+url;
+外链:
+var param="http://"+window.location.hostname+":8080/BASE_JAVA/wjyl.do?"+encodeURIComponent(row.FJLJ);</t>
+  </si>
+  <si>
     <t>1.改造微服务</t>
   </si>
   <si>
@@ -3609,7 +4034,39 @@
     <t>异常测试平台测试页面开发</t>
   </si>
   <si>
-    <t>考核排名页面增加原始分数和考核分数</t>
+    <t>业绩考核排名页面增加原始分数和考核分数</t>
+  </si>
+  <si>
+    <t>openoffice文件转换,将word,excel等文件转换为pdf,然后通过pdf.js前端插件实现文件在线预览,在综合信息中新增加的文件预览中集成使用</t>
+  </si>
+  <si>
+    <t>海康人脸识别demo环境配置运行成功</t>
+  </si>
+  <si>
+    <t>人脸识别超脑</t>
+  </si>
+  <si>
+    <t>完成人脸识别sdk对接,数据存储展示</t>
+  </si>
+  <si>
+    <t>综合录井仪出口密度异常</t>
+  </si>
+  <si>
+    <t>1.编写异常测试平台测试页面功能开发
+2.业绩考核增加原始分数和考核分数
+3.综合信息中增加文件预览功能,使用openoffice+pdf.js实现
+4.海康人脸识别sdk对接开发
+5.海康人脸识别人员进出场模块开发
+6.综合录井仪出口密度异常</t>
+  </si>
+  <si>
+    <t>上传人脸识别库项目到svn,测试人脸识别demo</t>
+  </si>
+  <si>
+    <t>人脸识别库只支持jpg格式图片</t>
+  </si>
+  <si>
+    <t>编写人脸识别应用ppt,优化人脸识别界面显示,回调函数中增加高并发读写锁</t>
   </si>
   <si>
     <t>EPBW_XN.ODS_BLBM_JZTBM</t>
@@ -3859,6 +4316,12 @@
     <t>固井施工实时数据表</t>
   </si>
   <si>
+    <t>EPBW_XN.ODS_JCXX_YHZX_YHZP</t>
+  </si>
+  <si>
+    <t>人员照片库</t>
+  </si>
+  <si>
     <t>坐岗预警规则</t>
   </si>
   <si>
@@ -3952,13 +4415,13 @@
     <t>测试服务器</t>
   </si>
   <si>
-    <t>10.18.3.29</t>
+    <t>10.18.3.89</t>
   </si>
   <si>
     <t>10.18.3.133:1521/xndrc</t>
   </si>
   <si>
-    <t>密码：fxhy-29=92xxzx</t>
+    <t>密码：sygcpt-89=92xxzx</t>
   </si>
   <si>
     <t>测试库</t>
@@ -4284,9 +4747,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4301,66 +4845,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4375,26 +4860,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4406,15 +4875,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4462,7 +4925,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4483,7 +4946,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4501,19 +5036,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4525,13 +5048,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4543,7 +5084,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4555,126 +5132,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -4813,6 +5282,73 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4823,30 +5359,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -4869,24 +5381,29 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4900,13 +5417,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4918,10 +5439,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4930,135 +5451,135 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="36" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="36" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5104,6 +5625,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -5129,6 +5653,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5281,6 +5811,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5289,10 +5846,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5572,7 +6129,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>208280</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5591,7 +6148,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12030075" y="2889250"/>
-          <a:ext cx="10761980" cy="13514705"/>
+          <a:ext cx="10761980" cy="13343255"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5608,6 +6165,95 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3042920</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7353300" y="32546925"/>
+          <a:ext cx="2214245" cy="3079750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3028950</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>965200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7600950" y="35639375"/>
+          <a:ext cx="1952625" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5654,18 +6300,18 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>189865</xdr:colOff>
+      <xdr:colOff>161290</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -5684,7 +6330,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7315200" y="4171950"/>
+          <a:off x="7286625" y="4171950"/>
           <a:ext cx="3552190" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5697,7 +6343,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6886,8 +7532,8 @@
   <sheetPr/>
   <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6904,258 +7550,258 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="74" customFormat="1" spans="1:2">
-      <c r="A2" s="74" t="s">
+    <row r="2" s="86" customFormat="1" spans="1:2">
+      <c r="A2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="87" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="74" customFormat="1" spans="2:2">
-      <c r="B3" s="75"/>
-    </row>
-    <row r="4" s="74" customFormat="1" spans="1:2">
-      <c r="A4" s="74" t="s">
+    <row r="3" s="86" customFormat="1" spans="2:2">
+      <c r="B3" s="87"/>
+    </row>
+    <row r="4" s="86" customFormat="1" spans="1:2">
+      <c r="A4" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="87" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" s="74" customFormat="1" spans="1:2">
-      <c r="A5" s="74" t="s">
+    <row r="5" s="86" customFormat="1" spans="1:2">
+      <c r="A5" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="87" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" s="74" customFormat="1" spans="1:2">
-      <c r="A6" s="74" t="s">
+    <row r="6" s="86" customFormat="1" spans="1:2">
+      <c r="A6" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="87" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" s="74" customFormat="1" spans="2:2">
-      <c r="B7" s="75"/>
-    </row>
-    <row r="8" s="74" customFormat="1" spans="1:2">
-      <c r="A8" s="74" t="s">
+    <row r="7" s="86" customFormat="1" spans="2:2">
+      <c r="B7" s="87"/>
+    </row>
+    <row r="8" s="86" customFormat="1" spans="1:2">
+      <c r="A8" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="87" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" s="74" customFormat="1" spans="1:2">
-      <c r="A9" s="74" t="s">
+    <row r="9" s="86" customFormat="1" spans="1:2">
+      <c r="A9" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="87" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" s="74" customFormat="1" spans="1:2">
-      <c r="A10" s="74" t="s">
+    <row r="10" s="86" customFormat="1" spans="1:2">
+      <c r="A10" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="87" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" s="74" customFormat="1" spans="1:2">
-      <c r="A11" s="74" t="s">
+    <row r="11" s="86" customFormat="1" spans="1:2">
+      <c r="A11" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="87" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" s="74" customFormat="1" spans="1:2">
-      <c r="A12" s="74" t="s">
+    <row r="12" s="86" customFormat="1" spans="1:2">
+      <c r="A12" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="87" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" s="74" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A13" s="74" t="s">
+    <row r="13" s="86" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A13" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="50" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" s="74" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A14" s="74" t="s">
+    <row r="14" s="86" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A14" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="47" t="s">
+      <c r="C14" s="88"/>
+      <c r="D14" s="50" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" s="74" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A15" s="74" t="s">
+    <row r="15" s="86" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A15" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" s="74" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A16" s="74" t="s">
+    <row r="16" s="86" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A16" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="50" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" s="74" customFormat="1" spans="1:2">
-      <c r="A17" s="74" t="s">
+    <row r="17" s="86" customFormat="1" spans="1:2">
+      <c r="A17" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="87" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" s="74" customFormat="1" spans="1:2">
-      <c r="A18" s="74" t="s">
+    <row r="18" s="86" customFormat="1" spans="1:2">
+      <c r="A18" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="87" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" s="74" customFormat="1" spans="1:2">
-      <c r="A19" s="74" t="s">
+    <row r="19" s="86" customFormat="1" spans="1:2">
+      <c r="A19" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="87" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" s="74" customFormat="1" spans="1:2">
+    <row r="20" s="86" customFormat="1" spans="1:2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="87" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" s="74" customFormat="1" spans="1:2">
-      <c r="A21" s="74" t="s">
+    <row r="21" s="86" customFormat="1" spans="1:2">
+      <c r="A21" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="75" t="s">
+      <c r="B21" s="87" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" s="74" customFormat="1" spans="1:2">
-      <c r="A22" s="74" t="s">
+    <row r="22" s="86" customFormat="1" spans="1:2">
+      <c r="A22" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="87" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" s="74" customFormat="1" spans="1:2">
-      <c r="A23" s="74" t="s">
+    <row r="23" s="86" customFormat="1" spans="1:2">
+      <c r="A23" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="87" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" s="74" customFormat="1" spans="1:2">
-      <c r="A24" s="74" t="s">
+    <row r="24" s="86" customFormat="1" spans="1:2">
+      <c r="A24" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="87" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" s="74" customFormat="1" spans="1:2">
-      <c r="A25" s="74" t="s">
+    <row r="25" s="86" customFormat="1" spans="1:2">
+      <c r="A25" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="77" t="s">
+      <c r="B25" s="89" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" s="74" customFormat="1" spans="1:2">
-      <c r="A26" s="74" t="s">
+    <row r="26" s="86" customFormat="1" spans="1:2">
+      <c r="A26" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="89" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="52" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" s="74" customFormat="1" spans="1:2">
-      <c r="A28" s="74" t="s">
+    <row r="28" s="86" customFormat="1" spans="1:2">
+      <c r="A28" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="75" t="s">
+      <c r="B28" s="87" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" s="74" customFormat="1" spans="2:2">
-      <c r="B29" s="75"/>
-    </row>
-    <row r="30" s="74" customFormat="1" spans="1:2">
-      <c r="A30" s="74" t="s">
+    <row r="29" s="86" customFormat="1" spans="2:2">
+      <c r="B29" s="87"/>
+    </row>
+    <row r="30" s="86" customFormat="1" spans="1:2">
+      <c r="A30" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="75" t="s">
+      <c r="B30" s="87" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" s="74" customFormat="1" spans="1:2">
-      <c r="A31" s="74" t="s">
+    <row r="31" s="86" customFormat="1" spans="1:2">
+      <c r="A31" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="87" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" s="74" customFormat="1" spans="1:2">
-      <c r="A32" s="74" t="s">
+    <row r="32" s="86" customFormat="1" spans="1:2">
+      <c r="A32" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="87" t="s">
         <v>64</v>
       </c>
     </row>
@@ -7180,39 +7826,39 @@
       <c r="H34" t="s">
         <v>69</v>
       </c>
-      <c r="I34" s="82" t="s">
+      <c r="I34" s="94" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" s="74" customFormat="1" spans="1:2">
-      <c r="A35" s="74" t="s">
+    <row r="35" s="86" customFormat="1" spans="1:2">
+      <c r="A35" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="78" t="s">
+      <c r="B35" s="90" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="36" s="74" customFormat="1" spans="1:2">
-      <c r="A36" s="74" t="s">
+    <row r="36" s="86" customFormat="1" spans="1:2">
+      <c r="A36" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="78" t="s">
+      <c r="B36" s="90" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" s="74" customFormat="1" spans="1:2">
-      <c r="A37" s="74" t="s">
+    <row r="37" s="86" customFormat="1" spans="1:2">
+      <c r="A37" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="91" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" s="74" customFormat="1" spans="1:2">
-      <c r="A38" s="74" t="s">
+    <row r="38" s="86" customFormat="1" spans="1:2">
+      <c r="A38" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="79" t="s">
+      <c r="B38" s="91" t="s">
         <v>78</v>
       </c>
     </row>
@@ -7225,7 +7871,7 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="74" t="s">
+      <c r="A40" s="86" t="s">
         <v>22</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -7233,7 +7879,7 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="74" t="s">
+      <c r="A41" s="86" t="s">
         <v>82</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -7241,7 +7887,7 @@
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="74" t="s">
+      <c r="A42" s="86" t="s">
         <v>84</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -7249,7 +7895,7 @@
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="49"/>
+      <c r="B43" s="52"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
@@ -7280,27 +7926,27 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="74" t="s">
+      <c r="A46" s="86" t="s">
         <v>94</v>
       </c>
       <c r="B46" s="5"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="74"/>
-      <c r="B47" s="75" t="s">
+      <c r="A47" s="86"/>
+      <c r="B47" s="87" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="74" t="s">
+      <c r="A48" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="75" t="s">
+      <c r="B48" s="87" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="74"/>
+      <c r="A49" s="86"/>
       <c r="B49" s="4" t="s">
         <v>98</v>
       </c>
@@ -7327,7 +7973,7 @@
       <c r="A53" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="49" t="s">
+      <c r="B53" s="52" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7335,7 +7981,7 @@
       <c r="A55" t="s">
         <v>105</v>
       </c>
-      <c r="B55" s="49" t="s">
+      <c r="B55" s="52" t="s">
         <v>106</v>
       </c>
     </row>
@@ -7378,15 +8024,15 @@
       <c r="A62" t="s">
         <v>115</v>
       </c>
-      <c r="B62" s="49" t="s">
+      <c r="B62" s="52" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="80" t="s">
+      <c r="A63" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="B63" s="81"/>
+      <c r="B63" s="93"/>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
@@ -7397,89 +8043,89 @@
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="74"/>
-      <c r="B66" s="77"/>
+      <c r="A66" s="86"/>
+      <c r="B66" s="89"/>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="74" t="s">
+      <c r="A67" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="B67" s="75" t="s">
+      <c r="B67" s="87" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="74" t="s">
+      <c r="A68" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="B68" s="75" t="s">
+      <c r="B68" s="87" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="74" t="s">
+      <c r="A69" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="B69" s="77" t="s">
+      <c r="B69" s="89" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="74"/>
+      <c r="A70" s="86"/>
       <c r="B70" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="74"/>
-      <c r="B71" s="77" t="s">
+      <c r="A71" s="86"/>
+      <c r="B71" s="89" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="74"/>
-      <c r="B72" s="77"/>
+      <c r="A72" s="86"/>
+      <c r="B72" s="89"/>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="74" t="s">
+      <c r="A73" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="B73" s="83" t="s">
+      <c r="B73" s="95" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="74"/>
-      <c r="B74" s="77"/>
+      <c r="A74" s="86"/>
+      <c r="B74" s="89"/>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="74"/>
-      <c r="B75" s="77"/>
+      <c r="A75" s="86"/>
+      <c r="B75" s="89"/>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="74" t="s">
+      <c r="A76" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="B76" s="77"/>
+      <c r="B76" s="89"/>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="74" t="s">
+      <c r="A77" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="B77" s="77"/>
+      <c r="B77" s="89"/>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="74"/>
-      <c r="B78" s="77"/>
+      <c r="A78" s="86"/>
+      <c r="B78" s="89"/>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="77"/>
+      <c r="B79" s="89"/>
     </row>
     <row r="80" ht="14.25" spans="1:2">
       <c r="A80" t="s">
         <v>130</v>
       </c>
-      <c r="B80" s="47" t="s">
+      <c r="B80" s="50" t="s">
         <v>131</v>
       </c>
     </row>
@@ -7487,7 +8133,7 @@
       <c r="A81" t="s">
         <v>132</v>
       </c>
-      <c r="B81" s="47" t="s">
+      <c r="B81" s="50" t="s">
         <v>133</v>
       </c>
     </row>
@@ -7495,7 +8141,7 @@
       <c r="A82" t="s">
         <v>134</v>
       </c>
-      <c r="B82" s="47" t="s">
+      <c r="B82" s="50" t="s">
         <v>135</v>
       </c>
     </row>
@@ -7503,24 +8149,24 @@
       <c r="A83" t="s">
         <v>136</v>
       </c>
-      <c r="B83" s="77"/>
+      <c r="B83" s="89"/>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="74"/>
-      <c r="B84" s="77"/>
+      <c r="A84" s="86"/>
+      <c r="B84" s="89"/>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="74"/>
-      <c r="B85" s="77"/>
+      <c r="A85" s="86"/>
+      <c r="B85" s="89"/>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>137</v>
       </c>
-      <c r="B86" s="74"/>
+      <c r="B86" s="86"/>
     </row>
     <row r="87" ht="54" spans="1:2">
-      <c r="A87" s="74" t="s">
+      <c r="A87" s="86" t="s">
         <v>138</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -7528,25 +8174,25 @@
       </c>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="77"/>
+      <c r="B88" s="89"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="74" t="s">
+      <c r="A89" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="B89" s="75" t="s">
+      <c r="B89" s="87" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="74"/>
-      <c r="B90" s="49"/>
+      <c r="A90" s="86"/>
+      <c r="B90" s="52"/>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>142</v>
       </c>
-      <c r="B92" s="49" t="s">
+      <c r="B92" s="52" t="s">
         <v>143</v>
       </c>
     </row>
@@ -7559,7 +8205,7 @@
       <c r="A95" t="s">
         <v>145</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="52" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7639,6 +8285,7 @@
     <hyperlink ref="B45" r:id="rId57" display="http://localhost:8080/BASE_JAVA/sdChart/index.html?chartType=GC&amp;uid=tangsha.xnyq"/>
     <hyperlink ref="B50" r:id="rId58" display="http://localhost:8080/BASE_JAVA/iframes/syq_index.html?uid%3Dxurenjun.hwrj%26name%3D%E5%BE%90%E4%BB%BB%E5%86%9B%26orgname%26ticket%3DST-360814-SLFJM3a47dKzaNdDDjqT-cas27.example.org"/>
     <hyperlink ref="B98" r:id="rId59" display="http://test.xnyq.sinopec.com:8802/ythjczx/mainframe/ldframe/ld_index.jsp?areaCode=SSSJ" tooltip="http://test.xnyq.sinopec.com:8802/ythjczx/mainframe/ldframe/ld_index.jsp?areaCode=SSSJ"/>
+    <hyperlink ref="B95" r:id="rId60" display="http://real.xnyq.sinopec.com:8080/BASE_JAVA/video/backVideo_history.html?jh=%E6%B0%B8%E9%A1%B51-4HF"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7653,7 +8300,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G14" sqref="F14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -7664,71 +8311,71 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:2">
       <c r="A1" t="s">
-        <v>976</v>
+        <v>1052</v>
       </c>
       <c r="B1" t="s">
-        <v>599</v>
+        <v>657</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>977</v>
+        <v>1053</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>978</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>979</v>
+        <v>1055</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>980</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>981</v>
+        <v>1057</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>982</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>983</v>
+        <v>1059</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>984</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>985</v>
+        <v>1061</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>986</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>987</v>
+        <v>1063</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>988</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>989</v>
+        <v>1065</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>990</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>991</v>
+        <v>1067</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>131</v>
@@ -7736,7 +8383,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>992</v>
+        <v>1068</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>133</v>
@@ -7744,204 +8391,204 @@
     </row>
     <row r="11" ht="14.25" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>979</v>
+        <v>1055</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>993</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>994</v>
+        <v>1070</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>995</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>996</v>
+        <v>1072</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>997</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>998</v>
+        <v>1074</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>999</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>1000</v>
+        <v>1076</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1001</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>1002</v>
+        <v>1078</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1003</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>979</v>
+        <v>1055</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1004</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>1005</v>
+        <v>1081</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1006</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>1007</v>
+        <v>1083</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1008</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>998</v>
+        <v>1074</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1009</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>1000</v>
+        <v>1076</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1010</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>1011</v>
+        <v>1087</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1012</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>998</v>
+        <v>1074</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1013</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>1014</v>
+        <v>1090</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1015</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>1016</v>
+        <v>1092</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1017</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>1018</v>
+        <v>1094</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1019</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>1020</v>
+        <v>1096</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1021</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>1022</v>
+        <v>1098</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1023</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>1024</v>
+        <v>1100</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1025</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:1">
       <c r="A30" s="3" t="s">
-        <v>1026</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>1027</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
-        <v>1028</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:1">
       <c r="A33" s="3" t="s">
-        <v>1029</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>1030</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
-        <v>979</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="36" ht="14.25" spans="1:1">
       <c r="A36" s="3" t="s">
-        <v>1031</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="4" t="s">
-        <v>1032</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>1033</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>1034</v>
+        <v>1110</v>
       </c>
     </row>
   </sheetData>
@@ -7958,7 +8605,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="J139" sqref="J139"/>
     </sheetView>
   </sheetViews>
@@ -7973,10 +8620,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -7990,7 +8637,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="48" customHeight="1" spans="1:4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -8001,7 +8648,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>152</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -8009,19 +8656,19 @@
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:2">
-      <c r="A3" s="18"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="5" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:2">
-      <c r="A4" s="18"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -8035,7 +8682,7 @@
       </c>
     </row>
     <row r="6" ht="21" customHeight="1" spans="1:4">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="5" t="s">
         <v>159</v>
       </c>
@@ -8044,31 +8691,31 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="18"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="5" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="8" ht="19" customHeight="1" spans="1:2">
-      <c r="A8" s="18"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="5" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="10" ht="19" customHeight="1" spans="1:2">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="5" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="11" ht="27" spans="1:4">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -8149,7 +8796,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="19" t="s">
         <v>184</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -8157,37 +8804,37 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="18"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="5" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="18"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="5" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="18"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="5" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="18"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="5" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="18"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="5" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="18"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="5" t="s">
         <v>191</v>
       </c>
@@ -8217,155 +8864,155 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="56" t="s">
         <v>198</v>
       </c>
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="55"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="58"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="59" t="s">
         <v>200</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="58"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="61"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="59" t="s">
         <v>202</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="58"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="61"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="59" t="s">
         <v>204</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C34" s="57"/>
-      <c r="D34" s="58"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="61"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="62" t="s">
         <v>206</v>
       </c>
       <c r="C35" t="s">
         <v>207</v>
       </c>
-      <c r="D35" s="57" t="s">
+      <c r="D35" s="60" t="s">
         <v>208</v>
       </c>
-      <c r="E35" s="58" t="s">
+      <c r="E35" s="61" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="62" t="s">
         <v>210</v>
       </c>
       <c r="C36" t="s">
         <v>211</v>
       </c>
-      <c r="D36" s="57" t="s">
+      <c r="D36" s="60" t="s">
         <v>212</v>
       </c>
-      <c r="E36" s="58" t="s">
+      <c r="E36" s="61" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="62" t="s">
         <v>214</v>
       </c>
       <c r="C37" t="s">
         <v>215</v>
       </c>
-      <c r="D37" s="57">
+      <c r="D37" s="60">
         <v>2</v>
       </c>
-      <c r="E37" s="58">
+      <c r="E37" s="61">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="62" t="s">
         <v>216</v>
       </c>
       <c r="C38" t="s">
         <v>217</v>
       </c>
-      <c r="D38" s="57" t="s">
+      <c r="D38" s="60" t="s">
         <v>218</v>
       </c>
-      <c r="E38" s="58"/>
+      <c r="E38" s="61"/>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="62" t="s">
         <v>219</v>
       </c>
       <c r="C39" t="s">
         <v>220</v>
       </c>
-      <c r="D39" s="57" t="s">
+      <c r="D39" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="E39" s="58" t="s">
+      <c r="E39" s="61" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="59" t="s">
+      <c r="B40" s="62" t="s">
         <v>223</v>
       </c>
       <c r="C40" t="s">
         <v>224</v>
       </c>
-      <c r="D40" s="57">
+      <c r="D40" s="60">
         <v>1500023100</v>
       </c>
-      <c r="E40" s="58" t="s">
+      <c r="E40" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="G40" s="57"/>
+      <c r="G40" s="60"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="62" t="s">
         <v>226</v>
       </c>
       <c r="C41" t="s">
         <v>227</v>
       </c>
-      <c r="D41" s="57" t="s">
+      <c r="D41" s="60" t="s">
         <v>228</v>
       </c>
-      <c r="E41" s="58">
+      <c r="E41" s="61">
         <v>1</v>
       </c>
-      <c r="G41" s="57"/>
+      <c r="G41" s="60"/>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="60" t="s">
+      <c r="B42" s="63" t="s">
         <v>229</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>230</v>
       </c>
       <c r="D42" s="5"/>
-      <c r="E42" s="58"/>
+      <c r="E42" s="61"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="60" t="s">
+      <c r="A43" s="63" t="s">
         <v>231</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -8374,51 +9021,51 @@
       <c r="C43" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D43" s="58"/>
+      <c r="D43" s="61"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="60" t="s">
+      <c r="A44" s="63" t="s">
         <v>234</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="D44" s="58"/>
+      <c r="D44" s="61"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="60" t="s">
+      <c r="A45" s="63" t="s">
         <v>236</v>
       </c>
-      <c r="B45" s="61" t="s">
+      <c r="B45" s="64" t="s">
         <v>237</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="D45" s="58"/>
+      <c r="D45" s="61"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="62" t="s">
+      <c r="A46" s="65" t="s">
         <v>239</v>
       </c>
-      <c r="B46" s="63" t="s">
+      <c r="B46" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="C46" s="63"/>
-      <c r="D46" s="64"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="67"/>
     </row>
     <row r="47" ht="27" spans="1:4">
-      <c r="A47" s="65" t="s">
+      <c r="A47" s="68" t="s">
         <v>241</v>
       </c>
-      <c r="B47" s="66" t="s">
+      <c r="B47" s="69" t="s">
         <v>242</v>
       </c>
-      <c r="C47" s="66"/>
-      <c r="D47" s="55"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="58"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="60" t="s">
+      <c r="A48" s="63" t="s">
         <v>243</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -8427,134 +9074,134 @@
       <c r="C48" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D48" s="58" t="s">
+      <c r="D48" s="61" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="62" t="s">
+      <c r="A49" s="65" t="s">
         <v>247</v>
       </c>
-      <c r="B49" s="63" t="s">
+      <c r="B49" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="C49" s="63" t="s">
+      <c r="C49" s="66" t="s">
         <v>245</v>
       </c>
-      <c r="D49" s="64" t="s">
+      <c r="D49" s="67" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="50" ht="40.5" spans="1:4">
-      <c r="A50" s="65" t="s">
+      <c r="A50" s="68" t="s">
         <v>250</v>
       </c>
-      <c r="B50" s="66" t="s">
+      <c r="B50" s="69" t="s">
         <v>251</v>
       </c>
-      <c r="C50" s="66"/>
-      <c r="D50" s="55"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="58"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="62" t="s">
+      <c r="A51" s="65" t="s">
         <v>243</v>
       </c>
-      <c r="B51" s="63" t="s">
+      <c r="B51" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="C51" s="63" t="s">
+      <c r="C51" s="66" t="s">
         <v>245</v>
       </c>
-      <c r="D51" s="64" t="s">
+      <c r="D51" s="67" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="65" t="s">
+      <c r="A52" s="68" t="s">
         <v>253</v>
       </c>
-      <c r="B52" s="66" t="s">
+      <c r="B52" s="69" t="s">
         <v>254</v>
       </c>
-      <c r="C52" s="67" t="s">
+      <c r="C52" s="70" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="60" t="s">
+      <c r="A53" s="63" t="s">
         <v>256</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C53" s="68" t="s">
+      <c r="C53" s="71" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="62"/>
-      <c r="B54" s="63" t="s">
+      <c r="A54" s="65"/>
+      <c r="B54" s="66" t="s">
         <v>259</v>
       </c>
-      <c r="C54" s="69" t="s">
+      <c r="C54" s="72" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="70" t="s">
+      <c r="A55" s="73" t="s">
         <v>261</v>
       </c>
-      <c r="B55" s="70" t="s">
+      <c r="B55" s="73" t="s">
         <v>262</v>
       </c>
-      <c r="C55" s="70" t="s">
+      <c r="C55" s="73" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="65" t="s">
+      <c r="A56" s="68" t="s">
         <v>264</v>
       </c>
-      <c r="B56" s="66" t="s">
+      <c r="B56" s="69" t="s">
         <v>265</v>
       </c>
-      <c r="C56" s="67" t="s">
+      <c r="C56" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="D56" s="55" t="s">
+      <c r="D56" s="58" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="62" t="s">
+      <c r="A57" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="B57" s="63" t="s">
+      <c r="B57" s="66" t="s">
         <v>269</v>
       </c>
-      <c r="C57" s="69" t="s">
+      <c r="C57" s="72" t="s">
         <v>270</v>
       </c>
-      <c r="D57" s="64" t="s">
+      <c r="D57" s="67" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="58" ht="27" spans="1:4">
-      <c r="A58" s="65" t="s">
+      <c r="A58" s="68" t="s">
         <v>272</v>
       </c>
-      <c r="B58" s="66" t="s">
+      <c r="B58" s="69" t="s">
         <v>265</v>
       </c>
-      <c r="C58" s="66" t="s">
+      <c r="C58" s="69" t="s">
         <v>266</v>
       </c>
-      <c r="D58" s="55" t="s">
+      <c r="D58" s="58" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="59" ht="27" spans="1:4">
-      <c r="A59" s="60" t="s">
+      <c r="A59" s="63" t="s">
         <v>273</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -8563,121 +9210,121 @@
       <c r="C59" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D59" s="58" t="s">
+      <c r="D59" s="61" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="60"/>
+      <c r="A60" s="63"/>
       <c r="B60" s="5" t="s">
         <v>277</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D60" s="58" t="s">
+      <c r="D60" s="61" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="60"/>
+      <c r="A61" s="63"/>
       <c r="B61" s="5" t="s">
         <v>280</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D61" s="58" t="s">
+      <c r="D61" s="61" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="62"/>
-      <c r="B62" s="63" t="s">
+      <c r="A62" s="65"/>
+      <c r="B62" s="66" t="s">
         <v>282</v>
       </c>
-      <c r="C62" s="63" t="s">
+      <c r="C62" s="66" t="s">
         <v>283</v>
       </c>
-      <c r="D62" s="64" t="s">
+      <c r="D62" s="67" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="65" t="s">
+      <c r="A63" s="68" t="s">
         <v>284</v>
       </c>
-      <c r="B63" s="66"/>
-      <c r="C63" s="66" t="s">
+      <c r="B63" s="69"/>
+      <c r="C63" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D63" s="55" t="s">
+      <c r="D63" s="58" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="64" ht="27" spans="1:4">
-      <c r="A64" s="60" t="s">
+      <c r="A64" s="63" t="s">
         <v>287</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="D64" s="58" t="s">
+      <c r="D64" s="61" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="60"/>
+      <c r="A65" s="63"/>
       <c r="C65" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="D65" s="58" t="s">
+      <c r="D65" s="61" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="60"/>
+      <c r="A66" s="63"/>
       <c r="C66" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D66" s="58" t="s">
+      <c r="D66" s="61" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="60"/>
+      <c r="A67" s="63"/>
       <c r="C67" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D67" s="71">
+      <c r="D67" s="74">
         <v>43290.6385069444</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="60"/>
+      <c r="A68" s="63"/>
       <c r="C68" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="D68" s="58" t="s">
+      <c r="D68" s="61" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="60"/>
+      <c r="A69" s="63"/>
       <c r="C69" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D69" s="58" t="s">
+      <c r="D69" s="61" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="62"/>
-      <c r="B70" s="63"/>
-      <c r="C70" s="63" t="s">
+      <c r="A70" s="65"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="66" t="s">
         <v>298</v>
       </c>
-      <c r="D70" s="64" t="s">
+      <c r="D70" s="67" t="s">
         <v>299</v>
       </c>
     </row>
@@ -8696,58 +9343,58 @@
       <c r="B72" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="E72" s="72"/>
+      <c r="E72" s="75"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="53" t="s">
+      <c r="A73" s="56" t="s">
         <v>304</v>
       </c>
-      <c r="B73" s="54" t="s">
+      <c r="B73" s="57" t="s">
         <v>305</v>
       </c>
-      <c r="C73" s="55"/>
+      <c r="C73" s="58"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="59" t="s">
+      <c r="A74" s="62" t="s">
         <v>306</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="C74" s="58">
+      <c r="C74" s="61">
         <v>512</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="59" t="s">
+      <c r="A75" s="62" t="s">
         <v>308</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="C75" s="58">
+      <c r="C75" s="61">
         <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="59" t="s">
+      <c r="A76" s="62" t="s">
         <v>310</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C76" s="58">
+      <c r="C76" s="61">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="73" t="s">
+      <c r="A77" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="B77" s="63" t="s">
+      <c r="B77" s="66" t="s">
         <v>239</v>
       </c>
-      <c r="C77" s="64">
+      <c r="C77" s="67">
         <v>100</v>
       </c>
     </row>
@@ -8794,8 +9441,406 @@
         <v>322</v>
       </c>
     </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>323</v>
+      </c>
+      <c r="B83" t="s">
+        <v>324</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D83" t="s">
+        <v>326</v>
+      </c>
+      <c r="E83" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="77" t="s">
+        <v>328</v>
+      </c>
+      <c r="B84" s="78"/>
+      <c r="C84" s="78"/>
+      <c r="D84" s="78"/>
+      <c r="E84" s="79"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="80" t="s">
+        <v>329</v>
+      </c>
+      <c r="B85" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="C85" s="80"/>
+      <c r="D85" s="81"/>
+      <c r="E85" s="81" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="80" t="s">
+        <v>331</v>
+      </c>
+      <c r="B86" s="80" t="s">
+        <v>332</v>
+      </c>
+      <c r="C86" s="80"/>
+      <c r="D86" s="81"/>
+      <c r="E86" s="81" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="80" t="s">
+        <v>334</v>
+      </c>
+      <c r="B87" s="80" t="s">
+        <v>248</v>
+      </c>
+      <c r="C87" s="80"/>
+      <c r="D87" s="81"/>
+      <c r="E87" s="81" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="80" t="s">
+        <v>336</v>
+      </c>
+      <c r="B88" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="C88" s="80"/>
+      <c r="D88" s="81"/>
+      <c r="E88" s="81" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="80" t="s">
+        <v>338</v>
+      </c>
+      <c r="B89" s="80" t="s">
+        <v>248</v>
+      </c>
+      <c r="C89" s="80" t="s">
+        <v>245</v>
+      </c>
+      <c r="D89" s="81"/>
+      <c r="E89" s="81" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="80" t="s">
+        <v>340</v>
+      </c>
+      <c r="B90" s="80" t="s">
+        <v>341</v>
+      </c>
+      <c r="C90" s="80"/>
+      <c r="D90" s="81">
+        <v>0</v>
+      </c>
+      <c r="E90" s="81" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="80" t="s">
+        <v>343</v>
+      </c>
+      <c r="B91" s="80" t="s">
+        <v>344</v>
+      </c>
+      <c r="C91" s="80"/>
+      <c r="D91" s="81">
+        <v>0</v>
+      </c>
+      <c r="E91" s="81" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="80" t="s">
+        <v>346</v>
+      </c>
+      <c r="B92" s="80" t="s">
+        <v>344</v>
+      </c>
+      <c r="C92" s="80"/>
+      <c r="D92" s="81">
+        <v>0</v>
+      </c>
+      <c r="E92" s="81" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="80" t="s">
+        <v>348</v>
+      </c>
+      <c r="B93" s="80" t="s">
+        <v>276</v>
+      </c>
+      <c r="C93" s="80" t="s">
+        <v>245</v>
+      </c>
+      <c r="D93" s="81"/>
+      <c r="E93" s="81" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="80" t="s">
+        <v>350</v>
+      </c>
+      <c r="B94" s="80" t="s">
+        <v>344</v>
+      </c>
+      <c r="C94" s="80"/>
+      <c r="D94" s="81">
+        <v>0</v>
+      </c>
+      <c r="E94" s="81" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="80" t="s">
+        <v>352</v>
+      </c>
+      <c r="B95" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="C95" s="80" t="s">
+        <v>245</v>
+      </c>
+      <c r="D95" s="81"/>
+      <c r="E95" s="81" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="77" t="s">
+        <v>354</v>
+      </c>
+      <c r="B96" s="78"/>
+      <c r="C96" s="78"/>
+      <c r="D96" s="78"/>
+      <c r="E96" s="79"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="80" t="s">
+        <v>338</v>
+      </c>
+      <c r="B97" s="80" t="s">
+        <v>248</v>
+      </c>
+      <c r="C97" s="80"/>
+      <c r="D97" s="81"/>
+      <c r="E97" s="81" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="80" t="s">
+        <v>356</v>
+      </c>
+      <c r="B98" s="80" t="s">
+        <v>248</v>
+      </c>
+      <c r="C98" s="80"/>
+      <c r="D98" s="81"/>
+      <c r="E98" s="81" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="80" t="s">
+        <v>358</v>
+      </c>
+      <c r="B99" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="C99" s="80"/>
+      <c r="D99" s="81"/>
+      <c r="E99" s="81" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="80" t="s">
+        <v>360</v>
+      </c>
+      <c r="B100" s="80" t="s">
+        <v>276</v>
+      </c>
+      <c r="C100" s="80"/>
+      <c r="D100" s="81"/>
+      <c r="E100" s="81" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="80" t="s">
+        <v>362</v>
+      </c>
+      <c r="B101" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="C101" s="80" t="s">
+        <v>245</v>
+      </c>
+      <c r="D101" s="81"/>
+      <c r="E101" s="81" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="80" t="s">
+        <v>364</v>
+      </c>
+      <c r="B102" s="80" t="s">
+        <v>276</v>
+      </c>
+      <c r="C102" s="80" t="s">
+        <v>245</v>
+      </c>
+      <c r="D102" s="81"/>
+      <c r="E102" s="81" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="82" t="s">
+        <v>366</v>
+      </c>
+      <c r="B103" s="83" t="s">
+        <v>367</v>
+      </c>
+      <c r="C103" s="83" t="s">
+        <v>245</v>
+      </c>
+      <c r="D103" s="84"/>
+      <c r="E103" s="85" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="82" t="s">
+        <v>369</v>
+      </c>
+      <c r="B104" s="83" t="s">
+        <v>367</v>
+      </c>
+      <c r="C104" s="83" t="s">
+        <v>245</v>
+      </c>
+      <c r="D104" s="84"/>
+      <c r="E104" s="85" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="77" t="s">
+        <v>371</v>
+      </c>
+      <c r="B105" s="78"/>
+      <c r="C105" s="78"/>
+      <c r="D105" s="78"/>
+      <c r="E105" s="79"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="80" t="s">
+        <v>338</v>
+      </c>
+      <c r="B106" s="80" t="s">
+        <v>248</v>
+      </c>
+      <c r="C106" s="80"/>
+      <c r="D106" s="81"/>
+      <c r="E106" s="81" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="80" t="s">
+        <v>356</v>
+      </c>
+      <c r="B107" s="80" t="s">
+        <v>248</v>
+      </c>
+      <c r="C107" s="80"/>
+      <c r="D107" s="81"/>
+      <c r="E107" s="81" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="80" t="s">
+        <v>358</v>
+      </c>
+      <c r="B108" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="C108" s="80"/>
+      <c r="D108" s="81"/>
+      <c r="E108" s="81" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="80" t="s">
+        <v>360</v>
+      </c>
+      <c r="B109" s="80" t="s">
+        <v>276</v>
+      </c>
+      <c r="C109" s="80"/>
+      <c r="D109" s="81"/>
+      <c r="E109" s="81" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="80" t="s">
+        <v>362</v>
+      </c>
+      <c r="B110" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="C110" s="80" t="s">
+        <v>245</v>
+      </c>
+      <c r="D110" s="81"/>
+      <c r="E110" s="81" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="80" t="s">
+        <v>364</v>
+      </c>
+      <c r="B111" s="80" t="s">
+        <v>276</v>
+      </c>
+      <c r="C111" s="80" t="s">
+        <v>245</v>
+      </c>
+      <c r="D111" s="81"/>
+      <c r="E111" s="81" t="s">
+        <v>365</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A96:E96"/>
+    <mergeCell ref="A105:E105"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A20:A26"/>
@@ -8808,12 +9853,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F132"/>
+  <dimension ref="A1:F138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A133" sqref="A133"/>
+      <selection pane="bottomLeft" activeCell="C159" sqref="C159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -8827,1196 +9872,1264 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>323</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:6">
       <c r="A2" t="s">
-        <v>324</v>
+        <v>373</v>
       </c>
       <c r="B2" t="s">
-        <v>325</v>
+        <v>374</v>
       </c>
       <c r="D2" t="s">
-        <v>326</v>
+        <v>375</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="F2" s="43">
+        <v>376</v>
+      </c>
+      <c r="F2" s="46">
         <v>43095</v>
       </c>
     </row>
     <row r="3" hidden="1" spans="1:4">
       <c r="A3" t="s">
-        <v>328</v>
+        <v>377</v>
       </c>
       <c r="B3" t="s">
-        <v>329</v>
+        <v>378</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="D3" t="s">
-        <v>331</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>332</v>
+        <v>381</v>
       </c>
       <c r="B4" t="s">
-        <v>333</v>
+        <v>382</v>
       </c>
       <c r="D4" t="s">
-        <v>334</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" hidden="1" spans="1:3">
       <c r="A5" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" hidden="1" spans="1:5">
       <c r="A6" t="s">
-        <v>336</v>
+        <v>385</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="D6" t="s">
-        <v>337</v>
+        <v>386</v>
       </c>
       <c r="E6" t="s">
-        <v>338</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" hidden="1" spans="1:4">
       <c r="A7" t="s">
-        <v>339</v>
+        <v>388</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="D7" t="s">
-        <v>340</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8" ht="27" hidden="1" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>341</v>
+        <v>390</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>342</v>
+        <v>391</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" hidden="1" spans="1:3">
       <c r="A9" t="s">
-        <v>343</v>
+        <v>392</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" hidden="1" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>344</v>
+        <v>393</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>345</v>
+        <v>394</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="D10" t="s">
-        <v>340</v>
-      </c>
-      <c r="E10" s="43">
+        <v>389</v>
+      </c>
+      <c r="E10" s="46">
         <v>43118</v>
       </c>
     </row>
     <row r="11" hidden="1" spans="1:5">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
-        <v>346</v>
+        <v>395</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="D11" t="s">
-        <v>347</v>
-      </c>
-      <c r="E11" s="43">
+        <v>396</v>
+      </c>
+      <c r="E11" s="46">
         <v>43118</v>
       </c>
     </row>
     <row r="12" hidden="1" spans="1:3">
       <c r="A12" t="s">
-        <v>348</v>
+        <v>397</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" ht="71.25" hidden="1" spans="1:3">
-      <c r="A13" s="44">
+      <c r="A13" s="47">
         <v>43124</v>
       </c>
-      <c r="B13" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>330</v>
+      <c r="B13" s="48" t="s">
+        <v>398</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="14" ht="42.75" hidden="1" spans="1:3">
-      <c r="A14" s="44">
+      <c r="A14" s="47">
         <v>43125</v>
       </c>
-      <c r="B14" s="45" t="s">
-        <v>350</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>330</v>
+      <c r="B14" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="15" ht="14.25" hidden="1" spans="1:3">
-      <c r="A15" s="44">
+      <c r="A15" s="47">
         <v>43126</v>
       </c>
-      <c r="B15" s="47" t="s">
-        <v>351</v>
+      <c r="B15" s="50" t="s">
+        <v>400</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" ht="14.25" hidden="1" spans="1:3">
-      <c r="A16" s="44">
+      <c r="A16" s="47">
         <v>43129</v>
       </c>
-      <c r="B16" s="47" t="s">
-        <v>352</v>
+      <c r="B16" s="50" t="s">
+        <v>401</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" ht="14.25" hidden="1" spans="1:3">
-      <c r="A17" s="48">
+      <c r="A17" s="51">
         <v>43130</v>
       </c>
-      <c r="B17" s="47" t="s">
-        <v>353</v>
+      <c r="B17" s="50" t="s">
+        <v>402</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" ht="14.25" hidden="1" spans="1:3">
-      <c r="A18" s="48">
+      <c r="A18" s="51">
         <v>43131</v>
       </c>
-      <c r="B18" s="47" t="s">
-        <v>354</v>
+      <c r="B18" s="50" t="s">
+        <v>403</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" ht="14.25" hidden="1" spans="1:3">
-      <c r="A19" s="48">
+      <c r="A19" s="51">
         <v>43132</v>
       </c>
-      <c r="B19" s="46" t="s">
-        <v>355</v>
+      <c r="B19" s="49" t="s">
+        <v>404</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" ht="28.5" hidden="1" spans="1:3">
-      <c r="A20" s="48">
+      <c r="A20" s="51">
         <v>43133</v>
       </c>
-      <c r="B20" s="46" t="s">
-        <v>356</v>
+      <c r="B20" s="49" t="s">
+        <v>405</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" ht="14.25" hidden="1" spans="1:3">
-      <c r="A21" s="48">
+      <c r="A21" s="51">
         <v>43136</v>
       </c>
-      <c r="B21" s="47" t="s">
-        <v>357</v>
+      <c r="B21" s="50" t="s">
+        <v>406</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" ht="14.25" hidden="1" spans="1:4">
-      <c r="A22" s="47" t="s">
-        <v>358</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>359</v>
+      <c r="A22" s="50" t="s">
+        <v>407</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>408</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="D22" s="47"/>
+        <v>379</v>
+      </c>
+      <c r="D22" s="50"/>
     </row>
     <row r="23" ht="14.25" hidden="1" spans="1:4">
-      <c r="A23" s="47"/>
-      <c r="B23" s="47" t="s">
-        <v>360</v>
+      <c r="A23" s="50"/>
+      <c r="B23" s="50" t="s">
+        <v>409</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>361</v>
+        <v>379</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="24" ht="14.25" hidden="1" spans="1:5">
-      <c r="A24" s="47" t="s">
-        <v>362</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>363</v>
+      <c r="A24" s="50" t="s">
+        <v>411</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="D24" s="46"/>
+        <v>379</v>
+      </c>
+      <c r="D24" s="49"/>
       <c r="E24" t="s">
-        <v>364</v>
+        <v>413</v>
       </c>
     </row>
     <row r="25" hidden="1" spans="2:5">
       <c r="B25" s="5"/>
       <c r="C25" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="E25" t="s">
-        <v>365</v>
+        <v>414</v>
       </c>
     </row>
     <row r="26" hidden="1" spans="1:4">
       <c r="A26" t="s">
-        <v>366</v>
+        <v>415</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>367</v>
+        <v>416</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="D26" t="s">
-        <v>368</v>
+        <v>417</v>
       </c>
     </row>
     <row r="27" hidden="1" spans="1:3">
       <c r="A27" t="s">
-        <v>369</v>
+        <v>418</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>370</v>
+        <v>419</v>
       </c>
       <c r="B28" t="s">
-        <v>371</v>
+        <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
     </row>
     <row r="30" hidden="1" spans="1:3">
       <c r="A30" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31" hidden="1" spans="1:3">
       <c r="A31" t="s">
-        <v>374</v>
+        <v>423</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" hidden="1" spans="1:3">
       <c r="A32" t="s">
-        <v>375</v>
+        <v>424</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="33" hidden="1" spans="1:3">
       <c r="A33" t="s">
-        <v>376</v>
+        <v>425</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="34" hidden="1" spans="1:3">
       <c r="A34" t="s">
-        <v>377</v>
+        <v>426</v>
       </c>
       <c r="B34" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35" hidden="1" spans="1:3">
       <c r="A35" t="s">
+        <v>428</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>379</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>380</v>
+        <v>429</v>
       </c>
       <c r="B36" t="s">
-        <v>381</v>
+        <v>430</v>
       </c>
     </row>
     <row r="37" hidden="1" spans="1:3">
       <c r="A37" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38" hidden="1" spans="1:3">
       <c r="A38" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39" hidden="1" spans="1:3">
       <c r="A39" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="40" ht="40.5" hidden="1" spans="1:3">
       <c r="A40" s="5" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="41" ht="40" customHeight="1" spans="1:2">
       <c r="A41" s="5" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
     </row>
     <row r="42" hidden="1" spans="1:3">
       <c r="A42" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43" hidden="1" spans="1:3">
       <c r="A43" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="44" hidden="1" spans="1:4">
       <c r="A44" s="4" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="D44" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
     </row>
     <row r="45" hidden="1" spans="1:4">
       <c r="A45" s="4" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="D45" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
     </row>
     <row r="46" hidden="1" spans="1:4">
-      <c r="A46" s="49" t="s">
-        <v>396</v>
-      </c>
-      <c r="B46" s="50"/>
+      <c r="A46" s="52" t="s">
+        <v>445</v>
+      </c>
+      <c r="B46" s="53"/>
       <c r="C46" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="D46" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
     </row>
     <row r="47" hidden="1" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="D47" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>340</v>
+        <v>389</v>
       </c>
     </row>
     <row r="49" hidden="1" spans="1:3">
       <c r="A49" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50" hidden="1" spans="1:3">
       <c r="A50" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="B50" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
     </row>
     <row r="52" hidden="1" spans="1:3">
       <c r="A52" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="B52" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" hidden="1" spans="1:3">
       <c r="A53" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="54" hidden="1" spans="1:3">
       <c r="A54" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="55" hidden="1" spans="1:3">
       <c r="A55" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="56" hidden="1" spans="1:3">
       <c r="A56" t="s">
-        <v>410</v>
+        <v>459</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="57" hidden="1" spans="1:3">
       <c r="A57" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="58" hidden="1" spans="1:3">
       <c r="A58" t="s">
-        <v>412</v>
+        <v>461</v>
       </c>
       <c r="B58" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="59" hidden="1" spans="1:3">
       <c r="A59" t="s">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="B59" t="s">
-        <v>415</v>
+        <v>464</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="60" hidden="1" spans="1:3">
       <c r="A60" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="61" hidden="1" spans="1:3">
       <c r="A61" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="62" hidden="1" spans="1:3">
       <c r="A62" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="63" hidden="1" spans="1:3">
       <c r="A63" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="64" hidden="1" spans="1:3">
       <c r="A64" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="65" hidden="1" spans="1:3">
       <c r="A65" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="B65" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
     </row>
     <row r="67" hidden="1" spans="1:3">
       <c r="A67" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="B67" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="68" hidden="1" spans="1:3">
       <c r="A68" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="69" hidden="1" spans="1:3">
       <c r="A69" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="B69" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="70" hidden="1" spans="1:3">
       <c r="A70" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="71" hidden="1" spans="1:3">
       <c r="A71" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="72" hidden="1" spans="1:3">
       <c r="A72" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
       <c r="B72" t="s">
-        <v>432</v>
+        <v>481</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="73" hidden="1" spans="1:3">
       <c r="A73" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
       <c r="B73" t="s">
-        <v>381</v>
+        <v>430</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="B74" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
     </row>
     <row r="75" ht="27" hidden="1" spans="1:3">
       <c r="A75" s="5" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="76" ht="67.5" spans="1:1">
       <c r="A76" s="5" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
     </row>
     <row r="78" hidden="1" spans="1:3">
       <c r="A78" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="B78" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="79" hidden="1" spans="1:3">
       <c r="A79" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="B79" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="80" hidden="1" spans="1:3">
       <c r="A80" t="s">
-        <v>443</v>
+        <v>492</v>
       </c>
       <c r="B80" t="s">
-        <v>432</v>
+        <v>481</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="81" hidden="1" spans="1:3">
       <c r="A81" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="B82" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
     </row>
     <row r="83" hidden="1" spans="1:3">
       <c r="A83" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="84" ht="105" hidden="1" customHeight="1" spans="1:3">
       <c r="A84" s="5" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="85" hidden="1" spans="1:3">
       <c r="A85" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="86" hidden="1" spans="1:3">
       <c r="A86" t="s">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="87" hidden="1" spans="1:3">
       <c r="A87" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="88" hidden="1" spans="1:3">
       <c r="A88" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>454</v>
+        <v>503</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="89" ht="40.5" spans="1:3">
       <c r="A89" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>456</v>
+        <v>505</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>457</v>
+        <v>506</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>458</v>
+        <v>507</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>459</v>
+        <v>508</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>460</v>
+        <v>509</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>461</v>
+        <v>510</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>462</v>
+        <v>511</v>
       </c>
       <c r="B95" t="s">
-        <v>463</v>
+        <v>512</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>464</v>
+        <v>513</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>465</v>
+        <v>514</v>
       </c>
       <c r="B97" t="s">
-        <v>466</v>
+        <v>515</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>467</v>
+        <v>516</v>
       </c>
       <c r="B98" t="s">
-        <v>381</v>
+        <v>430</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>468</v>
+        <v>517</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>469</v>
+        <v>518</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>471</v>
+        <v>520</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="103" ht="40.5" spans="1:3">
       <c r="A103" t="s">
-        <v>472</v>
+        <v>521</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>473</v>
+        <v>522</v>
       </c>
       <c r="C103"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>474</v>
+        <v>523</v>
       </c>
       <c r="B104" t="s">
-        <v>475</v>
+        <v>524</v>
       </c>
       <c r="C104"/>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>476</v>
+        <v>525</v>
       </c>
       <c r="C105"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>477</v>
+        <v>526</v>
       </c>
       <c r="B106" t="s">
-        <v>478</v>
+        <v>527</v>
       </c>
       <c r="C106"/>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>479</v>
+        <v>528</v>
       </c>
       <c r="C107"/>
     </row>
     <row r="108" ht="81" spans="1:4">
       <c r="A108" t="s">
-        <v>480</v>
+        <v>529</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>481</v>
+        <v>530</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>482</v>
+        <v>531</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>483</v>
+        <v>532</v>
       </c>
     </row>
     <row r="109" ht="81" spans="1:2">
       <c r="A109" t="s">
-        <v>484</v>
+        <v>533</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>485</v>
+        <v>534</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>486</v>
+        <v>535</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>487</v>
+        <v>536</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>488</v>
+        <v>537</v>
       </c>
       <c r="B112" t="s">
-        <v>489</v>
+        <v>538</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>490</v>
+        <v>539</v>
       </c>
       <c r="B113" t="s">
-        <v>491</v>
+        <v>540</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>492</v>
+        <v>541</v>
       </c>
       <c r="B114" t="s">
-        <v>493</v>
+        <v>542</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>494</v>
+        <v>543</v>
       </c>
       <c r="B115" t="s">
-        <v>495</v>
+        <v>544</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>496</v>
+        <v>545</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>497</v>
+        <v>546</v>
       </c>
       <c r="B117" t="s">
-        <v>498</v>
+        <v>547</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>499</v>
+        <v>548</v>
       </c>
       <c r="B118" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="119" ht="94.5" spans="1:2">
       <c r="A119" t="s">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>501</v>
+        <v>550</v>
       </c>
     </row>
     <row r="120" ht="94.5" spans="1:1">
       <c r="A120" s="5" t="s">
-        <v>502</v>
+        <v>551</v>
       </c>
     </row>
     <row r="121" ht="54" spans="1:1">
       <c r="A121" s="5" t="s">
-        <v>503</v>
+        <v>552</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="123" ht="27" spans="1:2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="123" ht="27" spans="1:3">
       <c r="A123" t="s">
-        <v>505</v>
+        <v>554</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>506</v>
+        <v>555</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="124" ht="40.5" spans="2:2">
       <c r="B124" s="5" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="125" ht="15.75" spans="1:1">
-      <c r="A125" s="51" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="126" ht="15.75" spans="1:1">
-      <c r="A126" s="52" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="127" ht="15.75" spans="1:1">
-      <c r="A127" s="52" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="128" ht="15.75" spans="1:1">
-      <c r="A128" s="52" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="125" ht="15.75" spans="1:3">
+      <c r="A125" s="54" t="s">
+        <v>557</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="126" ht="15.75" spans="1:3">
+      <c r="A126" s="55" t="s">
+        <v>558</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="127" ht="15.75" spans="1:3">
+      <c r="A127" s="55" t="s">
+        <v>559</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="128" ht="15.75" spans="1:3">
+      <c r="A128" s="55" t="s">
+        <v>560</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
+        <v>561</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>513</v>
+        <v>562</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>515</v>
+        <v>564</v>
+      </c>
+      <c r="B132" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>566</v>
+      </c>
+      <c r="B133" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>569</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>571</v>
+      </c>
+      <c r="B136" s="6"/>
+      <c r="C136" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>573</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F124">
+  <autoFilter ref="A1:F138">
     <filterColumn colId="2">
       <filters blank="1"/>
     </filterColumn>
     <extLst/>
   </autoFilter>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B135:B136"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A47" r:id="rId2" display="http://localhost:8080//BASE_JAVA/chartAction/getZHT_LJ.do" tooltip="http://localhost:8080//BASE_JAVA/chartAction/getZHT_LJ.do"/>
@@ -10033,10 +11146,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -10052,570 +11165,595 @@
   <sheetData>
     <row r="1" ht="27" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>516</v>
+        <v>574</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>517</v>
+        <v>575</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>518</v>
+        <v>576</v>
       </c>
       <c r="D1" t="s">
-        <v>519</v>
+        <v>577</v>
       </c>
     </row>
     <row r="2" ht="67.5" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>520</v>
+        <v>578</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>521</v>
+        <v>579</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>522</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="18" t="s">
-        <v>523</v>
+      <c r="A3" s="19" t="s">
+        <v>581</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>524</v>
+        <v>582</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="18"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="5" t="s">
-        <v>525</v>
+        <v>583</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="5" t="s">
-        <v>526</v>
+        <v>584</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="5" t="s">
-        <v>527</v>
+        <v>585</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="18"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="5" t="s">
-        <v>528</v>
+        <v>586</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="18"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="5" t="s">
-        <v>529</v>
+        <v>587</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="5" t="s">
-        <v>530</v>
+        <v>588</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="5" t="s">
-        <v>531</v>
+        <v>589</v>
       </c>
     </row>
     <row r="11" ht="106.5" spans="1:3">
       <c r="A11" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>533</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>534</v>
+        <v>590</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>591</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="12" ht="121.5" spans="1:3">
       <c r="A12" s="5" t="s">
-        <v>535</v>
+        <v>593</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>537</v>
+        <v>594</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="13" ht="40.5" spans="1:3">
-      <c r="A13" s="26" t="s">
-        <v>538</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>539</v>
+      <c r="A13" s="29" t="s">
+        <v>596</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>597</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>540</v>
+        <v>598</v>
       </c>
     </row>
     <row r="14" ht="40.5" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>541</v>
+        <v>599</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>542</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15" ht="40.5" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>543</v>
+        <v>601</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>544</v>
+        <v>602</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>545</v>
+        <v>603</v>
       </c>
       <c r="D15" t="s">
-        <v>546</v>
+        <v>604</v>
       </c>
     </row>
     <row r="16" ht="67.5" spans="1:3">
       <c r="A16" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>548</v>
+        <v>605</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>606</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>549</v>
+        <v>607</v>
       </c>
     </row>
     <row r="17" ht="135" spans="1:7">
       <c r="A17" s="5" t="s">
-        <v>550</v>
+        <v>608</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>552</v>
+        <v>609</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>610</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>554</v>
+        <v>611</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>612</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>555</v>
+        <v>613</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>556</v>
+        <v>614</v>
       </c>
     </row>
     <row r="18" ht="40.5" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>557</v>
+        <v>615</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>558</v>
+        <v>616</v>
       </c>
     </row>
     <row r="19" ht="40.5" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>559</v>
+        <v>617</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>560</v>
+        <v>618</v>
       </c>
     </row>
     <row r="20" ht="24" spans="1:3">
-      <c r="A20" s="30" t="s">
-        <v>561</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>562</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>563</v>
+      <c r="A20" s="33" t="s">
+        <v>619</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>620</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="21" ht="38.25" spans="1:3">
       <c r="A21" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>565</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>566</v>
+        <v>622</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>623</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="22" ht="79.5" spans="1:4">
       <c r="A22" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>568</v>
+        <v>625</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>626</v>
       </c>
       <c r="D22" t="s">
-        <v>569</v>
+        <v>627</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>571</v>
+        <v>628</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="24" ht="108" spans="1:5">
       <c r="A24" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>573</v>
+        <v>630</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>631</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>574</v>
+        <v>632</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>575</v>
+        <v>633</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>576</v>
+        <v>634</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:5">
       <c r="A25" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>578</v>
+        <v>635</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>636</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>579</v>
+        <v>637</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>580</v>
+        <v>638</v>
       </c>
       <c r="E25" t="s">
-        <v>581</v>
+        <v>639</v>
       </c>
     </row>
     <row r="26" ht="68.25" spans="1:2">
       <c r="A26" s="5" t="s">
-        <v>582</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>583</v>
+        <v>640</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="27" ht="94.5" spans="1:2">
       <c r="A27" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>585</v>
+        <v>642</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>587</v>
+        <v>644</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="29" ht="40.5" spans="1:2">
       <c r="A29" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>589</v>
+        <v>646</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="30" ht="27" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>591</v>
+        <v>648</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="31" ht="27" spans="1:2">
       <c r="A31" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="B31" s="37" t="s">
-        <v>593</v>
+        <v>650</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="32" ht="27" spans="1:2">
       <c r="A32" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="B32" s="37" t="s">
-        <v>595</v>
+        <v>652</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="33" ht="81" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>597</v>
+        <v>654</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="B34" s="38"/>
+        <v>656</v>
+      </c>
+      <c r="B34" s="41"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="5" t="s">
-        <v>599</v>
-      </c>
-      <c r="B35" s="38"/>
+        <v>657</v>
+      </c>
+      <c r="B35" s="41"/>
     </row>
     <row r="36" ht="40.5" spans="1:3">
       <c r="A36" s="5" t="s">
-        <v>600</v>
+        <v>658</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>601</v>
+        <v>659</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>602</v>
+        <v>660</v>
       </c>
     </row>
     <row r="37" ht="94.5" spans="1:3">
       <c r="A37" s="5" t="s">
-        <v>603</v>
+        <v>661</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>604</v>
+        <v>662</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>605</v>
+        <v>663</v>
       </c>
     </row>
     <row r="38" ht="27" spans="1:2">
       <c r="A38" s="5" t="s">
-        <v>606</v>
+        <v>664</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>607</v>
+        <v>665</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>609</v>
+        <v>666</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="39" t="s">
-        <v>610</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>611</v>
+      <c r="A40" s="42" t="s">
+        <v>668</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="39" t="s">
-        <v>612</v>
+      <c r="A41" s="42" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="5" t="s">
-        <v>613</v>
+        <v>671</v>
       </c>
     </row>
     <row r="43" ht="27" spans="1:2">
       <c r="A43" s="5" t="s">
-        <v>614</v>
+        <v>672</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>615</v>
+        <v>673</v>
       </c>
     </row>
     <row r="44" ht="17.25" spans="1:2">
       <c r="A44" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="B44" s="40" t="s">
-        <v>617</v>
+        <v>674</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="45" ht="67.5" spans="1:2">
       <c r="A45" s="5" t="s">
-        <v>618</v>
+        <v>676</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>619</v>
+        <v>677</v>
       </c>
     </row>
     <row r="46" ht="27" spans="1:2">
       <c r="A46" s="5" t="s">
-        <v>620</v>
+        <v>678</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>621</v>
+        <v>679</v>
       </c>
     </row>
     <row r="47" ht="27" spans="1:2">
       <c r="A47" s="5" t="s">
-        <v>622</v>
+        <v>680</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>623</v>
+        <v>681</v>
       </c>
     </row>
     <row r="48" ht="67.5" spans="1:2">
       <c r="A48" s="5" t="s">
-        <v>624</v>
+        <v>682</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>625</v>
+        <v>683</v>
       </c>
     </row>
     <row r="49" ht="27" spans="2:2">
       <c r="B49" s="5" t="s">
-        <v>626</v>
+        <v>684</v>
       </c>
     </row>
     <row r="50" ht="108" spans="1:3">
       <c r="A50" s="5" t="s">
-        <v>627</v>
+        <v>685</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>628</v>
+        <v>686</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>629</v>
+        <v>687</v>
       </c>
     </row>
     <row r="51" ht="27" spans="2:2">
       <c r="B51" s="5" t="s">
-        <v>630</v>
+        <v>688</v>
       </c>
     </row>
     <row r="52" ht="27" spans="1:2">
       <c r="A52" s="5" t="s">
-        <v>631</v>
+        <v>689</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>632</v>
+        <v>690</v>
       </c>
     </row>
     <row r="53" ht="94.5" spans="1:4">
-      <c r="A53" s="41" t="s">
-        <v>633</v>
+      <c r="A53" s="44" t="s">
+        <v>691</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>634</v>
+        <v>692</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>635</v>
+        <v>693</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>636</v>
+        <v>694</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="5" t="s">
-        <v>637</v>
+        <v>695</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="5" t="s">
-        <v>638</v>
+        <v>696</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>639</v>
+        <v>697</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>640</v>
+        <v>698</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="5" t="s">
-        <v>641</v>
+        <v>699</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="5" t="s">
-        <v>642</v>
+        <v>700</v>
       </c>
     </row>
     <row r="59" ht="15" spans="1:1">
-      <c r="A59" s="42" t="s">
-        <v>643</v>
+      <c r="A59" s="45" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>644</v>
+        <v>702</v>
       </c>
       <c r="B60"/>
     </row>
     <row r="61" ht="54" spans="1:2">
       <c r="A61" s="5" t="s">
-        <v>645</v>
+        <v>703</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>646</v>
+        <v>704</v>
       </c>
     </row>
     <row r="62" ht="27" spans="1:2">
       <c r="A62" s="5" t="s">
-        <v>647</v>
+        <v>705</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>648</v>
+        <v>706</v>
       </c>
     </row>
     <row r="63" ht="27" spans="1:1">
       <c r="A63" s="5" t="s">
-        <v>649</v>
+        <v>707</v>
       </c>
     </row>
     <row r="64" ht="27" spans="1:1">
       <c r="A64" s="5" t="s">
-        <v>650</v>
+        <v>708</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="5" t="s">
-        <v>651</v>
+        <v>709</v>
       </c>
     </row>
     <row r="66" ht="27" spans="1:1">
       <c r="A66" s="5" t="s">
-        <v>652</v>
+        <v>710</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="5" t="s">
-        <v>653</v>
+        <v>711</v>
       </c>
     </row>
     <row r="68" ht="27" spans="1:1">
       <c r="A68" s="5" t="s">
-        <v>654</v>
+        <v>712</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="5" t="s">
-        <v>655</v>
+        <v>713</v>
+      </c>
+    </row>
+    <row r="70" ht="214" customHeight="1" spans="1:5">
+      <c r="A70" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="71" ht="148.5" spans="1:2">
+      <c r="A71" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -10624,6 +11762,7 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10645,48 +11784,48 @@
   <sheetData>
     <row r="1" ht="27" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>656</v>
+        <v>721</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>657</v>
+        <v>722</v>
       </c>
     </row>
     <row r="2" ht="40.5" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>658</v>
+        <v>723</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>659</v>
+        <v>724</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>660</v>
+        <v>725</v>
       </c>
     </row>
     <row r="3" ht="54" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>661</v>
+        <v>726</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>662</v>
+        <v>727</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>660</v>
+        <v>725</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>663</v>
+        <v>728</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>660</v>
+        <v>725</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>664</v>
+        <v>729</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>660</v>
+        <v>725</v>
       </c>
     </row>
   </sheetData>
@@ -10698,10 +11837,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E162"/>
+  <dimension ref="A1:E171"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="B168" sqref="B168"/>
+    <sheetView topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="D166" sqref="D166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -10713,14 +11852,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="1:4">
-      <c r="A1" s="15">
+      <c r="A1" s="16">
         <v>43171</v>
       </c>
       <c r="B1" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>665</v>
+        <v>730</v>
       </c>
     </row>
     <row r="2" spans="2:4">
@@ -10728,1579 +11867,1653 @@
         <v>33</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>666</v>
+        <v>731</v>
       </c>
       <c r="D2" s="5"/>
     </row>
     <row r="3" ht="27" spans="2:4">
       <c r="B3" t="s">
-        <v>667</v>
+        <v>732</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>668</v>
+        <v>733</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>669</v>
+        <v>734</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:4">
-      <c r="A4" s="15">
+      <c r="A4" s="16">
         <v>43172</v>
       </c>
       <c r="B4" t="s">
-        <v>670</v>
+        <v>735</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>671</v>
+        <v>736</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>672</v>
+        <v>737</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="15">
+      <c r="A5" s="16">
         <v>43173</v>
       </c>
       <c r="B5" t="s">
         <v>184</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>673</v>
+        <v>738</v>
       </c>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="15">
+      <c r="A6" s="16">
         <v>43174</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>674</v>
+        <v>739</v>
       </c>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="15">
+      <c r="A7" s="16">
         <v>43175</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>675</v>
+        <v>740</v>
       </c>
       <c r="D7" s="5"/>
     </row>
     <row r="8" ht="27" spans="1:4">
-      <c r="A8" s="15">
+      <c r="A8" s="16">
         <v>43176</v>
       </c>
       <c r="B8" t="s">
-        <v>676</v>
+        <v>741</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>677</v>
+        <v>742</v>
       </c>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="15">
+      <c r="A9" s="16">
         <v>43179</v>
       </c>
       <c r="B9" t="s">
         <v>184</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>678</v>
+        <v>743</v>
       </c>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="15">
+      <c r="A10" s="16">
         <v>43182</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>679</v>
+        <v>744</v>
       </c>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="15">
+      <c r="A11" s="16">
         <v>43185</v>
       </c>
       <c r="B11" t="s">
-        <v>680</v>
+        <v>745</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>681</v>
+        <v>746</v>
       </c>
     </row>
     <row r="12" ht="27" spans="1:4">
-      <c r="A12" s="15">
+      <c r="A12" s="16">
         <v>43187</v>
       </c>
       <c r="B12" t="s">
         <v>184</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>682</v>
+        <v>747</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>683</v>
+        <v>748</v>
       </c>
     </row>
     <row r="13" ht="27" spans="1:4">
-      <c r="A13" s="15">
+      <c r="A13" s="16">
         <v>43187</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>184</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>684</v>
+        <v>749</v>
       </c>
       <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="15">
+      <c r="A14" s="16">
         <v>43192</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>184</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>685</v>
+        <v>750</v>
       </c>
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="15">
+      <c r="A15" s="16">
         <v>43193</v>
       </c>
       <c r="B15" t="s">
         <v>184</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>686</v>
+        <v>751</v>
       </c>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="15">
+      <c r="A16" s="16">
         <v>43194</v>
       </c>
       <c r="B16" t="s">
-        <v>687</v>
+        <v>752</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>688</v>
+        <v>753</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>689</v>
+        <v>754</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:4">
-      <c r="A17" s="15">
+      <c r="A17" s="16">
         <v>43194</v>
       </c>
       <c r="B17" t="s">
-        <v>687</v>
+        <v>752</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>690</v>
+        <v>755</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>691</v>
+        <v>756</v>
       </c>
     </row>
     <row r="18" ht="27" spans="1:4">
-      <c r="A18" s="15">
+      <c r="A18" s="16">
         <v>43194</v>
       </c>
       <c r="B18" t="s">
-        <v>692</v>
+        <v>757</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>693</v>
+        <v>758</v>
       </c>
       <c r="D18" s="5"/>
     </row>
     <row r="19" ht="27" spans="1:4">
-      <c r="A19" s="15">
+      <c r="A19" s="16">
         <v>43198</v>
       </c>
       <c r="B19" t="s">
-        <v>694</v>
+        <v>759</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>695</v>
+        <v>760</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>696</v>
+        <v>761</v>
       </c>
     </row>
     <row r="20" ht="27" spans="1:4">
-      <c r="A20" s="15">
+      <c r="A20" s="16">
         <v>43199</v>
       </c>
       <c r="B20" t="s">
         <v>184</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>697</v>
+        <v>762</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>698</v>
+        <v>763</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="15">
+      <c r="A21" s="16">
         <v>43201</v>
       </c>
       <c r="B21" t="s">
         <v>184</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>699</v>
+        <v>764</v>
       </c>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="15">
+      <c r="A22" s="16">
         <v>43201</v>
       </c>
       <c r="B22" t="s">
         <v>184</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>700</v>
+        <v>765</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>701</v>
+        <v>766</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="15">
+      <c r="A23" s="16">
         <v>43202</v>
       </c>
       <c r="B23" t="s">
         <v>184</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>702</v>
+        <v>767</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>703</v>
+        <v>768</v>
       </c>
     </row>
     <row r="24" ht="54" spans="1:4">
-      <c r="A24" s="15">
+      <c r="A24" s="16">
         <v>43202</v>
       </c>
       <c r="B24" t="s">
         <v>184</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>704</v>
+        <v>769</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>705</v>
+        <v>770</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:4">
-      <c r="A25" s="15">
+      <c r="A25" s="16">
         <v>43202</v>
       </c>
       <c r="B25" t="s">
         <v>184</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>706</v>
+        <v>771</v>
       </c>
       <c r="D25" s="5"/>
     </row>
     <row r="26" ht="27" spans="1:4">
-      <c r="A26" s="15">
+      <c r="A26" s="16">
         <v>43207</v>
       </c>
       <c r="B26" t="s">
-        <v>707</v>
+        <v>772</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>708</v>
+        <v>773</v>
       </c>
       <c r="D26" s="5"/>
     </row>
     <row r="27" ht="40.5" spans="1:4">
-      <c r="A27" s="15">
+      <c r="A27" s="16">
         <v>43208</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>709</v>
+        <v>774</v>
       </c>
       <c r="D27" s="5"/>
     </row>
     <row r="28" ht="67.5" spans="1:5">
-      <c r="A28" s="15">
+      <c r="A28" s="16">
         <v>43209</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>710</v>
+        <v>775</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>711</v>
+        <v>776</v>
       </c>
       <c r="E28" t="s">
-        <v>712</v>
+        <v>777</v>
       </c>
     </row>
     <row r="29" ht="94.5" spans="1:4">
-      <c r="A29" s="15">
+      <c r="A29" s="16">
         <v>43210</v>
       </c>
       <c r="B29" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>713</v>
+        <v>778</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>714</v>
+        <v>779</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="15">
+      <c r="A30" s="16">
         <v>43214</v>
       </c>
       <c r="B30" t="s">
-        <v>715</v>
+        <v>780</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>716</v>
+        <v>781</v>
       </c>
       <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="15">
+      <c r="A31" s="16">
         <v>43214</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>717</v>
+        <v>782</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>718</v>
+        <v>783</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="15">
+      <c r="A32" s="16">
         <v>43215</v>
       </c>
       <c r="B32" t="s">
-        <v>707</v>
+        <v>772</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>719</v>
+        <v>784</v>
       </c>
       <c r="D32" s="5"/>
     </row>
     <row r="33" ht="27" spans="1:4">
-      <c r="A33" s="15">
+      <c r="A33" s="16">
         <v>43216</v>
       </c>
       <c r="B33" t="s">
-        <v>720</v>
+        <v>785</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>721</v>
+        <v>786</v>
       </c>
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="15">
+      <c r="A34" s="16">
         <v>43217</v>
       </c>
       <c r="B34" t="s">
-        <v>720</v>
+        <v>785</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>722</v>
+        <v>787</v>
       </c>
       <c r="D34" s="5"/>
     </row>
     <row r="35" ht="40.5" spans="1:4">
-      <c r="A35" s="15" t="s">
-        <v>723</v>
+      <c r="A35" s="16" t="s">
+        <v>788</v>
       </c>
       <c r="B35" t="s">
-        <v>724</v>
+        <v>789</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>725</v>
+        <v>790</v>
       </c>
       <c r="D35" s="5"/>
     </row>
     <row r="36" ht="67.5" spans="1:4">
-      <c r="A36" s="15">
+      <c r="A36" s="16">
         <v>43228</v>
       </c>
       <c r="B36" t="s">
         <v>184</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>726</v>
+        <v>791</v>
       </c>
       <c r="D36" s="5"/>
     </row>
     <row r="37" ht="27" spans="1:4">
-      <c r="A37" s="15">
+      <c r="A37" s="16">
         <v>43228</v>
       </c>
       <c r="B37" t="s">
         <v>2</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>727</v>
+        <v>792</v>
       </c>
       <c r="D37" s="5"/>
     </row>
     <row r="38" ht="40.5" spans="1:4">
-      <c r="A38" s="15">
+      <c r="A38" s="16">
         <v>43229</v>
       </c>
       <c r="B38" t="s">
-        <v>728</v>
+        <v>793</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>729</v>
+        <v>794</v>
       </c>
       <c r="D38" s="5"/>
     </row>
     <row r="39" ht="54" spans="1:4">
-      <c r="A39" s="15">
+      <c r="A39" s="16">
         <v>43230</v>
       </c>
       <c r="B39" t="s">
-        <v>730</v>
+        <v>795</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>731</v>
+        <v>796</v>
       </c>
       <c r="D39" s="5"/>
     </row>
     <row r="40" ht="27" spans="1:4">
-      <c r="A40" s="15">
+      <c r="A40" s="16">
         <v>43230</v>
       </c>
       <c r="B40" t="s">
-        <v>732</v>
+        <v>797</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>733</v>
+        <v>798</v>
       </c>
       <c r="D40" s="5"/>
     </row>
     <row r="41" ht="40.5" spans="1:4">
-      <c r="A41" s="15">
+      <c r="A41" s="16">
         <v>43234</v>
       </c>
       <c r="B41" t="s">
         <v>184</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>734</v>
+        <v>799</v>
       </c>
       <c r="D41" s="5"/>
     </row>
     <row r="42" ht="27" spans="1:4">
-      <c r="A42" s="17">
+      <c r="A42" s="18">
         <v>43235</v>
       </c>
       <c r="B42" t="s">
         <v>184</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>735</v>
+        <v>800</v>
       </c>
       <c r="D42" s="5"/>
     </row>
     <row r="43" ht="40.5" spans="1:5">
-      <c r="A43" s="17">
+      <c r="A43" s="18">
         <v>43236</v>
       </c>
       <c r="B43" t="s">
-        <v>736</v>
+        <v>801</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>737</v>
+        <v>802</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>738</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>739</v>
+        <v>803</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="17">
+      <c r="A44" s="18">
         <v>43237</v>
       </c>
       <c r="B44" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>740</v>
+        <v>805</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
     </row>
     <row r="45" ht="40.5" spans="1:5">
-      <c r="A45" s="17">
+      <c r="A45" s="18">
         <v>43241</v>
       </c>
       <c r="B45" t="s">
         <v>47</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>741</v>
+        <v>806</v>
       </c>
       <c r="E45" s="6"/>
     </row>
     <row r="46" ht="108" spans="1:3">
-      <c r="A46" s="15">
+      <c r="A46" s="16">
         <v>43242</v>
       </c>
       <c r="B46" t="s">
         <v>184</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>742</v>
+        <v>807</v>
       </c>
     </row>
     <row r="47" ht="61" customHeight="1" spans="1:3">
-      <c r="A47" s="15">
+      <c r="A47" s="16">
         <v>43243</v>
       </c>
       <c r="B47" t="s">
         <v>184</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>743</v>
+        <v>808</v>
       </c>
     </row>
     <row r="48" ht="81" spans="1:4">
-      <c r="A48" s="19">
+      <c r="A48" s="20">
         <v>43244</v>
       </c>
       <c r="B48" t="s">
         <v>184</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>744</v>
+        <v>809</v>
       </c>
       <c r="D48" t="s">
-        <v>745</v>
+        <v>810</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="19"/>
+      <c r="A49" s="20"/>
       <c r="B49" t="s">
-        <v>746</v>
+        <v>811</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>747</v>
+        <v>812</v>
       </c>
     </row>
     <row r="50" ht="27" spans="1:3">
-      <c r="A50" s="20" t="s">
-        <v>748</v>
+      <c r="A50" s="21" t="s">
+        <v>813</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>749</v>
+        <v>814</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="20"/>
+      <c r="A51" s="21"/>
       <c r="C51" s="5" t="s">
-        <v>750</v>
+        <v>815</v>
       </c>
     </row>
     <row r="52" ht="27" spans="1:4">
-      <c r="A52" s="20"/>
+      <c r="A52" s="21"/>
       <c r="C52" s="5" t="s">
-        <v>751</v>
+        <v>816</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>752</v>
+        <v>817</v>
       </c>
     </row>
     <row r="53" ht="54" spans="1:4">
-      <c r="A53" s="20"/>
+      <c r="A53" s="21"/>
       <c r="C53" s="5" t="s">
-        <v>753</v>
+        <v>818</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>754</v>
+        <v>819</v>
       </c>
     </row>
     <row r="54" ht="40.5" spans="1:3">
-      <c r="A54" s="20"/>
+      <c r="A54" s="21"/>
       <c r="C54" s="5" t="s">
-        <v>755</v>
+        <v>820</v>
       </c>
     </row>
     <row r="55" ht="27" spans="1:3">
-      <c r="A55" s="20"/>
+      <c r="A55" s="21"/>
       <c r="C55" s="5" t="s">
-        <v>756</v>
+        <v>821</v>
       </c>
     </row>
     <row r="56" ht="27" spans="1:3">
-      <c r="A56" s="20"/>
+      <c r="A56" s="21"/>
       <c r="C56" s="5" t="s">
-        <v>757</v>
+        <v>822</v>
       </c>
     </row>
     <row r="57" ht="27" spans="1:3">
-      <c r="A57" s="15">
+      <c r="A57" s="16">
         <v>43251</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>758</v>
+        <v>823</v>
       </c>
     </row>
     <row r="58" ht="40.5" spans="1:3">
-      <c r="A58" s="15">
+      <c r="A58" s="16">
         <v>43252</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>759</v>
+        <v>824</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="15">
+      <c r="A59" s="16">
         <v>43255</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>760</v>
+        <v>825</v>
       </c>
     </row>
     <row r="60" ht="54" spans="1:3">
-      <c r="A60" s="15">
+      <c r="A60" s="16">
         <v>43256</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>761</v>
+        <v>826</v>
       </c>
     </row>
     <row r="61" ht="27" spans="1:3">
-      <c r="A61" s="15">
+      <c r="A61" s="16">
         <v>43256</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>762</v>
+        <v>827</v>
       </c>
     </row>
     <row r="62" ht="81" spans="1:3">
-      <c r="A62" s="15">
+      <c r="A62" s="16">
         <v>43257</v>
       </c>
       <c r="B62" t="s">
         <v>184</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>763</v>
+        <v>828</v>
       </c>
     </row>
     <row r="63" ht="40.5" spans="1:4">
-      <c r="A63" s="15">
+      <c r="A63" s="16">
         <v>43257</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>764</v>
+        <v>829</v>
       </c>
       <c r="D63" t="s">
-        <v>765</v>
+        <v>830</v>
       </c>
     </row>
     <row r="64" ht="27" spans="1:4">
-      <c r="A64" s="15">
+      <c r="A64" s="16">
         <v>43258</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>766</v>
+        <v>831</v>
       </c>
       <c r="D64" t="s">
-        <v>767</v>
+        <v>832</v>
       </c>
     </row>
     <row r="65" ht="40.5" spans="3:3">
       <c r="C65" s="5" t="s">
-        <v>768</v>
+        <v>833</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" s="5" t="s">
-        <v>769</v>
+        <v>834</v>
       </c>
     </row>
     <row r="67" ht="67.5" spans="3:3">
       <c r="C67" s="5" t="s">
-        <v>770</v>
+        <v>835</v>
       </c>
     </row>
     <row r="68" ht="67.5" spans="3:3">
       <c r="C68" s="5" t="s">
-        <v>771</v>
+        <v>836</v>
       </c>
     </row>
     <row r="69" ht="27" spans="3:3">
       <c r="C69" s="5" t="s">
-        <v>772</v>
+        <v>837</v>
       </c>
     </row>
     <row r="70" ht="40.5" spans="1:3">
-      <c r="A70" s="15">
+      <c r="A70" s="16">
         <v>43270</v>
       </c>
       <c r="B70" t="s">
-        <v>773</v>
+        <v>838</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>774</v>
+        <v>839</v>
       </c>
     </row>
     <row r="71" ht="27" spans="1:3">
-      <c r="A71" s="15" t="s">
-        <v>775</v>
+      <c r="A71" s="16" t="s">
+        <v>840</v>
       </c>
       <c r="B71" t="s">
         <v>184</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>776</v>
+        <v>841</v>
       </c>
     </row>
     <row r="72" ht="27" spans="1:3">
-      <c r="A72" s="15">
+      <c r="A72" s="16">
         <v>43271</v>
       </c>
       <c r="B72" t="s">
-        <v>777</v>
+        <v>842</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
     </row>
     <row r="73" ht="98" customHeight="1" spans="1:4">
       <c r="A73" t="s">
-        <v>778</v>
+        <v>843</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>779</v>
+        <v>844</v>
       </c>
       <c r="D73" s="5"/>
     </row>
     <row r="74" ht="27" spans="1:3">
-      <c r="A74" s="15">
+      <c r="A74" s="16">
         <v>43271</v>
       </c>
       <c r="B74" t="s">
-        <v>780</v>
+        <v>845</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>781</v>
+        <v>846</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="15">
+      <c r="A75" s="16">
         <v>43272</v>
       </c>
       <c r="B75" t="s">
         <v>184</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>782</v>
+        <v>847</v>
       </c>
     </row>
     <row r="76" ht="121.5" spans="1:3">
-      <c r="A76" s="15">
+      <c r="A76" s="16">
         <v>43272</v>
       </c>
       <c r="B76" t="s">
-        <v>780</v>
+        <v>845</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>783</v>
+        <v>848</v>
       </c>
     </row>
     <row r="77" ht="27" spans="1:3">
-      <c r="A77" s="15">
+      <c r="A77" s="16">
         <v>43272</v>
       </c>
       <c r="B77" t="s">
-        <v>784</v>
+        <v>849</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>785</v>
+        <v>850</v>
       </c>
     </row>
     <row r="78" ht="40.5" spans="1:4">
-      <c r="A78" s="15">
+      <c r="A78" s="16">
         <v>43276</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>786</v>
+        <v>851</v>
       </c>
       <c r="D78" t="s">
-        <v>787</v>
+        <v>852</v>
       </c>
     </row>
     <row r="79" ht="40.5" spans="1:3">
-      <c r="A79" s="15">
+      <c r="A79" s="16">
         <v>43276</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>788</v>
+        <v>853</v>
       </c>
     </row>
     <row r="80" ht="40.5" spans="1:3">
-      <c r="A80" s="15">
+      <c r="A80" s="16">
         <v>43277</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>789</v>
+        <v>854</v>
       </c>
     </row>
     <row r="81" ht="27" spans="1:3">
-      <c r="A81" s="15">
+      <c r="A81" s="16">
         <v>43278</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>790</v>
+        <v>855</v>
       </c>
     </row>
     <row r="82" ht="54" spans="1:3">
-      <c r="A82" s="15">
+      <c r="A82" s="16">
         <v>43283</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>791</v>
+        <v>856</v>
       </c>
     </row>
     <row r="83" ht="107" customHeight="1" spans="1:3">
-      <c r="A83" s="15" t="s">
-        <v>778</v>
+      <c r="A83" s="16" t="s">
+        <v>843</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>792</v>
+        <v>857</v>
       </c>
     </row>
     <row r="84" ht="40.5" spans="1:3">
-      <c r="A84" s="15">
+      <c r="A84" s="16">
         <v>43284</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>793</v>
+        <v>858</v>
       </c>
     </row>
     <row r="85" ht="67.5" spans="1:3">
-      <c r="A85" s="15">
+      <c r="A85" s="16">
         <v>43285</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>794</v>
+        <v>859</v>
       </c>
     </row>
     <row r="86" ht="54" spans="1:3">
-      <c r="A86" s="15">
+      <c r="A86" s="16">
         <v>43286</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>795</v>
+        <v>860</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="15">
+      <c r="A87" s="16">
         <v>43290</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>796</v>
+        <v>861</v>
       </c>
     </row>
     <row r="88" ht="27" spans="1:3">
-      <c r="A88" s="15">
+      <c r="A88" s="16">
         <v>43290</v>
       </c>
       <c r="B88" t="s">
-        <v>797</v>
+        <v>862</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>798</v>
+        <v>863</v>
       </c>
     </row>
     <row r="89" ht="27" spans="1:3">
-      <c r="A89" s="15">
+      <c r="A89" s="16">
         <v>43291</v>
       </c>
       <c r="B89" t="s">
-        <v>797</v>
+        <v>862</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>799</v>
+        <v>864</v>
       </c>
     </row>
     <row r="90" ht="27" spans="1:3">
-      <c r="A90" s="15">
+      <c r="A90" s="16">
         <v>43291</v>
       </c>
       <c r="B90" t="s">
-        <v>800</v>
+        <v>865</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>801</v>
+        <v>866</v>
       </c>
     </row>
     <row r="91" ht="40.5" spans="1:3">
-      <c r="A91" s="15">
+      <c r="A91" s="16">
         <v>43292</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>802</v>
+        <v>867</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="15">
+      <c r="A92" s="16">
         <v>43293</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>803</v>
+        <v>868</v>
       </c>
     </row>
     <row r="93" ht="54" spans="1:3">
-      <c r="A93" s="15">
+      <c r="A93" s="16">
         <v>43294</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>804</v>
+        <v>869</v>
       </c>
     </row>
     <row r="94" ht="40.5" spans="1:3">
-      <c r="A94" s="15">
+      <c r="A94" s="16">
         <v>43297</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>805</v>
+        <v>870</v>
       </c>
     </row>
     <row r="95" ht="189" spans="1:3">
       <c r="A95" t="s">
-        <v>778</v>
+        <v>843</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>806</v>
+        <v>871</v>
       </c>
     </row>
     <row r="96" ht="54" spans="1:3">
-      <c r="A96" s="15">
+      <c r="A96" s="16">
         <v>43298</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>807</v>
+        <v>872</v>
       </c>
     </row>
     <row r="97" ht="94.5" spans="1:3">
-      <c r="A97" s="15">
+      <c r="A97" s="16">
         <v>43299</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>808</v>
+        <v>873</v>
       </c>
     </row>
     <row r="98" ht="40.5" spans="1:3">
-      <c r="A98" s="15">
+      <c r="A98" s="16">
         <v>43300</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>809</v>
+        <v>874</v>
       </c>
     </row>
     <row r="99" ht="54" spans="1:3">
-      <c r="A99" s="15">
+      <c r="A99" s="16">
         <v>43301</v>
       </c>
       <c r="B99" t="s">
-        <v>800</v>
+        <v>865</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>810</v>
+        <v>875</v>
       </c>
     </row>
     <row r="100" ht="54" spans="1:3">
-      <c r="A100" s="15">
+      <c r="A100" s="16">
         <v>43304</v>
       </c>
       <c r="B100" t="s">
-        <v>811</v>
+        <v>876</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>812</v>
+        <v>877</v>
       </c>
     </row>
     <row r="101" ht="40.5" spans="1:3">
-      <c r="A101" s="15">
+      <c r="A101" s="16">
         <v>43304</v>
       </c>
       <c r="B101" t="s">
-        <v>797</v>
+        <v>862</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>813</v>
+        <v>878</v>
       </c>
     </row>
     <row r="102" ht="40.5" spans="1:3">
-      <c r="A102" s="15">
+      <c r="A102" s="16">
         <v>43305</v>
       </c>
       <c r="B102" t="s">
-        <v>814</v>
+        <v>879</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>815</v>
+        <v>880</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="15">
+      <c r="A103" s="16">
         <v>43305</v>
       </c>
       <c r="B103" t="s">
-        <v>816</v>
+        <v>881</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>817</v>
+        <v>882</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="15">
+      <c r="A104" s="16">
         <v>43305</v>
       </c>
       <c r="B104" t="s">
-        <v>800</v>
+        <v>865</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>818</v>
+        <v>883</v>
       </c>
     </row>
     <row r="105" ht="40.5" spans="1:3">
-      <c r="A105" s="15">
+      <c r="A105" s="16">
         <v>43306</v>
       </c>
       <c r="B105" t="s">
-        <v>816</v>
+        <v>881</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>819</v>
+        <v>884</v>
       </c>
     </row>
     <row r="106" ht="54" spans="1:3">
-      <c r="A106" s="15">
+      <c r="A106" s="16">
         <v>43306</v>
       </c>
       <c r="B106" t="s">
-        <v>800</v>
+        <v>865</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>820</v>
+        <v>885</v>
       </c>
     </row>
     <row r="107" ht="27" spans="1:4">
-      <c r="A107" s="15">
+      <c r="A107" s="16">
         <v>43306</v>
       </c>
       <c r="B107" t="s">
-        <v>814</v>
+        <v>879</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>821</v>
+        <v>886</v>
       </c>
       <c r="D107" t="s">
-        <v>822</v>
+        <v>887</v>
       </c>
     </row>
     <row r="108" ht="27" spans="1:3">
-      <c r="A108" s="15">
+      <c r="A108" s="16">
         <v>43306</v>
       </c>
       <c r="B108" t="s">
-        <v>823</v>
+        <v>888</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>824</v>
+        <v>889</v>
       </c>
     </row>
     <row r="109" ht="54" spans="1:3">
-      <c r="A109" s="15">
+      <c r="A109" s="16">
         <v>43307</v>
       </c>
       <c r="B109" t="s">
-        <v>800</v>
+        <v>865</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>825</v>
+        <v>890</v>
       </c>
     </row>
     <row r="110" ht="27" spans="1:3">
-      <c r="A110" s="15">
+      <c r="A110" s="16">
         <v>43307</v>
       </c>
       <c r="B110" t="s">
-        <v>826</v>
+        <v>891</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>827</v>
+        <v>892</v>
       </c>
     </row>
     <row r="111" ht="27" spans="1:3">
-      <c r="A111" s="15">
+      <c r="A111" s="16">
         <v>43308</v>
       </c>
       <c r="B111" t="s">
-        <v>814</v>
+        <v>879</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>828</v>
+        <v>893</v>
       </c>
     </row>
     <row r="112" ht="40.5" spans="1:3">
-      <c r="A112" s="15">
+      <c r="A112" s="16">
         <v>43311</v>
       </c>
       <c r="B112" t="s">
-        <v>814</v>
+        <v>879</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>829</v>
+        <v>894</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="15">
+      <c r="A113" s="16">
         <v>43311</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>830</v>
+        <v>895</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="15">
+      <c r="A114" s="16">
         <v>43311</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>831</v>
+        <v>896</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="15">
+      <c r="A115" s="16">
         <v>43311</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>832</v>
+        <v>897</v>
       </c>
     </row>
     <row r="116" ht="54" spans="1:3">
-      <c r="A116" s="15">
+      <c r="A116" s="16">
         <v>43312</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>833</v>
+        <v>898</v>
       </c>
     </row>
     <row r="117" ht="27" spans="1:3">
-      <c r="A117" s="15">
+      <c r="A117" s="16">
         <v>43312</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>834</v>
+        <v>899</v>
       </c>
     </row>
     <row r="118" ht="27" spans="1:3">
-      <c r="A118" s="15">
+      <c r="A118" s="16">
         <v>43313</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>835</v>
+        <v>900</v>
       </c>
     </row>
     <row r="119" ht="40.5" spans="1:3">
-      <c r="A119" s="15">
+      <c r="A119" s="16">
         <v>43314</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>836</v>
+        <v>901</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="15">
+      <c r="A120" s="16">
         <v>43314</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>837</v>
+        <v>902</v>
       </c>
     </row>
     <row r="121" ht="27" spans="1:3">
-      <c r="A121" s="15">
+      <c r="A121" s="16">
         <v>43315</v>
       </c>
       <c r="B121" t="s">
-        <v>800</v>
+        <v>865</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>838</v>
+        <v>903</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="15">
+      <c r="A122" s="16">
         <v>43318</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>839</v>
+        <v>904</v>
       </c>
     </row>
     <row r="123" ht="27" spans="1:3">
-      <c r="A123" s="15">
+      <c r="A123" s="16">
         <v>43318</v>
       </c>
       <c r="B123" t="s">
-        <v>800</v>
+        <v>865</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>840</v>
+        <v>905</v>
       </c>
     </row>
     <row r="124" ht="40.5" spans="1:3">
-      <c r="A124" s="15">
+      <c r="A124" s="16">
         <v>43319</v>
       </c>
       <c r="B124" t="s">
-        <v>800</v>
+        <v>865</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>841</v>
+        <v>906</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="15">
+      <c r="A125" s="16">
         <v>43319</v>
       </c>
       <c r="B125" t="s">
-        <v>814</v>
+        <v>879</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>842</v>
+        <v>907</v>
       </c>
     </row>
     <row r="126" ht="27" spans="1:3">
-      <c r="A126" s="15">
+      <c r="A126" s="16">
         <v>43320</v>
       </c>
       <c r="B126" t="s">
-        <v>814</v>
+        <v>879</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>843</v>
+        <v>908</v>
       </c>
     </row>
     <row r="127" ht="27" spans="1:4">
       <c r="A127" s="6" t="s">
-        <v>844</v>
+        <v>909</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>845</v>
+        <v>910</v>
       </c>
       <c r="D127" t="s">
-        <v>846</v>
+        <v>911</v>
       </c>
     </row>
     <row r="128" ht="40.5" spans="1:3">
       <c r="A128" s="6"/>
       <c r="C128" s="5" t="s">
-        <v>847</v>
+        <v>912</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="6"/>
       <c r="C129" s="5" t="s">
-        <v>848</v>
+        <v>913</v>
       </c>
       <c r="D129" t="s">
-        <v>849</v>
+        <v>914</v>
       </c>
     </row>
     <row r="130" ht="27" spans="1:3">
       <c r="A130" s="6"/>
       <c r="C130" s="5" t="s">
-        <v>850</v>
+        <v>915</v>
       </c>
     </row>
     <row r="131" ht="40.5" spans="1:3">
       <c r="A131" s="6"/>
       <c r="C131" s="5" t="s">
-        <v>851</v>
+        <v>916</v>
       </c>
     </row>
     <row r="132" ht="27" spans="1:3">
       <c r="A132" s="6"/>
       <c r="C132" s="5" t="s">
-        <v>852</v>
+        <v>917</v>
       </c>
     </row>
     <row r="133" ht="67.5" spans="1:3">
-      <c r="A133" s="15">
+      <c r="A133" s="16">
         <v>43321</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>853</v>
+        <v>918</v>
       </c>
     </row>
     <row r="134" ht="54" spans="1:3">
-      <c r="A134" s="15">
+      <c r="A134" s="16">
         <v>43322</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>854</v>
+        <v>919</v>
       </c>
     </row>
     <row r="135" ht="121.5" spans="1:3">
-      <c r="A135" s="15">
+      <c r="A135" s="16">
         <v>43325</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>855</v>
+        <v>920</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="15">
+      <c r="A136" s="16">
         <v>43326</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>856</v>
+        <v>921</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="15">
+      <c r="A137" s="16">
         <v>43327</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>857</v>
+        <v>922</v>
       </c>
     </row>
     <row r="138" ht="54" spans="1:3">
-      <c r="A138" s="15">
+      <c r="A138" s="16">
         <v>43328</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>858</v>
+        <v>923</v>
       </c>
     </row>
     <row r="139" ht="27" spans="1:3">
-      <c r="A139" s="15">
+      <c r="A139" s="16">
         <v>43329</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>859</v>
+        <v>924</v>
       </c>
     </row>
     <row r="140" ht="54" spans="1:3">
-      <c r="A140" s="15">
+      <c r="A140" s="16">
         <v>43332</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>860</v>
+        <v>925</v>
       </c>
     </row>
     <row r="141" ht="81" spans="1:3">
-      <c r="A141" s="15">
+      <c r="A141" s="16">
         <v>43333</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>861</v>
+        <v>926</v>
       </c>
     </row>
     <row r="142" ht="27" spans="1:3">
-      <c r="A142" s="15">
+      <c r="A142" s="16">
         <v>43333</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>862</v>
+        <v>927</v>
       </c>
     </row>
     <row r="143" ht="40.5" spans="1:3">
-      <c r="A143" s="15">
+      <c r="A143" s="16">
         <v>43334</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>863</v>
+        <v>928</v>
       </c>
     </row>
     <row r="144" ht="40.5" spans="1:3">
-      <c r="A144" s="15">
+      <c r="A144" s="16">
         <v>43335</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>864</v>
+        <v>929</v>
       </c>
     </row>
     <row r="145" s="13" customFormat="1" ht="81" spans="1:3">
       <c r="A145" s="13" t="s">
-        <v>844</v>
-      </c>
-      <c r="C145" s="21" t="s">
-        <v>865</v>
+        <v>909</v>
+      </c>
+      <c r="C145" s="22" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="146" ht="54" spans="1:3">
-      <c r="A146" s="15">
+      <c r="A146" s="16">
         <v>43336</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>866</v>
+        <v>931</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="15">
+      <c r="A147" s="16">
         <v>43339</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>867</v>
+        <v>932</v>
       </c>
     </row>
     <row r="148" ht="40.5" spans="1:3">
-      <c r="A148" s="15">
+      <c r="A148" s="16">
         <v>43340</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>868</v>
+        <v>933</v>
       </c>
     </row>
     <row r="149" ht="27" spans="3:3">
       <c r="C149" s="5" t="s">
-        <v>869</v>
+        <v>934</v>
       </c>
     </row>
     <row r="150" ht="27" spans="3:3">
       <c r="C150" s="5" t="s">
-        <v>870</v>
+        <v>935</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="15">
+      <c r="A151" s="16">
         <v>43348</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>871</v>
+        <v>936</v>
       </c>
     </row>
     <row r="152" ht="40.5" spans="1:3">
-      <c r="A152" s="15">
+      <c r="A152" s="16">
         <v>43349</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>872</v>
+        <v>937</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="15">
+      <c r="A153" s="16">
         <v>43350</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>873</v>
+        <v>938</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="15">
+      <c r="A154" s="16">
         <v>43354</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>874</v>
+        <v>939</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="15">
+      <c r="A155" s="16">
         <v>43355</v>
       </c>
-      <c r="C155" s="22" t="s">
-        <v>875</v>
+      <c r="C155" s="23" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="156" ht="43" customHeight="1" spans="1:3">
-      <c r="A156" s="15">
+      <c r="A156" s="16">
         <v>43356</v>
       </c>
-      <c r="C156" s="22"/>
+      <c r="C156" s="23"/>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="15">
+      <c r="A157" s="16">
         <v>43357</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>876</v>
+        <v>941</v>
       </c>
     </row>
     <row r="158" ht="54" spans="1:3">
-      <c r="A158" s="15">
+      <c r="A158" s="16">
         <v>43360</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>877</v>
+        <v>942</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="15">
+      <c r="A159" s="16">
         <v>43361</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>878</v>
+        <v>943</v>
       </c>
     </row>
     <row r="160" s="14" customFormat="1" ht="175.5" spans="1:3">
       <c r="A160" s="14" t="s">
-        <v>778</v>
-      </c>
-      <c r="C160" s="23" t="s">
-        <v>879</v>
+        <v>843</v>
+      </c>
+      <c r="C160" s="24" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="15">
+      <c r="A161" s="16">
         <v>43362</v>
       </c>
-      <c r="B161" s="15">
+      <c r="B161" s="16">
         <v>43363</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>880</v>
+        <v>945</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="15">
+      <c r="A162" s="16">
         <v>43364</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>881</v>
+        <v>946</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="16">
+        <v>43368</v>
+      </c>
+      <c r="C163" s="19" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="16">
+        <v>43370</v>
+      </c>
+      <c r="C164" s="19"/>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="16">
+        <v>43370</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="16">
+        <v>43373</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="16">
+        <v>43381</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="16">
+        <v>43382</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="169" s="15" customFormat="1" ht="94.5" spans="1:3">
+      <c r="A169" s="25" t="s">
+        <v>843</v>
+      </c>
+      <c r="C169" s="26" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="16">
+        <v>43385</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="D170" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="171" ht="27" spans="1:3">
+      <c r="A171" s="16">
+        <v>43388</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>955</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A50:A56"/>
     <mergeCell ref="A127:A132"/>
     <mergeCell ref="C155:C156"/>
+    <mergeCell ref="C163:C164"/>
     <mergeCell ref="E43:E45"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -12312,10 +13525,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -12327,258 +13540,258 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
       <c r="A1" s="10" t="s">
-        <v>882</v>
+        <v>956</v>
       </c>
       <c r="B1" t="s">
-        <v>883</v>
+        <v>957</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>884</v>
+        <v>958</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
       <c r="A2" s="11" t="s">
-        <v>885</v>
+        <v>959</v>
       </c>
       <c r="B2" t="s">
-        <v>886</v>
+        <v>960</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>887</v>
+        <v>961</v>
       </c>
       <c r="D2" t="s">
-        <v>888</v>
+        <v>962</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>889</v>
+        <v>963</v>
       </c>
       <c r="B3" t="s">
-        <v>890</v>
+        <v>964</v>
       </c>
       <c r="C3" s="8"/>
     </row>
     <row r="4" ht="14.25" spans="1:2">
       <c r="A4" s="12" t="s">
-        <v>891</v>
+        <v>965</v>
       </c>
       <c r="B4" t="s">
-        <v>892</v>
+        <v>966</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:2">
       <c r="A5" s="12" t="s">
-        <v>893</v>
+        <v>967</v>
       </c>
       <c r="B5" t="s">
-        <v>894</v>
+        <v>968</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:2">
       <c r="A6" s="12" t="s">
-        <v>895</v>
+        <v>969</v>
       </c>
       <c r="B6" t="s">
-        <v>896</v>
+        <v>970</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>897</v>
+        <v>971</v>
       </c>
       <c r="B7" t="s">
-        <v>898</v>
+        <v>972</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>899</v>
+        <v>973</v>
       </c>
       <c r="B8" t="s">
-        <v>900</v>
+        <v>974</v>
       </c>
       <c r="C8" t="s">
-        <v>901</v>
+        <v>975</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>902</v>
+        <v>976</v>
       </c>
       <c r="B9" t="s">
-        <v>903</v>
+        <v>977</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>904</v>
+        <v>978</v>
       </c>
       <c r="B10" t="s">
-        <v>905</v>
+        <v>979</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>906</v>
+        <v>980</v>
       </c>
       <c r="B11" t="s">
-        <v>907</v>
+        <v>981</v>
       </c>
     </row>
     <row r="12" ht="94.5" spans="1:1">
       <c r="A12" s="5" t="s">
-        <v>908</v>
+        <v>982</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>909</v>
+        <v>983</v>
       </c>
       <c r="B13" t="s">
-        <v>910</v>
+        <v>984</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>911</v>
+        <v>985</v>
       </c>
       <c r="B14" t="s">
-        <v>912</v>
+        <v>986</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>913</v>
+        <v>987</v>
       </c>
       <c r="B15" t="s">
-        <v>914</v>
+        <v>988</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>915</v>
+        <v>989</v>
       </c>
       <c r="B16" t="s">
-        <v>916</v>
+        <v>990</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>917</v>
+        <v>991</v>
       </c>
       <c r="B17" t="s">
-        <v>918</v>
+        <v>992</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>919</v>
+        <v>993</v>
       </c>
       <c r="B18" t="s">
-        <v>920</v>
+        <v>994</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>921</v>
+        <v>995</v>
       </c>
       <c r="B19" t="s">
-        <v>922</v>
+        <v>996</v>
       </c>
       <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>923</v>
+        <v>997</v>
       </c>
       <c r="B20" t="s">
-        <v>924</v>
+        <v>998</v>
       </c>
       <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>925</v>
+        <v>999</v>
       </c>
       <c r="B21" t="s">
-        <v>926</v>
+        <v>1000</v>
       </c>
       <c r="C21" t="s">
-        <v>927</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>928</v>
+        <v>1002</v>
       </c>
       <c r="B22" t="s">
-        <v>926</v>
+        <v>1000</v>
       </c>
       <c r="C22" t="s">
-        <v>929</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="23" ht="175.5" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>930</v>
+        <v>1004</v>
       </c>
       <c r="B23" t="s">
-        <v>931</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>932</v>
+        <v>1006</v>
       </c>
       <c r="B24" t="s">
-        <v>933</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>934</v>
+        <v>1008</v>
       </c>
       <c r="B25" t="s">
-        <v>935</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>936</v>
+        <v>1010</v>
       </c>
       <c r="B26" t="s">
-        <v>937</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>938</v>
+        <v>1012</v>
       </c>
       <c r="B27" t="s">
-        <v>939</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>940</v>
+        <v>1014</v>
       </c>
       <c r="B28" t="s">
-        <v>941</v>
+        <v>1015</v>
       </c>
       <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>942</v>
+        <v>1016</v>
       </c>
       <c r="B29" t="s">
-        <v>943</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>944</v>
+        <v>1018</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
@@ -12586,78 +13799,86 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>945</v>
+        <v>1019</v>
       </c>
       <c r="B31" t="s">
-        <v>946</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>947</v>
+        <v>1021</v>
       </c>
       <c r="B32" t="s">
-        <v>941</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>948</v>
+        <v>1022</v>
       </c>
       <c r="B33" t="s">
-        <v>949</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>950</v>
+        <v>1024</v>
       </c>
       <c r="B34" t="s">
-        <v>951</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>952</v>
+        <v>1026</v>
       </c>
       <c r="B35" t="s">
-        <v>953</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>954</v>
+        <v>1028</v>
       </c>
       <c r="B36" t="s">
-        <v>955</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>956</v>
+        <v>1030</v>
       </c>
       <c r="B37" t="s">
-        <v>957</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>895</v>
+        <v>969</v>
       </c>
       <c r="B38" t="s">
-        <v>958</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>959</v>
+        <v>1033</v>
       </c>
       <c r="B39" t="s">
-        <v>960</v>
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1036</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C38">
+  <autoFilter ref="A1:C39">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -12687,11 +13908,11 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
-        <v>961</v>
+        <v>1037</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="7" t="s">
-        <v>962</v>
+        <v>1038</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -12699,61 +13920,61 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>963</v>
+        <v>1039</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>964</v>
+        <v>1040</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>964</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="3" ht="27" spans="2:6">
       <c r="B3" s="5" t="s">
-        <v>965</v>
+        <v>1041</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>966</v>
+        <v>1042</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>967</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="7" ht="67.5" spans="2:3">
       <c r="B7" s="5" t="s">
-        <v>968</v>
+        <v>1044</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>969</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="5" t="s">
-        <v>970</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="5" t="s">
-        <v>971</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="5" t="s">
-        <v>972</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="5" t="s">
-        <v>973</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="5" t="s">
-        <v>974</v>
+        <v>1050</v>
       </c>
     </row>
   </sheetData>
@@ -12781,7 +14002,7 @@
   <sheetData>
     <row r="1" ht="108" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>975</v>
+        <v>1051</v>
       </c>
     </row>
   </sheetData>
